--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959315052990105</v>
+        <v>0.9959315052990104</v>
       </c>
       <c r="D2">
         <v>1.01516748313749</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04483581541759</v>
+        <v>1.044835815417589</v>
       </c>
       <c r="J2">
         <v>1.018234589055683</v>
@@ -448,7 +448,7 @@
         <v>1.017904275462583</v>
       </c>
       <c r="M2">
-        <v>1.02563317972861</v>
+        <v>1.025633179728611</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -480,7 +480,7 @@
         <v>1.024825867225762</v>
       </c>
       <c r="K3">
-        <v>1.031975030347895</v>
+        <v>1.031975030347896</v>
       </c>
       <c r="L3">
         <v>1.024973906649953</v>
@@ -500,13 +500,13 @@
         <v>1.009782854368586</v>
       </c>
       <c r="D4">
-        <v>1.025640056149771</v>
+        <v>1.02564005614977</v>
       </c>
       <c r="E4">
         <v>1.019521635568915</v>
       </c>
       <c r="F4">
-        <v>1.027214215818976</v>
+        <v>1.027214215818975</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>1.027301985089857</v>
       </c>
       <c r="E5">
-        <v>1.02158450881802</v>
+        <v>1.021584508818019</v>
       </c>
       <c r="F5">
-        <v>1.029254823148369</v>
+        <v>1.029254823148368</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.031210975166001</v>
       </c>
       <c r="M5">
-        <v>1.038796457729927</v>
+        <v>1.038796457729926</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012346449073973</v>
+        <v>1.012346449073975</v>
       </c>
       <c r="D6">
-        <v>1.027579225882015</v>
+        <v>1.027579225882016</v>
       </c>
       <c r="E6">
-        <v>1.021928697436625</v>
+        <v>1.021928697436628</v>
       </c>
       <c r="F6">
-        <v>1.029595306542202</v>
+        <v>1.029595306542204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050571624853426</v>
+        <v>1.050571624853427</v>
       </c>
       <c r="J6">
-        <v>1.030917703673809</v>
+        <v>1.030917703673811</v>
       </c>
       <c r="K6">
-        <v>1.037102901399151</v>
+        <v>1.037102901399153</v>
       </c>
       <c r="L6">
-        <v>1.031514697538251</v>
+        <v>1.031514697538253</v>
       </c>
       <c r="M6">
-        <v>1.039096948222177</v>
+        <v>1.039096948222179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009812374808235</v>
+        <v>1.009812374808233</v>
       </c>
       <c r="D7">
-        <v>1.025662385008742</v>
+        <v>1.025662385008741</v>
       </c>
       <c r="E7">
-        <v>1.019549347140667</v>
+        <v>1.019549347140666</v>
       </c>
       <c r="F7">
-        <v>1.027241627605224</v>
+        <v>1.027241627605223</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049694107212935</v>
+        <v>1.049694107212934</v>
       </c>
       <c r="J7">
-        <v>1.028962366365156</v>
+        <v>1.028962366365155</v>
       </c>
       <c r="K7">
-        <v>1.035457746638481</v>
+        <v>1.03545774663848</v>
       </c>
       <c r="L7">
-        <v>1.029414493911736</v>
+        <v>1.029414493911735</v>
       </c>
       <c r="M7">
         <v>1.037019127306797</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988533484575307</v>
+        <v>0.9988533484575312</v>
       </c>
       <c r="D8">
-        <v>1.017375719047841</v>
+        <v>1.017375719047842</v>
       </c>
       <c r="E8">
-        <v>1.009271946265358</v>
+        <v>1.009271946265359</v>
       </c>
       <c r="F8">
-        <v>1.017076746506936</v>
+        <v>1.017076746506937</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.020494865004312</v>
       </c>
       <c r="K8">
-        <v>1.028325358643801</v>
+        <v>1.028325358643802</v>
       </c>
       <c r="L8">
         <v>1.020327770960412</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779468877506667</v>
+        <v>0.9779468877506645</v>
       </c>
       <c r="D9">
-        <v>1.001590251335996</v>
+        <v>1.001590251335994</v>
       </c>
       <c r="E9">
-        <v>0.9897216463867082</v>
+        <v>0.9897216463867058</v>
       </c>
       <c r="F9">
-        <v>0.997748851402425</v>
+        <v>0.9977488514024232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038433888997351</v>
+        <v>1.03843388899735</v>
       </c>
       <c r="J9">
-        <v>1.004303175951146</v>
+        <v>1.004303175951145</v>
       </c>
       <c r="K9">
-        <v>1.014657580404481</v>
+        <v>1.01465758040448</v>
       </c>
       <c r="L9">
-        <v>1.002983713373031</v>
+        <v>1.002983713373029</v>
       </c>
       <c r="M9">
-        <v>1.010878557815831</v>
+        <v>1.010878557815829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9626962724272085</v>
+        <v>0.9626962724272092</v>
       </c>
       <c r="D10">
-        <v>0.9901035102270515</v>
+        <v>0.9901035102270521</v>
       </c>
       <c r="E10">
-        <v>0.9755065934076788</v>
+        <v>0.9755065934076795</v>
       </c>
       <c r="F10">
-        <v>0.9837035128508026</v>
+        <v>0.9837035128508032</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032932516008909</v>
       </c>
       <c r="J10">
-        <v>0.9924723063891912</v>
+        <v>0.9924723063891921</v>
       </c>
       <c r="K10">
-        <v>1.004653777779321</v>
+        <v>1.004653777779322</v>
       </c>
       <c r="L10">
-        <v>0.9903326287949232</v>
+        <v>0.9903326287949241</v>
       </c>
       <c r="M10">
-        <v>0.9983733741465861</v>
+        <v>0.9983733741465867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9557151556029699</v>
+        <v>0.9557151556029707</v>
       </c>
       <c r="D11">
-        <v>0.9848554295877058</v>
+        <v>0.984855429587707</v>
       </c>
       <c r="E11">
-        <v>0.9690127040931078</v>
+        <v>0.9690127040931086</v>
       </c>
       <c r="F11">
-        <v>0.9772896791340892</v>
+        <v>0.9772896791340904</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030396749614086</v>
+        <v>1.030396749614087</v>
       </c>
       <c r="J11">
-        <v>0.987053771835611</v>
+        <v>0.9870537718356119</v>
       </c>
       <c r="K11">
-        <v>1.00006871553701</v>
+        <v>1.000068715537011</v>
       </c>
       <c r="L11">
-        <v>0.9845436506657085</v>
+        <v>0.9845436506657093</v>
       </c>
       <c r="M11">
-        <v>0.992652974798825</v>
+        <v>0.9926529747988261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9530585455922367</v>
+        <v>0.9530585455922355</v>
       </c>
       <c r="D12">
-        <v>0.9828601645333988</v>
+        <v>0.982860164533398</v>
       </c>
       <c r="E12">
-        <v>0.9665437056885049</v>
+        <v>0.9665437056885038</v>
       </c>
       <c r="F12">
-        <v>0.9748515604310626</v>
+        <v>0.9748515604310617</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029429327612799</v>
       </c>
       <c r="J12">
-        <v>0.9849915460183809</v>
+        <v>0.9849915460183801</v>
       </c>
       <c r="K12">
-        <v>0.9983232723078972</v>
+        <v>0.998323272307896</v>
       </c>
       <c r="L12">
-        <v>0.9823412259487703</v>
+        <v>0.9823412259487692</v>
       </c>
       <c r="M12">
-        <v>0.9904769628260132</v>
+        <v>0.9904769628260122</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9536313935116264</v>
+        <v>0.9536313935116246</v>
       </c>
       <c r="D13">
-        <v>0.9832903164719345</v>
+        <v>0.983290316471933</v>
       </c>
       <c r="E13">
-        <v>0.9670759955788335</v>
+        <v>0.9670759955788311</v>
       </c>
       <c r="F13">
-        <v>0.9753771719213605</v>
+        <v>0.9753771719213588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029638041743544</v>
+        <v>1.029638041743543</v>
       </c>
       <c r="J13">
-        <v>0.9854362339805631</v>
+        <v>0.9854362339805615</v>
       </c>
       <c r="K13">
-        <v>0.9986996688283231</v>
+        <v>0.9986996688283214</v>
       </c>
       <c r="L13">
-        <v>0.982816110123946</v>
+        <v>0.9828161101239441</v>
       </c>
       <c r="M13">
-        <v>0.9909461365372617</v>
+        <v>0.9909461365372598</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955496898514285</v>
+        <v>0.955496898514282</v>
       </c>
       <c r="D14">
-        <v>0.9846914665378519</v>
+        <v>0.9846914665378496</v>
       </c>
       <c r="E14">
-        <v>0.9688098145427222</v>
+        <v>0.9688098145427193</v>
       </c>
       <c r="F14">
-        <v>0.9770893177663329</v>
+        <v>0.9770893177663299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030317318520754</v>
+        <v>1.030317318520753</v>
       </c>
       <c r="J14">
-        <v>0.986884350919614</v>
+        <v>0.9868843509196115</v>
       </c>
       <c r="K14">
-        <v>0.9999253278815892</v>
+        <v>0.9999253278815867</v>
       </c>
       <c r="L14">
-        <v>0.9843626958344505</v>
+        <v>0.9843626958344474</v>
       </c>
       <c r="M14">
-        <v>0.9924741832590789</v>
+        <v>0.992474183259076</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9566376585397026</v>
+        <v>0.9566376585397033</v>
       </c>
       <c r="D15">
-        <v>0.9855485261721005</v>
+        <v>0.9855485261721013</v>
       </c>
       <c r="E15">
-        <v>0.9698703439911378</v>
+        <v>0.9698703439911387</v>
       </c>
       <c r="F15">
-        <v>0.9781366504235164</v>
+        <v>0.9781366504235172</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030732380928233</v>
+        <v>1.030732380928234</v>
       </c>
       <c r="J15">
-        <v>0.9877698511250622</v>
+        <v>0.9877698511250631</v>
       </c>
       <c r="K15">
-        <v>1.000674745068479</v>
+        <v>1.00067474506848</v>
       </c>
       <c r="L15">
-        <v>0.9853085114774184</v>
+        <v>0.9853085114774193</v>
       </c>
       <c r="M15">
-        <v>0.9934087051608119</v>
+        <v>0.9934087051608126</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631510782444533</v>
+        <v>0.9631510782444518</v>
       </c>
       <c r="D16">
-        <v>0.9904456469189455</v>
+        <v>0.9904456469189445</v>
       </c>
       <c r="E16">
-        <v>0.9759299465352372</v>
+        <v>0.9759299465352355</v>
       </c>
       <c r="F16">
-        <v>0.9841217040346025</v>
+        <v>0.9841217040346011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033097370044379</v>
+        <v>1.033097370044378</v>
       </c>
       <c r="J16">
-        <v>0.9928252692323591</v>
+        <v>0.9928252692323575</v>
       </c>
       <c r="K16">
-        <v>1.004952385752899</v>
+        <v>1.004952385752898</v>
       </c>
       <c r="L16">
-        <v>0.9907098299660945</v>
+        <v>0.9907098299660927</v>
       </c>
       <c r="M16">
-        <v>0.9987461481656883</v>
+        <v>0.9987461481656867</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9671312554503361</v>
+        <v>0.9671312554503386</v>
       </c>
       <c r="D17">
-        <v>0.9934409800963718</v>
+        <v>0.9934409800963739</v>
       </c>
       <c r="E17">
-        <v>0.9796363709052089</v>
+        <v>0.9796363709052115</v>
       </c>
       <c r="F17">
-        <v>0.9877832258424345</v>
+        <v>0.9877832258424369</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034538129769023</v>
+        <v>1.034538129769025</v>
       </c>
       <c r="J17">
-        <v>0.9959138806327011</v>
+        <v>0.9959138806327036</v>
       </c>
       <c r="K17">
-        <v>1.0075649984347</v>
+        <v>1.007564998434703</v>
       </c>
       <c r="L17">
-        <v>0.9940111244517488</v>
+        <v>0.9940111244517511</v>
       </c>
       <c r="M17">
-        <v>1.00200890463008</v>
+        <v>1.002008904630082</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9694169170572375</v>
+        <v>0.9694169170572378</v>
       </c>
       <c r="D18">
-        <v>0.995162001083407</v>
+        <v>0.9951620010834071</v>
       </c>
       <c r="E18">
-        <v>0.9817660416604348</v>
+        <v>0.9817660416604355</v>
       </c>
       <c r="F18">
         <v>0.989887327390472</v>
@@ -1044,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035363861604758</v>
+        <v>1.035363861604759</v>
       </c>
       <c r="J18">
-        <v>0.9976872726609225</v>
+        <v>0.9976872726609228</v>
       </c>
       <c r="K18">
         <v>1.00906477053782</v>
       </c>
       <c r="L18">
-        <v>0.9959071190695847</v>
+        <v>0.9959071190695852</v>
       </c>
       <c r="M18">
         <v>1.003882932154553</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.970190366165406</v>
+        <v>0.9701903661654084</v>
       </c>
       <c r="D19">
-        <v>0.9957445269215599</v>
+        <v>0.995744526921562</v>
       </c>
       <c r="E19">
-        <v>0.982486904890824</v>
+        <v>0.9824869048908267</v>
       </c>
       <c r="F19">
-        <v>0.9905995733493453</v>
+        <v>0.9905995733493479</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03564299961719</v>
+        <v>1.035642999617191</v>
       </c>
       <c r="J19">
-        <v>0.9982873219019793</v>
+        <v>0.9982873219019818</v>
       </c>
       <c r="K19">
-        <v>1.009572181633219</v>
+        <v>1.009572181633221</v>
       </c>
       <c r="L19">
-        <v>0.9965487347770484</v>
+        <v>0.996548734777051</v>
       </c>
       <c r="M19">
-        <v>1.004517140908397</v>
+        <v>1.0045171409084</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9667079797706768</v>
+        <v>0.9667079797706767</v>
       </c>
       <c r="D20">
-        <v>0.9931223409338843</v>
+        <v>0.9931223409338845</v>
       </c>
       <c r="E20">
-        <v>0.9792420798828515</v>
+        <v>0.9792420798828512</v>
       </c>
       <c r="F20">
-        <v>0.9873936870977822</v>
+        <v>0.9873936870977823</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.034385080440804</v>
       </c>
       <c r="J20">
-        <v>0.995585447074786</v>
+        <v>0.9955854470747859</v>
       </c>
       <c r="K20">
-        <v>1.007287213445195</v>
+        <v>1.007287213445196</v>
       </c>
       <c r="L20">
-        <v>0.9936600242158928</v>
+        <v>0.9936600242158924</v>
       </c>
       <c r="M20">
         <v>1.001661885407154</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549493675077662</v>
+        <v>0.9549493675077663</v>
       </c>
       <c r="D21">
-        <v>0.984280171318201</v>
+        <v>0.9842801713182014</v>
       </c>
       <c r="E21">
-        <v>0.9683008714813112</v>
+        <v>0.9683008714813111</v>
       </c>
       <c r="F21">
-        <v>0.9765867239192935</v>
+        <v>0.9765867239192936</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030118014757095</v>
       </c>
       <c r="J21">
-        <v>0.9864593296027199</v>
+        <v>0.98645932960272</v>
       </c>
       <c r="K21">
-        <v>0.9995656088648633</v>
+        <v>0.9995656088648639</v>
       </c>
       <c r="L21">
-        <v>0.9839087523754624</v>
+        <v>0.9839087523754625</v>
       </c>
       <c r="M21">
-        <v>0.9920256719832761</v>
+        <v>0.9920256719832763</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471845169758339</v>
+        <v>0.9471845169758348</v>
       </c>
       <c r="D22">
-        <v>0.9784522782533548</v>
+        <v>0.9784522782533555</v>
       </c>
       <c r="E22">
-        <v>0.9610888504088025</v>
+        <v>0.9610888504088033</v>
       </c>
       <c r="F22">
-        <v>0.9694658258437594</v>
+        <v>0.9694658258437601</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027285927558928</v>
       </c>
       <c r="J22">
-        <v>0.9804315362448581</v>
+        <v>0.9804315362448588</v>
       </c>
       <c r="K22">
-        <v>0.9944630359432717</v>
+        <v>0.9944630359432722</v>
       </c>
       <c r="L22">
-        <v>0.9774726685000644</v>
+        <v>0.9774726685000652</v>
       </c>
       <c r="M22">
-        <v>0.9856674485591492</v>
+        <v>0.9856674485591499</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513386402842238</v>
+        <v>0.9513386402842234</v>
       </c>
       <c r="D23">
-        <v>0.9815689864889383</v>
+        <v>0.9815689864889381</v>
       </c>
       <c r="E23">
         <v>0.9649459123876233</v>
       </c>
       <c r="F23">
-        <v>0.9732738841947794</v>
+        <v>0.9732738841947791</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028802343378832</v>
       </c>
       <c r="J23">
-        <v>0.983656405017041</v>
+        <v>0.9836564050170405</v>
       </c>
       <c r="K23">
-        <v>0.9971931147026735</v>
+        <v>0.9971931147026732</v>
       </c>
       <c r="L23">
         <v>0.9809155389400548</v>
       </c>
       <c r="M23">
-        <v>0.9890684710477786</v>
+        <v>0.9890684710477783</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668993502984889</v>
+        <v>0.9668993502984895</v>
       </c>
       <c r="D24">
-        <v>0.9932664005864148</v>
+        <v>0.9932664005864152</v>
       </c>
       <c r="E24">
-        <v>0.9794203421641273</v>
+        <v>0.9794203421641281</v>
       </c>
       <c r="F24">
-        <v>0.9875698001195633</v>
+        <v>0.9875698001195637</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034454281903003</v>
+        <v>1.034454281903004</v>
       </c>
       <c r="J24">
-        <v>0.995733938655354</v>
+        <v>0.9957339386553546</v>
       </c>
       <c r="K24">
-        <v>1.007412806749617</v>
+        <v>1.007412806749618</v>
       </c>
       <c r="L24">
-        <v>0.9938187623569423</v>
+        <v>0.993818762356943</v>
       </c>
       <c r="M24">
-        <v>1.001818777942855</v>
+        <v>1.001818777942856</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835634317633919</v>
+        <v>0.983563431763391</v>
       </c>
       <c r="D25">
-        <v>1.005827233098199</v>
+        <v>1.005827233098198</v>
       </c>
       <c r="E25">
-        <v>0.9949666730904714</v>
+        <v>0.9949666730904706</v>
       </c>
       <c r="F25">
-        <v>1.002933035691962</v>
+        <v>1.002933035691961</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040444370858717</v>
+        <v>1.040444370858716</v>
       </c>
       <c r="J25">
-        <v>1.00865690218785</v>
+        <v>1.008656902187849</v>
       </c>
       <c r="K25">
-        <v>1.018335757302583</v>
+        <v>1.018335757302582</v>
       </c>
       <c r="L25">
-        <v>1.007643630743672</v>
+        <v>1.007643630743671</v>
       </c>
       <c r="M25">
-        <v>1.01548599005182</v>
+        <v>1.015485990051819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959315052990104</v>
+        <v>0.9959315052990105</v>
       </c>
       <c r="D2">
         <v>1.01516748313749</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044835815417589</v>
+        <v>1.04483581541759</v>
       </c>
       <c r="J2">
         <v>1.018234589055683</v>
@@ -448,7 +448,7 @@
         <v>1.017904275462583</v>
       </c>
       <c r="M2">
-        <v>1.025633179728611</v>
+        <v>1.02563317972861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -480,7 +480,7 @@
         <v>1.024825867225762</v>
       </c>
       <c r="K3">
-        <v>1.031975030347896</v>
+        <v>1.031975030347895</v>
       </c>
       <c r="L3">
         <v>1.024973906649953</v>
@@ -500,13 +500,13 @@
         <v>1.009782854368586</v>
       </c>
       <c r="D4">
-        <v>1.02564005614977</v>
+        <v>1.025640056149771</v>
       </c>
       <c r="E4">
         <v>1.019521635568915</v>
       </c>
       <c r="F4">
-        <v>1.027214215818975</v>
+        <v>1.027214215818976</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>1.027301985089857</v>
       </c>
       <c r="E5">
-        <v>1.021584508818019</v>
+        <v>1.02158450881802</v>
       </c>
       <c r="F5">
-        <v>1.029254823148368</v>
+        <v>1.029254823148369</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.031210975166001</v>
       </c>
       <c r="M5">
-        <v>1.038796457729926</v>
+        <v>1.038796457729927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012346449073975</v>
+        <v>1.012346449073973</v>
       </c>
       <c r="D6">
-        <v>1.027579225882016</v>
+        <v>1.027579225882015</v>
       </c>
       <c r="E6">
-        <v>1.021928697436628</v>
+        <v>1.021928697436625</v>
       </c>
       <c r="F6">
-        <v>1.029595306542204</v>
+        <v>1.029595306542202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050571624853427</v>
+        <v>1.050571624853426</v>
       </c>
       <c r="J6">
-        <v>1.030917703673811</v>
+        <v>1.030917703673809</v>
       </c>
       <c r="K6">
-        <v>1.037102901399153</v>
+        <v>1.037102901399151</v>
       </c>
       <c r="L6">
-        <v>1.031514697538253</v>
+        <v>1.031514697538251</v>
       </c>
       <c r="M6">
-        <v>1.039096948222179</v>
+        <v>1.039096948222177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009812374808233</v>
+        <v>1.009812374808235</v>
       </c>
       <c r="D7">
-        <v>1.025662385008741</v>
+        <v>1.025662385008742</v>
       </c>
       <c r="E7">
-        <v>1.019549347140666</v>
+        <v>1.019549347140667</v>
       </c>
       <c r="F7">
-        <v>1.027241627605223</v>
+        <v>1.027241627605224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049694107212934</v>
+        <v>1.049694107212935</v>
       </c>
       <c r="J7">
-        <v>1.028962366365155</v>
+        <v>1.028962366365156</v>
       </c>
       <c r="K7">
-        <v>1.03545774663848</v>
+        <v>1.035457746638481</v>
       </c>
       <c r="L7">
-        <v>1.029414493911735</v>
+        <v>1.029414493911736</v>
       </c>
       <c r="M7">
         <v>1.037019127306797</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988533484575312</v>
+        <v>0.9988533484575307</v>
       </c>
       <c r="D8">
-        <v>1.017375719047842</v>
+        <v>1.017375719047841</v>
       </c>
       <c r="E8">
-        <v>1.009271946265359</v>
+        <v>1.009271946265358</v>
       </c>
       <c r="F8">
-        <v>1.017076746506937</v>
+        <v>1.017076746506936</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.020494865004312</v>
       </c>
       <c r="K8">
-        <v>1.028325358643802</v>
+        <v>1.028325358643801</v>
       </c>
       <c r="L8">
         <v>1.020327770960412</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779468877506645</v>
+        <v>0.9779468877506667</v>
       </c>
       <c r="D9">
-        <v>1.001590251335994</v>
+        <v>1.001590251335996</v>
       </c>
       <c r="E9">
-        <v>0.9897216463867058</v>
+        <v>0.9897216463867082</v>
       </c>
       <c r="F9">
-        <v>0.9977488514024232</v>
+        <v>0.997748851402425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03843388899735</v>
+        <v>1.038433888997351</v>
       </c>
       <c r="J9">
-        <v>1.004303175951145</v>
+        <v>1.004303175951146</v>
       </c>
       <c r="K9">
-        <v>1.01465758040448</v>
+        <v>1.014657580404481</v>
       </c>
       <c r="L9">
-        <v>1.002983713373029</v>
+        <v>1.002983713373031</v>
       </c>
       <c r="M9">
-        <v>1.010878557815829</v>
+        <v>1.010878557815831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9626962724272092</v>
+        <v>0.9626962724272085</v>
       </c>
       <c r="D10">
-        <v>0.9901035102270521</v>
+        <v>0.9901035102270515</v>
       </c>
       <c r="E10">
-        <v>0.9755065934076795</v>
+        <v>0.9755065934076788</v>
       </c>
       <c r="F10">
-        <v>0.9837035128508032</v>
+        <v>0.9837035128508026</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032932516008909</v>
       </c>
       <c r="J10">
-        <v>0.9924723063891921</v>
+        <v>0.9924723063891912</v>
       </c>
       <c r="K10">
-        <v>1.004653777779322</v>
+        <v>1.004653777779321</v>
       </c>
       <c r="L10">
-        <v>0.9903326287949241</v>
+        <v>0.9903326287949232</v>
       </c>
       <c r="M10">
-        <v>0.9983733741465867</v>
+        <v>0.9983733741465861</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9557151556029707</v>
+        <v>0.9557151556029699</v>
       </c>
       <c r="D11">
-        <v>0.984855429587707</v>
+        <v>0.9848554295877058</v>
       </c>
       <c r="E11">
-        <v>0.9690127040931086</v>
+        <v>0.9690127040931078</v>
       </c>
       <c r="F11">
-        <v>0.9772896791340904</v>
+        <v>0.9772896791340892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030396749614087</v>
+        <v>1.030396749614086</v>
       </c>
       <c r="J11">
-        <v>0.9870537718356119</v>
+        <v>0.987053771835611</v>
       </c>
       <c r="K11">
-        <v>1.000068715537011</v>
+        <v>1.00006871553701</v>
       </c>
       <c r="L11">
-        <v>0.9845436506657093</v>
+        <v>0.9845436506657085</v>
       </c>
       <c r="M11">
-        <v>0.9926529747988261</v>
+        <v>0.992652974798825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9530585455922355</v>
+        <v>0.9530585455922367</v>
       </c>
       <c r="D12">
-        <v>0.982860164533398</v>
+        <v>0.9828601645333988</v>
       </c>
       <c r="E12">
-        <v>0.9665437056885038</v>
+        <v>0.9665437056885049</v>
       </c>
       <c r="F12">
-        <v>0.9748515604310617</v>
+        <v>0.9748515604310626</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029429327612799</v>
       </c>
       <c r="J12">
-        <v>0.9849915460183801</v>
+        <v>0.9849915460183809</v>
       </c>
       <c r="K12">
-        <v>0.998323272307896</v>
+        <v>0.9983232723078972</v>
       </c>
       <c r="L12">
-        <v>0.9823412259487692</v>
+        <v>0.9823412259487703</v>
       </c>
       <c r="M12">
-        <v>0.9904769628260122</v>
+        <v>0.9904769628260132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9536313935116246</v>
+        <v>0.9536313935116264</v>
       </c>
       <c r="D13">
-        <v>0.983290316471933</v>
+        <v>0.9832903164719345</v>
       </c>
       <c r="E13">
-        <v>0.9670759955788311</v>
+        <v>0.9670759955788335</v>
       </c>
       <c r="F13">
-        <v>0.9753771719213588</v>
+        <v>0.9753771719213605</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029638041743543</v>
+        <v>1.029638041743544</v>
       </c>
       <c r="J13">
-        <v>0.9854362339805615</v>
+        <v>0.9854362339805631</v>
       </c>
       <c r="K13">
-        <v>0.9986996688283214</v>
+        <v>0.9986996688283231</v>
       </c>
       <c r="L13">
-        <v>0.9828161101239441</v>
+        <v>0.982816110123946</v>
       </c>
       <c r="M13">
-        <v>0.9909461365372598</v>
+        <v>0.9909461365372617</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955496898514282</v>
+        <v>0.955496898514285</v>
       </c>
       <c r="D14">
-        <v>0.9846914665378496</v>
+        <v>0.9846914665378519</v>
       </c>
       <c r="E14">
-        <v>0.9688098145427193</v>
+        <v>0.9688098145427222</v>
       </c>
       <c r="F14">
-        <v>0.9770893177663299</v>
+        <v>0.9770893177663329</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030317318520753</v>
+        <v>1.030317318520754</v>
       </c>
       <c r="J14">
-        <v>0.9868843509196115</v>
+        <v>0.986884350919614</v>
       </c>
       <c r="K14">
-        <v>0.9999253278815867</v>
+        <v>0.9999253278815892</v>
       </c>
       <c r="L14">
-        <v>0.9843626958344474</v>
+        <v>0.9843626958344505</v>
       </c>
       <c r="M14">
-        <v>0.992474183259076</v>
+        <v>0.9924741832590789</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9566376585397033</v>
+        <v>0.9566376585397026</v>
       </c>
       <c r="D15">
-        <v>0.9855485261721013</v>
+        <v>0.9855485261721005</v>
       </c>
       <c r="E15">
-        <v>0.9698703439911387</v>
+        <v>0.9698703439911378</v>
       </c>
       <c r="F15">
-        <v>0.9781366504235172</v>
+        <v>0.9781366504235164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030732380928234</v>
+        <v>1.030732380928233</v>
       </c>
       <c r="J15">
-        <v>0.9877698511250631</v>
+        <v>0.9877698511250622</v>
       </c>
       <c r="K15">
-        <v>1.00067474506848</v>
+        <v>1.000674745068479</v>
       </c>
       <c r="L15">
-        <v>0.9853085114774193</v>
+        <v>0.9853085114774184</v>
       </c>
       <c r="M15">
-        <v>0.9934087051608126</v>
+        <v>0.9934087051608119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631510782444518</v>
+        <v>0.9631510782444533</v>
       </c>
       <c r="D16">
-        <v>0.9904456469189445</v>
+        <v>0.9904456469189455</v>
       </c>
       <c r="E16">
-        <v>0.9759299465352355</v>
+        <v>0.9759299465352372</v>
       </c>
       <c r="F16">
-        <v>0.9841217040346011</v>
+        <v>0.9841217040346025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033097370044378</v>
+        <v>1.033097370044379</v>
       </c>
       <c r="J16">
-        <v>0.9928252692323575</v>
+        <v>0.9928252692323591</v>
       </c>
       <c r="K16">
-        <v>1.004952385752898</v>
+        <v>1.004952385752899</v>
       </c>
       <c r="L16">
-        <v>0.9907098299660927</v>
+        <v>0.9907098299660945</v>
       </c>
       <c r="M16">
-        <v>0.9987461481656867</v>
+        <v>0.9987461481656883</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9671312554503386</v>
+        <v>0.9671312554503361</v>
       </c>
       <c r="D17">
-        <v>0.9934409800963739</v>
+        <v>0.9934409800963718</v>
       </c>
       <c r="E17">
-        <v>0.9796363709052115</v>
+        <v>0.9796363709052089</v>
       </c>
       <c r="F17">
-        <v>0.9877832258424369</v>
+        <v>0.9877832258424345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034538129769025</v>
+        <v>1.034538129769023</v>
       </c>
       <c r="J17">
-        <v>0.9959138806327036</v>
+        <v>0.9959138806327011</v>
       </c>
       <c r="K17">
-        <v>1.007564998434703</v>
+        <v>1.0075649984347</v>
       </c>
       <c r="L17">
-        <v>0.9940111244517511</v>
+        <v>0.9940111244517488</v>
       </c>
       <c r="M17">
-        <v>1.002008904630082</v>
+        <v>1.00200890463008</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9694169170572378</v>
+        <v>0.9694169170572375</v>
       </c>
       <c r="D18">
-        <v>0.9951620010834071</v>
+        <v>0.995162001083407</v>
       </c>
       <c r="E18">
-        <v>0.9817660416604355</v>
+        <v>0.9817660416604348</v>
       </c>
       <c r="F18">
         <v>0.989887327390472</v>
@@ -1044,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035363861604759</v>
+        <v>1.035363861604758</v>
       </c>
       <c r="J18">
-        <v>0.9976872726609228</v>
+        <v>0.9976872726609225</v>
       </c>
       <c r="K18">
         <v>1.00906477053782</v>
       </c>
       <c r="L18">
-        <v>0.9959071190695852</v>
+        <v>0.9959071190695847</v>
       </c>
       <c r="M18">
         <v>1.003882932154553</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9701903661654084</v>
+        <v>0.970190366165406</v>
       </c>
       <c r="D19">
-        <v>0.995744526921562</v>
+        <v>0.9957445269215599</v>
       </c>
       <c r="E19">
-        <v>0.9824869048908267</v>
+        <v>0.982486904890824</v>
       </c>
       <c r="F19">
-        <v>0.9905995733493479</v>
+        <v>0.9905995733493453</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035642999617191</v>
+        <v>1.03564299961719</v>
       </c>
       <c r="J19">
-        <v>0.9982873219019818</v>
+        <v>0.9982873219019793</v>
       </c>
       <c r="K19">
-        <v>1.009572181633221</v>
+        <v>1.009572181633219</v>
       </c>
       <c r="L19">
-        <v>0.996548734777051</v>
+        <v>0.9965487347770484</v>
       </c>
       <c r="M19">
-        <v>1.0045171409084</v>
+        <v>1.004517140908397</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9667079797706767</v>
+        <v>0.9667079797706768</v>
       </c>
       <c r="D20">
-        <v>0.9931223409338845</v>
+        <v>0.9931223409338843</v>
       </c>
       <c r="E20">
-        <v>0.9792420798828512</v>
+        <v>0.9792420798828515</v>
       </c>
       <c r="F20">
-        <v>0.9873936870977823</v>
+        <v>0.9873936870977822</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.034385080440804</v>
       </c>
       <c r="J20">
-        <v>0.9955854470747859</v>
+        <v>0.995585447074786</v>
       </c>
       <c r="K20">
-        <v>1.007287213445196</v>
+        <v>1.007287213445195</v>
       </c>
       <c r="L20">
-        <v>0.9936600242158924</v>
+        <v>0.9936600242158928</v>
       </c>
       <c r="M20">
         <v>1.001661885407154</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549493675077663</v>
+        <v>0.9549493675077662</v>
       </c>
       <c r="D21">
-        <v>0.9842801713182014</v>
+        <v>0.984280171318201</v>
       </c>
       <c r="E21">
-        <v>0.9683008714813111</v>
+        <v>0.9683008714813112</v>
       </c>
       <c r="F21">
-        <v>0.9765867239192936</v>
+        <v>0.9765867239192935</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030118014757095</v>
       </c>
       <c r="J21">
-        <v>0.98645932960272</v>
+        <v>0.9864593296027199</v>
       </c>
       <c r="K21">
-        <v>0.9995656088648639</v>
+        <v>0.9995656088648633</v>
       </c>
       <c r="L21">
-        <v>0.9839087523754625</v>
+        <v>0.9839087523754624</v>
       </c>
       <c r="M21">
-        <v>0.9920256719832763</v>
+        <v>0.9920256719832761</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471845169758348</v>
+        <v>0.9471845169758339</v>
       </c>
       <c r="D22">
-        <v>0.9784522782533555</v>
+        <v>0.9784522782533548</v>
       </c>
       <c r="E22">
-        <v>0.9610888504088033</v>
+        <v>0.9610888504088025</v>
       </c>
       <c r="F22">
-        <v>0.9694658258437601</v>
+        <v>0.9694658258437594</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027285927558928</v>
       </c>
       <c r="J22">
-        <v>0.9804315362448588</v>
+        <v>0.9804315362448581</v>
       </c>
       <c r="K22">
-        <v>0.9944630359432722</v>
+        <v>0.9944630359432717</v>
       </c>
       <c r="L22">
-        <v>0.9774726685000652</v>
+        <v>0.9774726685000644</v>
       </c>
       <c r="M22">
-        <v>0.9856674485591499</v>
+        <v>0.9856674485591492</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513386402842234</v>
+        <v>0.9513386402842238</v>
       </c>
       <c r="D23">
-        <v>0.9815689864889381</v>
+        <v>0.9815689864889383</v>
       </c>
       <c r="E23">
         <v>0.9649459123876233</v>
       </c>
       <c r="F23">
-        <v>0.9732738841947791</v>
+        <v>0.9732738841947794</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028802343378832</v>
       </c>
       <c r="J23">
-        <v>0.9836564050170405</v>
+        <v>0.983656405017041</v>
       </c>
       <c r="K23">
-        <v>0.9971931147026732</v>
+        <v>0.9971931147026735</v>
       </c>
       <c r="L23">
         <v>0.9809155389400548</v>
       </c>
       <c r="M23">
-        <v>0.9890684710477783</v>
+        <v>0.9890684710477786</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668993502984895</v>
+        <v>0.9668993502984889</v>
       </c>
       <c r="D24">
-        <v>0.9932664005864152</v>
+        <v>0.9932664005864148</v>
       </c>
       <c r="E24">
-        <v>0.9794203421641281</v>
+        <v>0.9794203421641273</v>
       </c>
       <c r="F24">
-        <v>0.9875698001195637</v>
+        <v>0.9875698001195633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034454281903004</v>
+        <v>1.034454281903003</v>
       </c>
       <c r="J24">
-        <v>0.9957339386553546</v>
+        <v>0.995733938655354</v>
       </c>
       <c r="K24">
-        <v>1.007412806749618</v>
+        <v>1.007412806749617</v>
       </c>
       <c r="L24">
-        <v>0.993818762356943</v>
+        <v>0.9938187623569423</v>
       </c>
       <c r="M24">
-        <v>1.001818777942856</v>
+        <v>1.001818777942855</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.983563431763391</v>
+        <v>0.9835634317633919</v>
       </c>
       <c r="D25">
-        <v>1.005827233098198</v>
+        <v>1.005827233098199</v>
       </c>
       <c r="E25">
-        <v>0.9949666730904706</v>
+        <v>0.9949666730904714</v>
       </c>
       <c r="F25">
-        <v>1.002933035691961</v>
+        <v>1.002933035691962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040444370858716</v>
+        <v>1.040444370858717</v>
       </c>
       <c r="J25">
-        <v>1.008656902187849</v>
+        <v>1.00865690218785</v>
       </c>
       <c r="K25">
-        <v>1.018335757302582</v>
+        <v>1.018335757302583</v>
       </c>
       <c r="L25">
-        <v>1.007643630743671</v>
+        <v>1.007643630743672</v>
       </c>
       <c r="M25">
-        <v>1.015485990051819</v>
+        <v>1.01548599005182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959315052990105</v>
+        <v>0.9959508686340193</v>
       </c>
       <c r="D2">
-        <v>1.01516748313749</v>
+        <v>1.015183843499887</v>
       </c>
       <c r="E2">
-        <v>1.006535242258007</v>
+        <v>1.006554289059147</v>
       </c>
       <c r="F2">
-        <v>1.014370483034643</v>
+        <v>1.014387797744781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04483581541759</v>
+        <v>1.044844608807229</v>
       </c>
       <c r="J2">
-        <v>1.018234589055683</v>
+        <v>1.018253366716837</v>
       </c>
       <c r="K2">
-        <v>1.026419478867233</v>
+        <v>1.026435619787491</v>
       </c>
       <c r="L2">
-        <v>1.017904275462583</v>
+        <v>1.01792306124061</v>
       </c>
       <c r="M2">
-        <v>1.02563317972861</v>
+        <v>1.025650261737306</v>
+      </c>
+      <c r="N2">
+        <v>1.012599678350292</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004455943009825</v>
+        <v>1.004468265980496</v>
       </c>
       <c r="D3">
-        <v>1.021611401077416</v>
+        <v>1.02162217874389</v>
       </c>
       <c r="E3">
-        <v>1.014523544973964</v>
+        <v>1.014535694980157</v>
       </c>
       <c r="F3">
-        <v>1.022270506516182</v>
+        <v>1.022281687894068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047829232918837</v>
+        <v>1.047835024388866</v>
       </c>
       <c r="J3">
-        <v>1.024825867225762</v>
+        <v>1.024837858305917</v>
       </c>
       <c r="K3">
-        <v>1.031975030347895</v>
+        <v>1.031985677269081</v>
       </c>
       <c r="L3">
-        <v>1.024973906649953</v>
+        <v>1.024985906688919</v>
       </c>
       <c r="M3">
-        <v>1.032626146390149</v>
+        <v>1.03263719234249</v>
+      </c>
+      <c r="N3">
+        <v>1.017304697059371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009782854368586</v>
+        <v>1.009790882202598</v>
       </c>
       <c r="D4">
-        <v>1.025640056149771</v>
+        <v>1.025647421652414</v>
       </c>
       <c r="E4">
-        <v>1.019521635568915</v>
+        <v>1.019529569943153</v>
       </c>
       <c r="F4">
-        <v>1.027214215818976</v>
+        <v>1.027221656968714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049683866198223</v>
+        <v>1.049687819895691</v>
       </c>
       <c r="J4">
-        <v>1.028939581553302</v>
+        <v>1.02894740936523</v>
       </c>
       <c r="K4">
-        <v>1.035438571807864</v>
+        <v>1.035445853813701</v>
       </c>
       <c r="L4">
-        <v>1.029390025380002</v>
+        <v>1.029397868470816</v>
       </c>
       <c r="M4">
-        <v>1.036994920031129</v>
+        <v>1.037002277144812</v>
+      </c>
+      <c r="N4">
+        <v>1.020236730893088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011979950555831</v>
+        <v>1.011986228869583</v>
       </c>
       <c r="D5">
-        <v>1.027301985089857</v>
+        <v>1.02730795948618</v>
       </c>
       <c r="E5">
-        <v>1.02158450881802</v>
+        <v>1.021590724353959</v>
       </c>
       <c r="F5">
-        <v>1.029254823148369</v>
+        <v>1.029260741223364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050444907302103</v>
+        <v>1.050448111063486</v>
       </c>
       <c r="J5">
-        <v>1.030634974201399</v>
+        <v>1.030641101230203</v>
       </c>
       <c r="K5">
-        <v>1.036865069865881</v>
+        <v>1.036870978485951</v>
       </c>
       <c r="L5">
-        <v>1.031210975166001</v>
+        <v>1.03121712132508</v>
       </c>
       <c r="M5">
-        <v>1.038796457729927</v>
+        <v>1.038802310952047</v>
+      </c>
+      <c r="N5">
+        <v>1.021444019696756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012346449073973</v>
+        <v>1.01235243676395</v>
       </c>
       <c r="D6">
-        <v>1.027579225882015</v>
+        <v>1.027584969126979</v>
       </c>
       <c r="E6">
-        <v>1.021928697436625</v>
+        <v>1.021934627351723</v>
       </c>
       <c r="F6">
-        <v>1.029595306542202</v>
+        <v>1.029600971635346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050571624853426</v>
+        <v>1.050574703962432</v>
       </c>
       <c r="J6">
-        <v>1.030917703673809</v>
+        <v>1.030923547896382</v>
       </c>
       <c r="K6">
-        <v>1.037102901399151</v>
+        <v>1.037108581725131</v>
       </c>
       <c r="L6">
-        <v>1.031514697538251</v>
+        <v>1.03152056160287</v>
       </c>
       <c r="M6">
-        <v>1.039096948222177</v>
+        <v>1.039102551550488</v>
+      </c>
+      <c r="N6">
+        <v>1.021645285980383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009812374808235</v>
+        <v>1.009820379051981</v>
       </c>
       <c r="D7">
-        <v>1.025662385008742</v>
+        <v>1.025669731758533</v>
       </c>
       <c r="E7">
-        <v>1.019549347140667</v>
+        <v>1.019557258344832</v>
       </c>
       <c r="F7">
-        <v>1.027241627605224</v>
+        <v>1.027249048216343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049694107212935</v>
+        <v>1.049698050803598</v>
       </c>
       <c r="J7">
-        <v>1.028962366365156</v>
+        <v>1.028970171263119</v>
       </c>
       <c r="K7">
-        <v>1.035457746638481</v>
+        <v>1.035465010136322</v>
       </c>
       <c r="L7">
-        <v>1.029414493911736</v>
+        <v>1.029422314135581</v>
       </c>
       <c r="M7">
-        <v>1.037019127306797</v>
+        <v>1.037026464147283</v>
+      </c>
+      <c r="N7">
+        <v>1.020252960335227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988533484575307</v>
+        <v>0.9988702745273539</v>
       </c>
       <c r="D8">
-        <v>1.017375719047841</v>
+        <v>1.017390148307124</v>
       </c>
       <c r="E8">
-        <v>1.009271946265358</v>
+        <v>1.009288607400727</v>
       </c>
       <c r="F8">
-        <v>1.017076746506936</v>
+        <v>1.01709193765</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045865168227047</v>
+        <v>1.045872923884202</v>
       </c>
       <c r="J8">
-        <v>1.020494865004312</v>
+        <v>1.020511298549081</v>
       </c>
       <c r="K8">
-        <v>1.028325358643801</v>
+        <v>1.028339600722644</v>
       </c>
       <c r="L8">
-        <v>1.020327770960412</v>
+        <v>1.020344211587714</v>
       </c>
       <c r="M8">
-        <v>1.028030265955425</v>
+        <v>1.028045259889807</v>
+      </c>
+      <c r="N8">
+        <v>1.014214040460641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779468877506667</v>
+        <v>0.9779818633214745</v>
       </c>
       <c r="D9">
-        <v>1.001590251335996</v>
+        <v>1.001618938382321</v>
       </c>
       <c r="E9">
-        <v>0.9897216463867082</v>
+        <v>0.9897559254159329</v>
       </c>
       <c r="F9">
-        <v>0.997748851402425</v>
+        <v>0.9977797732653497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038433888997351</v>
+        <v>1.038449291642348</v>
       </c>
       <c r="J9">
-        <v>1.004303175951146</v>
+        <v>1.004336836703902</v>
       </c>
       <c r="K9">
-        <v>1.014657580404481</v>
+        <v>1.014685803935712</v>
       </c>
       <c r="L9">
-        <v>1.002983713373031</v>
+        <v>1.003017421295789</v>
       </c>
       <c r="M9">
-        <v>1.010878557815831</v>
+        <v>1.010908975099848</v>
+      </c>
+      <c r="N9">
+        <v>1.002631420772757</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9626962724272085</v>
+        <v>0.9627454253357902</v>
       </c>
       <c r="D10">
-        <v>0.9901035102270515</v>
+        <v>0.9901433185683561</v>
       </c>
       <c r="E10">
-        <v>0.9755065934076788</v>
+        <v>0.9755546277824915</v>
       </c>
       <c r="F10">
-        <v>0.9837035128508026</v>
+        <v>0.9837467916460713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032932516008909</v>
+        <v>1.032953862269093</v>
       </c>
       <c r="J10">
-        <v>0.9924723063891912</v>
+        <v>0.9925192864022212</v>
       </c>
       <c r="K10">
-        <v>1.004653777779321</v>
+        <v>1.004692848549332</v>
       </c>
       <c r="L10">
-        <v>0.9903326287949232</v>
+        <v>0.9903797379687843</v>
       </c>
       <c r="M10">
-        <v>0.9983733741465861</v>
+        <v>0.9984158373839745</v>
+      </c>
+      <c r="N10">
+        <v>0.9941469206214925</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9557151556029699</v>
+        <v>0.9557711300082588</v>
       </c>
       <c r="D11">
-        <v>0.9848554295877058</v>
+        <v>0.9849005622177704</v>
       </c>
       <c r="E11">
-        <v>0.9690127040931078</v>
+        <v>0.9690673301562108</v>
       </c>
       <c r="F11">
-        <v>0.9772896791340892</v>
+        <v>0.9773389015859392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030396749614086</v>
+        <v>1.030420935700352</v>
       </c>
       <c r="J11">
-        <v>0.987053771835611</v>
+        <v>0.9871070955281089</v>
       </c>
       <c r="K11">
-        <v>1.00006871553701</v>
+        <v>1.000112962377109</v>
       </c>
       <c r="L11">
-        <v>0.9845436506657085</v>
+        <v>0.984597157889931</v>
       </c>
       <c r="M11">
-        <v>0.992652974798825</v>
+        <v>0.9927012114188885</v>
+      </c>
+      <c r="N11">
+        <v>0.9902566164799098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9530585455922367</v>
+        <v>0.9531171756965127</v>
       </c>
       <c r="D12">
-        <v>0.9828601645333988</v>
+        <v>0.9829073650960162</v>
       </c>
       <c r="E12">
-        <v>0.9665437056885049</v>
+        <v>0.9666008932403419</v>
       </c>
       <c r="F12">
-        <v>0.9748515604310626</v>
+        <v>0.9749030962798003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029429327612799</v>
+        <v>1.029454615764748</v>
       </c>
       <c r="J12">
-        <v>0.9849915460183809</v>
+        <v>0.985047328195919</v>
       </c>
       <c r="K12">
-        <v>0.9983232723078972</v>
+        <v>0.9983695266636923</v>
       </c>
       <c r="L12">
-        <v>0.9823412259487703</v>
+        <v>0.9823972153447478</v>
       </c>
       <c r="M12">
-        <v>0.9904769628260132</v>
+        <v>0.9905274430557776</v>
+      </c>
+      <c r="N12">
+        <v>0.9887754215058406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9536313935116264</v>
+        <v>0.9536894480816123</v>
       </c>
       <c r="D13">
-        <v>0.9832903164719345</v>
+        <v>0.9833370691139078</v>
       </c>
       <c r="E13">
-        <v>0.9670759955788335</v>
+        <v>0.9671326282393007</v>
       </c>
       <c r="F13">
-        <v>0.9753771719213605</v>
+        <v>0.9754282064478165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029638041743544</v>
+        <v>1.029663091226652</v>
       </c>
       <c r="J13">
-        <v>0.9854362339805631</v>
+        <v>0.9854914838914998</v>
       </c>
       <c r="K13">
-        <v>0.9986996688283231</v>
+        <v>0.9987454884830466</v>
       </c>
       <c r="L13">
-        <v>0.982816110123946</v>
+        <v>0.9828715620020317</v>
       </c>
       <c r="M13">
-        <v>0.9909461365372617</v>
+        <v>0.9909961307327793</v>
+      </c>
+      <c r="N13">
+        <v>0.9890948445211717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955496898514285</v>
+        <v>0.955553089825306</v>
       </c>
       <c r="D14">
-        <v>0.9846914665378519</v>
+        <v>0.9847367681710387</v>
       </c>
       <c r="E14">
-        <v>0.9688098145427222</v>
+        <v>0.9688646499167066</v>
       </c>
       <c r="F14">
-        <v>0.9770893177663329</v>
+        <v>0.977138729178892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030317318520754</v>
+        <v>1.030341594692746</v>
       </c>
       <c r="J14">
-        <v>0.986884350919614</v>
+        <v>0.9869378756440471</v>
       </c>
       <c r="K14">
-        <v>0.9999253278815892</v>
+        <v>0.9999697388462648</v>
       </c>
       <c r="L14">
-        <v>0.9843626958344505</v>
+        <v>0.9844164059729305</v>
       </c>
       <c r="M14">
-        <v>0.9924741832590789</v>
+        <v>0.9925226032126213</v>
+      </c>
+      <c r="N14">
+        <v>0.9901349414085218</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9566376585397026</v>
+        <v>0.9566927186450344</v>
       </c>
       <c r="D15">
-        <v>0.9855485261721005</v>
+        <v>0.9855929462194368</v>
       </c>
       <c r="E15">
-        <v>0.9698703439911378</v>
+        <v>0.9699240875729974</v>
       </c>
       <c r="F15">
-        <v>0.9781366504235164</v>
+        <v>0.9781850763454577</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030732380928233</v>
+        <v>1.030756187141104</v>
       </c>
       <c r="J15">
-        <v>0.9877698511250622</v>
+        <v>0.987822326970186</v>
       </c>
       <c r="K15">
-        <v>1.000674745068479</v>
+        <v>1.000718299779324</v>
       </c>
       <c r="L15">
-        <v>0.9853085114774184</v>
+        <v>0.9853611630228193</v>
       </c>
       <c r="M15">
-        <v>0.9934087051608119</v>
+        <v>0.9934561688279184</v>
+      </c>
+      <c r="N15">
+        <v>0.990770868143492</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631510782444533</v>
+        <v>0.9631997943629422</v>
       </c>
       <c r="D16">
-        <v>0.9904456469189455</v>
+        <v>0.990485113731602</v>
       </c>
       <c r="E16">
-        <v>0.9759299465352372</v>
+        <v>0.9759775582389985</v>
       </c>
       <c r="F16">
-        <v>0.9841217040346025</v>
+        <v>0.9841646021905348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033097370044379</v>
+        <v>1.033118534023566</v>
       </c>
       <c r="J16">
-        <v>0.9928252692323591</v>
+        <v>0.9928718416283742</v>
       </c>
       <c r="K16">
-        <v>1.004952385752899</v>
+        <v>1.004991124134712</v>
       </c>
       <c r="L16">
-        <v>0.9907098299660945</v>
+        <v>0.9907565283643051</v>
       </c>
       <c r="M16">
-        <v>0.9987461481656883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9987882412191317</v>
+      </c>
+      <c r="N16">
+        <v>0.9944002493868943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9671312554503361</v>
+        <v>0.9671761871924975</v>
       </c>
       <c r="D17">
-        <v>0.9934409800963718</v>
+        <v>0.9934774848783983</v>
       </c>
       <c r="E17">
-        <v>0.9796363709052089</v>
+        <v>0.9796803175699874</v>
       </c>
       <c r="F17">
-        <v>0.9877832258424345</v>
+        <v>0.9878228258814056</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034538129769023</v>
+        <v>1.034557712224618</v>
       </c>
       <c r="J17">
-        <v>0.9959138806327011</v>
+        <v>0.9959569141785316</v>
       </c>
       <c r="K17">
-        <v>1.0075649984347</v>
+        <v>1.007600852167196</v>
       </c>
       <c r="L17">
-        <v>0.9940111244517488</v>
+        <v>0.9940542582900407</v>
       </c>
       <c r="M17">
-        <v>1.00200890463008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.002047787859364</v>
+      </c>
+      <c r="N17">
+        <v>0.9966165231015458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9694169170572375</v>
+        <v>0.9694597057797709</v>
       </c>
       <c r="D18">
-        <v>0.995162001083407</v>
+        <v>0.9951968261616756</v>
       </c>
       <c r="E18">
-        <v>0.9817660416604348</v>
+        <v>0.9818079105126443</v>
       </c>
       <c r="F18">
-        <v>0.989887327390472</v>
+        <v>0.9899250596120984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035363861604758</v>
+        <v>1.035382546702601</v>
       </c>
       <c r="J18">
-        <v>0.9976872726609225</v>
+        <v>0.9977282964458553</v>
       </c>
       <c r="K18">
-        <v>1.00906477053782</v>
+        <v>1.009098986923255</v>
       </c>
       <c r="L18">
-        <v>0.9959071190695847</v>
+        <v>0.9959482299193106</v>
       </c>
       <c r="M18">
-        <v>1.003882932154553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.003919995723913</v>
+      </c>
+      <c r="N18">
+        <v>0.9978886281644285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.970190366165406</v>
+        <v>0.9702324345716912</v>
       </c>
       <c r="D19">
-        <v>0.9957445269215599</v>
+        <v>0.9957787870355256</v>
       </c>
       <c r="E19">
-        <v>0.982486904890824</v>
+        <v>0.982528074960596</v>
       </c>
       <c r="F19">
-        <v>0.9905995733493453</v>
+        <v>0.9906366777358677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03564299961719</v>
+        <v>1.035661382806035</v>
       </c>
       <c r="J19">
-        <v>0.9982873219019793</v>
+        <v>0.9983276692191421</v>
       </c>
       <c r="K19">
-        <v>1.009572181633219</v>
+        <v>1.009605847050128</v>
       </c>
       <c r="L19">
-        <v>0.9965487347770484</v>
+        <v>0.9965891649313644</v>
       </c>
       <c r="M19">
-        <v>1.004517140908397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.004553592527547</v>
+      </c>
+      <c r="N19">
+        <v>0.9983189883843997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9667079797706768</v>
+        <v>0.9667533107599555</v>
       </c>
       <c r="D20">
-        <v>0.9931223409338843</v>
+        <v>0.9931591584591246</v>
       </c>
       <c r="E20">
-        <v>0.9792420798828515</v>
+        <v>0.9792864134574226</v>
       </c>
       <c r="F20">
-        <v>0.9873936870977822</v>
+        <v>0.9874336351020647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034385080440804</v>
+        <v>1.034404829933768</v>
       </c>
       <c r="J20">
-        <v>0.995585447074786</v>
+        <v>0.9956288545786204</v>
       </c>
       <c r="K20">
-        <v>1.007287213445195</v>
+        <v>1.00732337191198</v>
       </c>
       <c r="L20">
-        <v>0.9936600242158928</v>
+        <v>0.9937035345834753</v>
       </c>
       <c r="M20">
-        <v>1.001661885407154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.001701107482113</v>
+      </c>
+      <c r="N20">
+        <v>0.9963808940989669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549493675077662</v>
+        <v>0.9550061039584696</v>
       </c>
       <c r="D21">
-        <v>0.984280171318201</v>
+        <v>0.9843258976183979</v>
       </c>
       <c r="E21">
-        <v>0.9683008714813112</v>
+        <v>0.9683562328288007</v>
       </c>
       <c r="F21">
-        <v>0.9765867239192935</v>
+        <v>0.9766366102288102</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030118014757095</v>
+        <v>1.030142517279572</v>
       </c>
       <c r="J21">
-        <v>0.9864593296027199</v>
+        <v>0.9865133593880148</v>
       </c>
       <c r="K21">
-        <v>0.9995656088648633</v>
+        <v>0.9996104321913019</v>
       </c>
       <c r="L21">
-        <v>0.9839087523754624</v>
+        <v>0.9839629723467744</v>
       </c>
       <c r="M21">
-        <v>0.9920256719832761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9920745526338537</v>
+      </c>
+      <c r="N21">
+        <v>0.9898296894052244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471845169758339</v>
+        <v>0.9472491430398046</v>
       </c>
       <c r="D22">
-        <v>0.9784522782533548</v>
+        <v>0.978504137488394</v>
       </c>
       <c r="E22">
-        <v>0.9610888504088025</v>
+        <v>0.9611518114173516</v>
       </c>
       <c r="F22">
-        <v>0.9694658258437594</v>
+        <v>0.9695225834344965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027285927558928</v>
+        <v>1.027313696684711</v>
       </c>
       <c r="J22">
-        <v>0.9804315362448581</v>
+        <v>0.9804928463789725</v>
       </c>
       <c r="K22">
-        <v>0.9944630359432717</v>
+        <v>0.994513807184253</v>
       </c>
       <c r="L22">
-        <v>0.9774726685000644</v>
+        <v>0.9775342443842607</v>
       </c>
       <c r="M22">
-        <v>0.9856674485591492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9857229859383394</v>
+      </c>
+      <c r="N22">
+        <v>0.9854991766911386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513386402842238</v>
+        <v>0.9513990080370492</v>
       </c>
       <c r="D23">
-        <v>0.9815689864889383</v>
+        <v>0.9816175386177566</v>
       </c>
       <c r="E23">
-        <v>0.9649459123876233</v>
+        <v>0.9650047745039565</v>
       </c>
       <c r="F23">
-        <v>0.9732738841947794</v>
+        <v>0.9733269335275461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028802343378832</v>
+        <v>1.028828351556814</v>
       </c>
       <c r="J23">
-        <v>0.983656405017041</v>
+        <v>0.9837137924439244</v>
       </c>
       <c r="K23">
-        <v>0.9971931147026735</v>
+        <v>0.9972406802931013</v>
       </c>
       <c r="L23">
-        <v>0.9809155389400548</v>
+        <v>0.9809731498330566</v>
       </c>
       <c r="M23">
-        <v>0.9890684710477786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9891204180574444</v>
+      </c>
+      <c r="N23">
+        <v>0.9878162974024149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668993502984889</v>
+        <v>0.9669445006877766</v>
       </c>
       <c r="D24">
-        <v>0.9932664005864148</v>
+        <v>0.9933030766491593</v>
       </c>
       <c r="E24">
-        <v>0.9794203421641273</v>
+        <v>0.9794645007268844</v>
       </c>
       <c r="F24">
-        <v>0.9875698001195633</v>
+        <v>0.987609590721726</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034454281903003</v>
+        <v>1.034473955841887</v>
       </c>
       <c r="J24">
-        <v>0.995733938655354</v>
+        <v>0.995777177016742</v>
       </c>
       <c r="K24">
-        <v>1.007412806749617</v>
+        <v>1.007448827381313</v>
       </c>
       <c r="L24">
-        <v>0.9938187623569423</v>
+        <v>0.9938621024148082</v>
       </c>
       <c r="M24">
-        <v>1.001818777942855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.001857846746708</v>
+      </c>
+      <c r="N24">
+        <v>0.99648742812536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835634317633919</v>
+        <v>0.9835934125773974</v>
       </c>
       <c r="D25">
-        <v>1.005827233098199</v>
+        <v>1.005851985102572</v>
       </c>
       <c r="E25">
-        <v>0.9949666730904714</v>
+        <v>0.9949960884163112</v>
       </c>
       <c r="F25">
-        <v>1.002933035691962</v>
+        <v>1.002959603788141</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040444370858717</v>
+        <v>1.040457666269417</v>
       </c>
       <c r="J25">
-        <v>1.00865690218785</v>
+        <v>1.008685826291553</v>
       </c>
       <c r="K25">
-        <v>1.018335757302583</v>
+        <v>1.018360130734081</v>
       </c>
       <c r="L25">
-        <v>1.007643630743672</v>
+        <v>1.007672583521228</v>
       </c>
       <c r="M25">
-        <v>1.01548599005182</v>
+        <v>1.015512148800266</v>
+      </c>
+      <c r="N25">
+        <v>1.005749625368034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959508686340193</v>
+        <v>1.037225017242576</v>
       </c>
       <c r="D2">
-        <v>1.015183843499887</v>
+        <v>1.051100180214154</v>
       </c>
       <c r="E2">
-        <v>1.006554289059147</v>
+        <v>1.05421575271708</v>
       </c>
       <c r="F2">
-        <v>1.014387797744781</v>
+        <v>1.059452202066575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044844608807229</v>
+        <v>1.055856796061568</v>
       </c>
       <c r="J2">
-        <v>1.018253366716837</v>
+        <v>1.058346612348782</v>
       </c>
       <c r="K2">
-        <v>1.026435619787491</v>
+        <v>1.061890715182039</v>
       </c>
       <c r="L2">
-        <v>1.01792306124061</v>
+        <v>1.06496811956052</v>
       </c>
       <c r="M2">
-        <v>1.025650261737306</v>
+        <v>1.070141046318738</v>
       </c>
       <c r="N2">
-        <v>1.012599678350292</v>
+        <v>1.05984958593237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004468265980496</v>
+        <v>1.04536262962605</v>
       </c>
       <c r="D3">
-        <v>1.02162217874389</v>
+        <v>1.057634589480182</v>
       </c>
       <c r="E3">
-        <v>1.014535694980157</v>
+        <v>1.061854178667633</v>
       </c>
       <c r="F3">
-        <v>1.022281687894068</v>
+        <v>1.066996860010621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047835024388866</v>
+        <v>1.058485426482858</v>
       </c>
       <c r="J3">
-        <v>1.024837858305917</v>
+        <v>1.064688667768227</v>
       </c>
       <c r="K3">
-        <v>1.031985677269081</v>
+        <v>1.067579541443458</v>
       </c>
       <c r="L3">
-        <v>1.024985906688919</v>
+        <v>1.071752374306187</v>
       </c>
       <c r="M3">
-        <v>1.03263719234249</v>
+        <v>1.076838684550977</v>
       </c>
       <c r="N3">
-        <v>1.017304697059371</v>
+        <v>1.066200647797955</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009790882202598</v>
+        <v>1.050466082915628</v>
       </c>
       <c r="D4">
-        <v>1.025647421652414</v>
+        <v>1.061734330164344</v>
       </c>
       <c r="E4">
-        <v>1.019529569943153</v>
+        <v>1.066650049281579</v>
       </c>
       <c r="F4">
-        <v>1.027221656968714</v>
+        <v>1.071734030034192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049687819895691</v>
+        <v>1.0601210453718</v>
       </c>
       <c r="J4">
-        <v>1.02894740936523</v>
+        <v>1.068661390966314</v>
       </c>
       <c r="K4">
-        <v>1.035445853813701</v>
+        <v>1.071140675276307</v>
       </c>
       <c r="L4">
-        <v>1.029397868470816</v>
+        <v>1.076005490542812</v>
       </c>
       <c r="M4">
-        <v>1.037002277144812</v>
+        <v>1.081037423517175</v>
       </c>
       <c r="N4">
-        <v>1.020236730893088</v>
+        <v>1.070179012718661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011986228869583</v>
+        <v>1.052575055253518</v>
       </c>
       <c r="D5">
-        <v>1.02730795948618</v>
+        <v>1.063428833675803</v>
       </c>
       <c r="E5">
-        <v>1.021590724353959</v>
+        <v>1.068633154188647</v>
       </c>
       <c r="F5">
-        <v>1.029260741223364</v>
+        <v>1.073692892198006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050448111063486</v>
+        <v>1.06079379483459</v>
       </c>
       <c r="J5">
-        <v>1.030641101230203</v>
+        <v>1.070301915308933</v>
       </c>
       <c r="K5">
-        <v>1.036870978485951</v>
+        <v>1.072610636826982</v>
       </c>
       <c r="L5">
-        <v>1.03121712132508</v>
+        <v>1.077762615572913</v>
       </c>
       <c r="M5">
-        <v>1.038802310952047</v>
+        <v>1.082772056722689</v>
       </c>
       <c r="N5">
-        <v>1.021444019696756</v>
+        <v>1.071821866794018</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01235243676395</v>
+        <v>1.052927082408202</v>
       </c>
       <c r="D6">
-        <v>1.027584969126979</v>
+        <v>1.063711693491758</v>
       </c>
       <c r="E6">
-        <v>1.021934627351723</v>
+        <v>1.068964242512049</v>
       </c>
       <c r="F6">
-        <v>1.029600971635346</v>
+        <v>1.074019934542813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050574703962432</v>
+        <v>1.060905901724618</v>
       </c>
       <c r="J6">
-        <v>1.030923547896382</v>
+        <v>1.070575678510636</v>
       </c>
       <c r="K6">
-        <v>1.037108581725131</v>
+        <v>1.072855901480098</v>
       </c>
       <c r="L6">
-        <v>1.03152056160287</v>
+        <v>1.078055884366756</v>
       </c>
       <c r="M6">
-        <v>1.039102551550488</v>
+        <v>1.083061569787581</v>
       </c>
       <c r="N6">
-        <v>1.021645285980383</v>
+        <v>1.072096018770867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009820379051981</v>
+        <v>1.050494403721419</v>
       </c>
       <c r="D7">
-        <v>1.025669731758533</v>
+        <v>1.061757084090273</v>
       </c>
       <c r="E7">
-        <v>1.019557258344832</v>
+        <v>1.066676675037493</v>
       </c>
       <c r="F7">
-        <v>1.027249048216343</v>
+        <v>1.071760330195034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049698050803598</v>
+        <v>1.060130092130548</v>
       </c>
       <c r="J7">
-        <v>1.028970171263119</v>
+        <v>1.068683425866397</v>
       </c>
       <c r="K7">
-        <v>1.035465010136322</v>
+        <v>1.071160421639032</v>
       </c>
       <c r="L7">
-        <v>1.029422314135581</v>
+        <v>1.076029088360225</v>
       </c>
       <c r="M7">
-        <v>1.037026464147283</v>
+        <v>1.081060719389372</v>
       </c>
       <c r="N7">
-        <v>1.020252960335227</v>
+        <v>1.070201078910829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988702745273539</v>
+        <v>1.040010178487439</v>
       </c>
       <c r="D8">
-        <v>1.017390148307124</v>
+        <v>1.053336201020948</v>
       </c>
       <c r="E8">
-        <v>1.009288607400727</v>
+        <v>1.056828857834964</v>
       </c>
       <c r="F8">
-        <v>1.01709193765</v>
+        <v>1.062033185437274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045872923884202</v>
+        <v>1.056759152448339</v>
       </c>
       <c r="J8">
-        <v>1.020511298549081</v>
+        <v>1.060518173865286</v>
       </c>
       <c r="K8">
-        <v>1.028339600722644</v>
+        <v>1.063839100083539</v>
       </c>
       <c r="L8">
-        <v>1.020344211587714</v>
+        <v>1.06729037424331</v>
       </c>
       <c r="M8">
-        <v>1.028045259889807</v>
+        <v>1.072433663076515</v>
       </c>
       <c r="N8">
-        <v>1.014214040460641</v>
+        <v>1.06202423131531</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779818633214745</v>
+        <v>1.020178723805777</v>
       </c>
       <c r="D9">
-        <v>1.001618938382321</v>
+        <v>1.037427200470758</v>
       </c>
       <c r="E9">
-        <v>0.9897559254159329</v>
+        <v>1.038249803744208</v>
       </c>
       <c r="F9">
-        <v>0.9977797732653497</v>
+        <v>1.043683791728346</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038449291642348</v>
+        <v>1.05028087350521</v>
       </c>
       <c r="J9">
-        <v>1.004336836703902</v>
+        <v>1.045038503452738</v>
       </c>
       <c r="K9">
-        <v>1.014685803935712</v>
+        <v>1.049940890646976</v>
       </c>
       <c r="L9">
-        <v>1.003017421295789</v>
+        <v>1.050751355727931</v>
       </c>
       <c r="M9">
-        <v>1.010908975099848</v>
+        <v>1.056105770366945</v>
       </c>
       <c r="N9">
-        <v>1.002631420772757</v>
+        <v>1.046522577995232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9627454253357902</v>
+        <v>1.005861832245206</v>
       </c>
       <c r="D10">
-        <v>0.9901433185683561</v>
+        <v>1.025964145839005</v>
       </c>
       <c r="E10">
-        <v>0.9755546277824915</v>
+        <v>1.024876674549291</v>
       </c>
       <c r="F10">
-        <v>0.9837467916460713</v>
+        <v>1.030478290780194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032953862269093</v>
+        <v>1.045539293631498</v>
       </c>
       <c r="J10">
-        <v>0.9925192864022212</v>
+        <v>1.03384479375542</v>
       </c>
       <c r="K10">
-        <v>1.004692848549332</v>
+        <v>1.039879917073038</v>
       </c>
       <c r="L10">
-        <v>0.9903797379687843</v>
+        <v>1.038810844258599</v>
       </c>
       <c r="M10">
-        <v>0.9984158373839745</v>
+        <v>1.044318224024981</v>
       </c>
       <c r="N10">
-        <v>0.9941469206214925</v>
+        <v>1.035312971946207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9557711300082588</v>
+        <v>0.999353492945898</v>
       </c>
       <c r="D11">
-        <v>0.9849005622177704</v>
+        <v>1.020760684163071</v>
       </c>
       <c r="E11">
-        <v>0.9690673301562108</v>
+        <v>1.018808468809375</v>
       </c>
       <c r="F11">
-        <v>0.9773389015859392</v>
+        <v>1.024486951595338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030420935700352</v>
+        <v>1.04336969242569</v>
       </c>
       <c r="J11">
-        <v>0.9871070955281089</v>
+        <v>1.028753192122339</v>
       </c>
       <c r="K11">
-        <v>1.000112962377109</v>
+        <v>1.03530142434773</v>
       </c>
       <c r="L11">
-        <v>0.984597157889931</v>
+        <v>1.033384192833144</v>
       </c>
       <c r="M11">
-        <v>0.9927012114188885</v>
+        <v>1.038961396907879</v>
       </c>
       <c r="N11">
-        <v>0.9902566164799098</v>
+        <v>1.030214139654793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9531171756965127</v>
+        <v>0.996884656052864</v>
       </c>
       <c r="D12">
-        <v>0.9829073650960162</v>
+        <v>1.018788190467101</v>
       </c>
       <c r="E12">
-        <v>0.9666008932403419</v>
+        <v>1.01650842428999</v>
       </c>
       <c r="F12">
-        <v>0.9749030962798003</v>
+        <v>1.022216187497241</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029454615764748</v>
+        <v>1.042544689950615</v>
       </c>
       <c r="J12">
-        <v>0.985047328195919</v>
+        <v>1.026821450551075</v>
       </c>
       <c r="K12">
-        <v>0.9983695266636923</v>
+        <v>1.033564078475159</v>
       </c>
       <c r="L12">
-        <v>0.9823972153447478</v>
+        <v>1.031326038905322</v>
       </c>
       <c r="M12">
-        <v>0.9905274430557776</v>
+        <v>1.03692978836913</v>
       </c>
       <c r="N12">
-        <v>0.9887754215058406</v>
+        <v>1.028279654788924</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9536894480816123</v>
+        <v>0.9974166406611336</v>
       </c>
       <c r="D13">
-        <v>0.9833370691139078</v>
+        <v>1.019213157939711</v>
       </c>
       <c r="E13">
-        <v>0.9671326282393007</v>
+        <v>1.017003951888205</v>
       </c>
       <c r="F13">
-        <v>0.9754282064478165</v>
+        <v>1.022705399845266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029663091226652</v>
+        <v>1.042722549375792</v>
       </c>
       <c r="J13">
-        <v>0.9854914838914998</v>
+        <v>1.027237714130089</v>
       </c>
       <c r="K13">
-        <v>0.9987454884830466</v>
+        <v>1.03393846419729</v>
       </c>
       <c r="L13">
-        <v>0.9828715620020317</v>
+        <v>1.031769510675508</v>
       </c>
       <c r="M13">
-        <v>0.9909961307327793</v>
+        <v>1.037367537229901</v>
       </c>
       <c r="N13">
-        <v>0.9890948445211717</v>
+        <v>1.028696509509966</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955553089825306</v>
+        <v>0.9991504967033574</v>
       </c>
       <c r="D14">
-        <v>0.9847367681710387</v>
+        <v>1.020598470051608</v>
       </c>
       <c r="E14">
-        <v>0.9688646499167066</v>
+        <v>1.018619313054011</v>
       </c>
       <c r="F14">
-        <v>0.977138729178892</v>
+        <v>1.024300200759143</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030341594692746</v>
+        <v>1.04330189761843</v>
       </c>
       <c r="J14">
-        <v>0.9869378756440471</v>
+        <v>1.028594363393361</v>
       </c>
       <c r="K14">
-        <v>0.9999697388462648</v>
+        <v>1.035158584263784</v>
       </c>
       <c r="L14">
-        <v>0.9844164059729305</v>
+        <v>1.033214956093998</v>
       </c>
       <c r="M14">
-        <v>0.9925226032126213</v>
+        <v>1.038794341538381</v>
       </c>
       <c r="N14">
-        <v>0.9901349414085218</v>
+        <v>1.030055085370801</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9566927186450344</v>
+        <v>1.0002118186921</v>
       </c>
       <c r="D15">
-        <v>0.9855929462194368</v>
+        <v>1.021446628033575</v>
       </c>
       <c r="E15">
-        <v>0.9699240875729974</v>
+        <v>1.019608348574918</v>
       </c>
       <c r="F15">
-        <v>0.9781850763454577</v>
+        <v>1.025276667786423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030756187141104</v>
+        <v>1.04365626775644</v>
       </c>
       <c r="J15">
-        <v>0.987822326970186</v>
+        <v>1.029424752847762</v>
       </c>
       <c r="K15">
-        <v>1.000718299779324</v>
+        <v>1.035905370815119</v>
       </c>
       <c r="L15">
-        <v>0.9853611630228193</v>
+        <v>1.034099789437851</v>
       </c>
       <c r="M15">
-        <v>0.9934561688279184</v>
+        <v>1.03966777253933</v>
       </c>
       <c r="N15">
-        <v>0.990770868143492</v>
+        <v>1.030886654073476</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631997943629422</v>
+        <v>1.006286854421235</v>
       </c>
       <c r="D16">
-        <v>0.990485113731602</v>
+        <v>1.026304128024473</v>
       </c>
       <c r="E16">
-        <v>0.9759775582389985</v>
+        <v>1.025273196970559</v>
       </c>
       <c r="F16">
-        <v>0.9841646021905348</v>
+        <v>1.030869809028892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033118534023566</v>
+        <v>1.045680696171182</v>
       </c>
       <c r="J16">
-        <v>0.9928718416283742</v>
+        <v>1.034177245106699</v>
       </c>
       <c r="K16">
-        <v>1.004991124134712</v>
+        <v>1.040178824992355</v>
       </c>
       <c r="L16">
-        <v>0.9907565283643051</v>
+        <v>1.039165268823788</v>
       </c>
       <c r="M16">
-        <v>0.9987882412191317</v>
+        <v>1.044668095956077</v>
       </c>
       <c r="N16">
-        <v>0.9944002493868943</v>
+        <v>1.035645895416538</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9671761871924975</v>
+        <v>1.010011571268352</v>
       </c>
       <c r="D17">
-        <v>0.9934774848783983</v>
+        <v>1.029284463334521</v>
       </c>
       <c r="E17">
-        <v>0.9796803175699874</v>
+        <v>1.028749421671196</v>
       </c>
       <c r="F17">
-        <v>0.9878228258814056</v>
+        <v>1.034302256399687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034557712224618</v>
+        <v>1.046918313107691</v>
       </c>
       <c r="J17">
-        <v>0.9959569141785316</v>
+        <v>1.037090382569096</v>
       </c>
       <c r="K17">
-        <v>1.007600852167196</v>
+        <v>1.042797799801395</v>
       </c>
       <c r="L17">
-        <v>0.9940542582900407</v>
+        <v>1.042271471858174</v>
       </c>
       <c r="M17">
-        <v>1.002047787859364</v>
+        <v>1.047734435627713</v>
       </c>
       <c r="N17">
-        <v>0.9966165231015458</v>
+        <v>1.038563169868273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9694597057797709</v>
+        <v>1.012154686455316</v>
       </c>
       <c r="D18">
-        <v>0.9951968261616756</v>
+        <v>1.030999970044143</v>
       </c>
       <c r="E18">
-        <v>0.9818079105126443</v>
+        <v>1.030750589205241</v>
       </c>
       <c r="F18">
-        <v>0.9899250596120984</v>
+        <v>1.036278296114985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035382546702601</v>
+        <v>1.047629077582406</v>
       </c>
       <c r="J18">
-        <v>0.9977282964458553</v>
+        <v>1.038766240109747</v>
       </c>
       <c r="K18">
-        <v>1.009098986923255</v>
+        <v>1.044304230079</v>
       </c>
       <c r="L18">
-        <v>0.9959482299193106</v>
+        <v>1.044058829660642</v>
       </c>
       <c r="M18">
-        <v>1.003919995723913</v>
+        <v>1.049498882844088</v>
       </c>
       <c r="N18">
-        <v>0.9978886281644285</v>
+        <v>1.040241407318857</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9702324345716912</v>
+        <v>1.012880576316517</v>
       </c>
       <c r="D19">
-        <v>0.9957787870355256</v>
+        <v>1.031581136668325</v>
       </c>
       <c r="E19">
-        <v>0.982528074960596</v>
+        <v>1.031428570271086</v>
       </c>
       <c r="F19">
-        <v>0.9906366777358677</v>
+        <v>1.036947775859974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035661382806035</v>
+        <v>1.047869589817674</v>
       </c>
       <c r="J19">
-        <v>0.9983276692191421</v>
+        <v>1.039333812643734</v>
       </c>
       <c r="K19">
-        <v>1.009605847050128</v>
+        <v>1.044814386116951</v>
       </c>
       <c r="L19">
-        <v>0.9965891649313644</v>
+        <v>1.04466423812033</v>
       </c>
       <c r="M19">
-        <v>1.004553592527547</v>
+        <v>1.050096535272558</v>
       </c>
       <c r="N19">
-        <v>0.9983189883843997</v>
+        <v>1.040809785870943</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9667533107599555</v>
+        <v>1.009615023754183</v>
       </c>
       <c r="D20">
-        <v>0.9931591584591246</v>
+        <v>1.028967092135053</v>
       </c>
       <c r="E20">
-        <v>0.9792864134574226</v>
+        <v>1.028379221486103</v>
       </c>
       <c r="F20">
-        <v>0.9874336351020647</v>
+        <v>1.033936710461083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034404829933768</v>
+        <v>1.046786689323467</v>
       </c>
       <c r="J20">
-        <v>0.9956288545786204</v>
+        <v>1.03678026854011</v>
       </c>
       <c r="K20">
-        <v>1.00732337191198</v>
+        <v>1.042519021228884</v>
       </c>
       <c r="L20">
-        <v>0.9937035345834753</v>
+        <v>1.041940760090998</v>
       </c>
       <c r="M20">
-        <v>1.001701107482113</v>
+        <v>1.047407965073862</v>
       </c>
       <c r="N20">
-        <v>0.9963808940989669</v>
+        <v>1.038252615441796</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9550061039584696</v>
+        <v>0.9986413800108808</v>
       </c>
       <c r="D21">
-        <v>0.9843258976183979</v>
+        <v>1.020191658008821</v>
       </c>
       <c r="E21">
-        <v>0.9683562328288007</v>
+        <v>1.018144938531043</v>
       </c>
       <c r="F21">
-        <v>0.9766366102288102</v>
+        <v>1.023831859845466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030142517279572</v>
+        <v>1.043131835869392</v>
       </c>
       <c r="J21">
-        <v>0.9865133593880148</v>
+        <v>1.028196014597296</v>
       </c>
       <c r="K21">
-        <v>0.9996104321913019</v>
+        <v>1.034800331340086</v>
       </c>
       <c r="L21">
-        <v>0.9839629723467744</v>
+        <v>1.032790514944328</v>
       </c>
       <c r="M21">
-        <v>0.9920745526338537</v>
+        <v>1.038375372284515</v>
       </c>
       <c r="N21">
-        <v>0.9898296894052244</v>
+        <v>1.029656170873755</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9472491430398046</v>
+        <v>0.9914417183068545</v>
       </c>
       <c r="D22">
-        <v>0.978504137488394</v>
+        <v>1.014442302176267</v>
       </c>
       <c r="E22">
-        <v>0.9611518114173516</v>
+        <v>1.011441207325045</v>
       </c>
       <c r="F22">
-        <v>0.9695225834344965</v>
+        <v>1.017213777292208</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027313696684711</v>
+        <v>1.040722302686021</v>
       </c>
       <c r="J22">
-        <v>0.9804928463789725</v>
+        <v>1.022562193616506</v>
       </c>
       <c r="K22">
-        <v>0.994513807184253</v>
+        <v>1.029732982687069</v>
       </c>
       <c r="L22">
-        <v>0.9775342443842607</v>
+        <v>1.026789368657641</v>
       </c>
       <c r="M22">
-        <v>0.9857229859383394</v>
+        <v>1.032451768737068</v>
       </c>
       <c r="N22">
-        <v>0.9854991766911386</v>
+        <v>1.024014349220965</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513990080370492</v>
+        <v>0.9952886836676333</v>
       </c>
       <c r="D23">
-        <v>0.9816175386177566</v>
+        <v>1.017513491232751</v>
       </c>
       <c r="E23">
-        <v>0.9650047745039565</v>
+        <v>1.015022107142364</v>
       </c>
       <c r="F23">
-        <v>0.9733269335275461</v>
+        <v>1.020748836148633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028828351556814</v>
+        <v>1.042010822878017</v>
       </c>
       <c r="J23">
-        <v>0.9837137924439244</v>
+        <v>1.025572609411263</v>
       </c>
       <c r="K23">
-        <v>0.9972406802931013</v>
+        <v>1.032440839071371</v>
       </c>
       <c r="L23">
-        <v>0.9809731498330566</v>
+        <v>1.029995673835431</v>
       </c>
       <c r="M23">
-        <v>0.9891204180574444</v>
+        <v>1.035616602119966</v>
       </c>
       <c r="N23">
-        <v>0.9878162974024149</v>
+        <v>1.027029040151449</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9669445006877766</v>
+        <v>1.009794297149471</v>
       </c>
       <c r="D24">
-        <v>0.9933030766491593</v>
+        <v>1.029110568931462</v>
       </c>
       <c r="E24">
-        <v>0.9794645007268844</v>
+        <v>1.028546580449122</v>
       </c>
       <c r="F24">
-        <v>0.987609590721726</v>
+        <v>1.034101965119762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034473955841887</v>
+        <v>1.046846198679559</v>
       </c>
       <c r="J24">
-        <v>0.995777177016742</v>
+        <v>1.036920467529836</v>
       </c>
       <c r="K24">
-        <v>1.007448827381313</v>
+        <v>1.042645054451645</v>
       </c>
       <c r="L24">
-        <v>0.9938621024148082</v>
+        <v>1.042090269732102</v>
       </c>
       <c r="M24">
-        <v>1.001857846746708</v>
+        <v>1.047555557244505</v>
       </c>
       <c r="N24">
-        <v>0.99648742812536</v>
+        <v>1.038393013530169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835934125773974</v>
+        <v>1.025483937550333</v>
       </c>
       <c r="D25">
-        <v>1.005851985102572</v>
+        <v>1.041680021617057</v>
       </c>
       <c r="E25">
-        <v>0.9949960884163112</v>
+        <v>1.043213757330626</v>
       </c>
       <c r="F25">
-        <v>1.002959603788141</v>
+        <v>1.048586064379652</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040457666269417</v>
+        <v>1.052025259230498</v>
       </c>
       <c r="J25">
-        <v>1.008685826291553</v>
+        <v>1.049183082860944</v>
       </c>
       <c r="K25">
-        <v>1.018360130734081</v>
+        <v>1.05366401630085</v>
       </c>
       <c r="L25">
-        <v>1.007672583521228</v>
+        <v>1.055176328527838</v>
       </c>
       <c r="M25">
-        <v>1.015512148800266</v>
+        <v>1.06047421714496</v>
       </c>
       <c r="N25">
-        <v>1.005749625368034</v>
+        <v>1.050673043181588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037225017242576</v>
+        <v>1.015623783758187</v>
       </c>
       <c r="D2">
-        <v>1.051100180214154</v>
+        <v>1.036443520745302</v>
       </c>
       <c r="E2">
-        <v>1.05421575271708</v>
+        <v>1.023697610658704</v>
       </c>
       <c r="F2">
-        <v>1.059452202066575</v>
+        <v>1.040695613200349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055856796061568</v>
+        <v>1.055363469019121</v>
       </c>
       <c r="J2">
-        <v>1.058346612348782</v>
+        <v>1.037347024942805</v>
       </c>
       <c r="K2">
-        <v>1.061890715182039</v>
+        <v>1.047417455217455</v>
       </c>
       <c r="L2">
-        <v>1.06496811956052</v>
+        <v>1.034836384440283</v>
       </c>
       <c r="M2">
-        <v>1.070141046318738</v>
+        <v>1.051615677410194</v>
       </c>
       <c r="N2">
-        <v>1.05984958593237</v>
+        <v>1.016178855848861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04536262962605</v>
+        <v>1.019713266591082</v>
       </c>
       <c r="D3">
-        <v>1.057634589480182</v>
+        <v>1.039660689848248</v>
       </c>
       <c r="E3">
-        <v>1.061854178667633</v>
+        <v>1.027301461900572</v>
       </c>
       <c r="F3">
-        <v>1.066996860010621</v>
+        <v>1.044413608096832</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058485426482858</v>
+        <v>1.056835984013337</v>
       </c>
       <c r="J3">
-        <v>1.064688667768227</v>
+        <v>1.039680582653925</v>
       </c>
       <c r="K3">
-        <v>1.067579541443458</v>
+        <v>1.049810059219258</v>
       </c>
       <c r="L3">
-        <v>1.071752374306187</v>
+        <v>1.037596537664918</v>
       </c>
       <c r="M3">
-        <v>1.076838684550977</v>
+        <v>1.054508077769637</v>
       </c>
       <c r="N3">
-        <v>1.066200647797955</v>
+        <v>1.01696683836144</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050466082915628</v>
+        <v>1.022309496515005</v>
       </c>
       <c r="D4">
-        <v>1.061734330164344</v>
+        <v>1.041705447185445</v>
       </c>
       <c r="E4">
-        <v>1.066650049281579</v>
+        <v>1.029594479559746</v>
       </c>
       <c r="F4">
-        <v>1.071734030034192</v>
+        <v>1.046778292885445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0601210453718</v>
+        <v>1.057761278565519</v>
       </c>
       <c r="J4">
-        <v>1.068661390966314</v>
+        <v>1.041159241366766</v>
       </c>
       <c r="K4">
-        <v>1.071140675276307</v>
+        <v>1.051325290112833</v>
       </c>
       <c r="L4">
-        <v>1.076005490542812</v>
+        <v>1.039348378741157</v>
       </c>
       <c r="M4">
-        <v>1.081037423517175</v>
+        <v>1.0563431148637</v>
       </c>
       <c r="N4">
-        <v>1.070179012718661</v>
+        <v>1.017466000086619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052575055253518</v>
+        <v>1.023389378748374</v>
       </c>
       <c r="D5">
-        <v>1.063428833675803</v>
+        <v>1.042556465625566</v>
       </c>
       <c r="E5">
-        <v>1.068633154188647</v>
+        <v>1.030549435590107</v>
       </c>
       <c r="F5">
-        <v>1.073692892198006</v>
+        <v>1.047762862224348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06079379483459</v>
+        <v>1.058143824737287</v>
       </c>
       <c r="J5">
-        <v>1.070301915308933</v>
+        <v>1.041773575965795</v>
       </c>
       <c r="K5">
-        <v>1.072610636826982</v>
+        <v>1.051954610855777</v>
       </c>
       <c r="L5">
-        <v>1.077762615572913</v>
+        <v>1.040076905018621</v>
       </c>
       <c r="M5">
-        <v>1.082772056722689</v>
+        <v>1.05710605720395</v>
       </c>
       <c r="N5">
-        <v>1.071821866794018</v>
+        <v>1.017673348082026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052927082408202</v>
+        <v>1.023570027899741</v>
       </c>
       <c r="D6">
-        <v>1.063711693491758</v>
+        <v>1.042698858335669</v>
       </c>
       <c r="E6">
-        <v>1.068964242512049</v>
+        <v>1.030709255607098</v>
       </c>
       <c r="F6">
-        <v>1.074019934542813</v>
+        <v>1.047927624471287</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060905901724618</v>
+        <v>1.058207681808435</v>
       </c>
       <c r="J6">
-        <v>1.070575678510636</v>
+        <v>1.041876303458507</v>
       </c>
       <c r="K6">
-        <v>1.072855901480098</v>
+        <v>1.052059831861313</v>
       </c>
       <c r="L6">
-        <v>1.078055884366756</v>
+        <v>1.040198768254959</v>
       </c>
       <c r="M6">
-        <v>1.083061569787581</v>
+        <v>1.05723366650466</v>
       </c>
       <c r="N6">
-        <v>1.072096018770867</v>
+        <v>1.017708018002691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050494403721419</v>
+        <v>1.022323970932577</v>
       </c>
       <c r="D7">
-        <v>1.061757084090273</v>
+        <v>1.041716851990948</v>
       </c>
       <c r="E7">
-        <v>1.066676675037493</v>
+        <v>1.029607274832258</v>
       </c>
       <c r="F7">
-        <v>1.071760330195034</v>
+        <v>1.046791485866368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060130092130548</v>
+        <v>1.057766415318407</v>
       </c>
       <c r="J7">
-        <v>1.068683425866397</v>
+        <v>1.041167478532705</v>
       </c>
       <c r="K7">
-        <v>1.071160421639032</v>
+        <v>1.051333729048678</v>
       </c>
       <c r="L7">
-        <v>1.076029088360225</v>
+        <v>1.039358144274857</v>
       </c>
       <c r="M7">
-        <v>1.081060719389372</v>
+        <v>1.05635334245281</v>
       </c>
       <c r="N7">
-        <v>1.070201078910829</v>
+        <v>1.017468780417188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040010178487439</v>
+        <v>1.017016419733921</v>
       </c>
       <c r="D8">
-        <v>1.053336201020948</v>
+        <v>1.037538587571271</v>
       </c>
       <c r="E8">
-        <v>1.056828857834964</v>
+        <v>1.024923783918419</v>
       </c>
       <c r="F8">
-        <v>1.062033185437274</v>
+        <v>1.041960821183079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056759152448339</v>
+        <v>1.055866897721624</v>
       </c>
       <c r="J8">
-        <v>1.060518173865286</v>
+        <v>1.038142268953694</v>
       </c>
       <c r="K8">
-        <v>1.063839100083539</v>
+        <v>1.048232994241092</v>
       </c>
       <c r="L8">
-        <v>1.06729037424331</v>
+        <v>1.035776407022628</v>
       </c>
       <c r="M8">
-        <v>1.072433663076515</v>
+        <v>1.0526008914555</v>
       </c>
       <c r="N8">
-        <v>1.06202423131531</v>
+        <v>1.016447417517395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020178723805777</v>
+        <v>1.007263278030972</v>
       </c>
       <c r="D9">
-        <v>1.037427200470758</v>
+        <v>1.029880941289007</v>
       </c>
       <c r="E9">
-        <v>1.038249803744208</v>
+        <v>1.016359264659561</v>
       </c>
       <c r="F9">
-        <v>1.043683791728346</v>
+        <v>1.03311975260062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05028087350521</v>
+        <v>1.052302258861445</v>
       </c>
       <c r="J9">
-        <v>1.045038503452738</v>
+        <v>1.032562132828973</v>
       </c>
       <c r="K9">
-        <v>1.049940890646976</v>
+        <v>1.042507134650509</v>
       </c>
       <c r="L9">
-        <v>1.050751355727931</v>
+        <v>1.029192385196286</v>
       </c>
       <c r="M9">
-        <v>1.056105770366945</v>
+        <v>1.045697404164557</v>
       </c>
       <c r="N9">
-        <v>1.046522577995232</v>
+        <v>1.014562468555001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005861832245206</v>
+        <v>1.000465149617828</v>
       </c>
       <c r="D10">
-        <v>1.025964145839005</v>
+        <v>1.02455997248816</v>
       </c>
       <c r="E10">
-        <v>1.024876674549291</v>
+        <v>1.010420088554308</v>
       </c>
       <c r="F10">
-        <v>1.030478290780194</v>
+        <v>1.02698401464363</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045539293631498</v>
+        <v>1.049769779643264</v>
       </c>
       <c r="J10">
-        <v>1.03384479375542</v>
+        <v>1.028660324634509</v>
       </c>
       <c r="K10">
-        <v>1.039879917073038</v>
+        <v>1.038499509826537</v>
       </c>
       <c r="L10">
-        <v>1.038810844258599</v>
+        <v>1.02460371971379</v>
       </c>
       <c r="M10">
-        <v>1.044318224024981</v>
+        <v>1.04088257680882</v>
       </c>
       <c r="N10">
-        <v>1.035312971946207</v>
+        <v>1.013243976825865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.999353492945898</v>
+        <v>0.997444863459093</v>
       </c>
       <c r="D11">
-        <v>1.020760684163071</v>
+        <v>1.022200548402785</v>
       </c>
       <c r="E11">
-        <v>1.018808468809375</v>
+        <v>1.007789152919079</v>
       </c>
       <c r="F11">
-        <v>1.024486951595338</v>
+        <v>1.024264925352594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04336969242569</v>
+        <v>1.048633812315398</v>
       </c>
       <c r="J11">
-        <v>1.028753192122339</v>
+        <v>1.026924326784803</v>
       </c>
       <c r="K11">
-        <v>1.03530142434773</v>
+        <v>1.036715597259145</v>
       </c>
       <c r="L11">
-        <v>1.033384192833144</v>
+        <v>1.022565657127212</v>
       </c>
       <c r="M11">
-        <v>1.038961396907879</v>
+        <v>1.03874330325307</v>
       </c>
       <c r="N11">
-        <v>1.030214139654793</v>
+        <v>1.012657283399064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.996884656052864</v>
+        <v>0.99631089390571</v>
       </c>
       <c r="D12">
-        <v>1.018788190467101</v>
+        <v>1.021315447938524</v>
       </c>
       <c r="E12">
-        <v>1.01650842428999</v>
+        <v>1.006802572844538</v>
       </c>
       <c r="F12">
-        <v>1.022216187497241</v>
+        <v>1.023245130894424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042544689950615</v>
+        <v>1.048205730436253</v>
       </c>
       <c r="J12">
-        <v>1.026821450551075</v>
+        <v>1.026272208121415</v>
       </c>
       <c r="K12">
-        <v>1.033564078475159</v>
+        <v>1.036045362683507</v>
       </c>
       <c r="L12">
-        <v>1.031326038905322</v>
+        <v>1.021800596521434</v>
       </c>
       <c r="M12">
-        <v>1.03692978836913</v>
+        <v>1.037940141597931</v>
       </c>
       <c r="N12">
-        <v>1.028279654788924</v>
+        <v>1.012436888577159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9974166406611336</v>
+        <v>0.9965546916071478</v>
       </c>
       <c r="D13">
-        <v>1.019213157939711</v>
+        <v>1.021505705290353</v>
       </c>
       <c r="E13">
-        <v>1.017003951888205</v>
+        <v>1.00701462724044</v>
       </c>
       <c r="F13">
-        <v>1.022705399845266</v>
+        <v>1.023464331386508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042722549375792</v>
+        <v>1.048297836593243</v>
       </c>
       <c r="J13">
-        <v>1.027237714130089</v>
+        <v>1.026412424899086</v>
       </c>
       <c r="K13">
-        <v>1.03393846419729</v>
+        <v>1.03618947984348</v>
       </c>
       <c r="L13">
-        <v>1.031769510675508</v>
+        <v>1.021965074006252</v>
       </c>
       <c r="M13">
-        <v>1.037367537229901</v>
+        <v>1.038112815049616</v>
       </c>
       <c r="N13">
-        <v>1.028696509509966</v>
+        <v>1.012484277501076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9991504967033574</v>
+        <v>0.9973513795459565</v>
       </c>
       <c r="D14">
-        <v>1.020598470051608</v>
+        <v>1.022127565589337</v>
       </c>
       <c r="E14">
-        <v>1.018619313054011</v>
+        <v>1.007707794905297</v>
       </c>
       <c r="F14">
-        <v>1.024300200759143</v>
+        <v>1.024180831498514</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04330189761843</v>
+        <v>1.048598553339038</v>
       </c>
       <c r="J14">
-        <v>1.028594363393361</v>
+        <v>1.026870573045964</v>
       </c>
       <c r="K14">
-        <v>1.035158584263784</v>
+        <v>1.036660352565719</v>
       </c>
       <c r="L14">
-        <v>1.033214956093998</v>
+        <v>1.022502582958279</v>
       </c>
       <c r="M14">
-        <v>1.038794341538381</v>
+        <v>1.03867709006004</v>
       </c>
       <c r="N14">
-        <v>1.030055085370801</v>
+        <v>1.01263911649905</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0002118186921</v>
+        <v>0.9978406236941123</v>
       </c>
       <c r="D15">
-        <v>1.021446628033575</v>
+        <v>1.022509548936067</v>
       </c>
       <c r="E15">
-        <v>1.019608348574918</v>
+        <v>1.008133628178027</v>
       </c>
       <c r="F15">
-        <v>1.025276667786423</v>
+        <v>1.024620977948032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04365626775644</v>
+        <v>1.048783015492944</v>
       </c>
       <c r="J15">
-        <v>1.029424752847762</v>
+        <v>1.027151877500399</v>
       </c>
       <c r="K15">
-        <v>1.035905370815119</v>
+        <v>1.036949454775442</v>
       </c>
       <c r="L15">
-        <v>1.034099789437851</v>
+        <v>1.022832684623919</v>
       </c>
       <c r="M15">
-        <v>1.03966777253933</v>
+        <v>1.039023615598966</v>
       </c>
       <c r="N15">
-        <v>1.030886654073476</v>
+        <v>1.012734187411076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006286854421235</v>
+        <v>1.000663932018671</v>
       </c>
       <c r="D16">
-        <v>1.026304128024473</v>
+        <v>1.024715360302276</v>
       </c>
       <c r="E16">
-        <v>1.025273196970559</v>
+        <v>1.010593410630122</v>
       </c>
       <c r="F16">
-        <v>1.030869809028892</v>
+        <v>1.027163121994818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045680696171182</v>
+        <v>1.049844322111626</v>
       </c>
       <c r="J16">
-        <v>1.034177245106699</v>
+        <v>1.028774531817088</v>
       </c>
       <c r="K16">
-        <v>1.040178824992355</v>
+        <v>1.038616852511043</v>
       </c>
       <c r="L16">
-        <v>1.039165268823788</v>
+        <v>1.024737872341444</v>
       </c>
       <c r="M16">
-        <v>1.044668095956077</v>
+        <v>1.041023376177915</v>
       </c>
       <c r="N16">
-        <v>1.035645895416538</v>
+        <v>1.013282572892458</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010011571268352</v>
+        <v>1.00241399546636</v>
       </c>
       <c r="D17">
-        <v>1.029284463334521</v>
+        <v>1.026083911111767</v>
       </c>
       <c r="E17">
-        <v>1.028749421671196</v>
+        <v>1.012120210231924</v>
       </c>
       <c r="F17">
-        <v>1.034302256399687</v>
+        <v>1.028740761481928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046918313107691</v>
+        <v>1.050499358582591</v>
       </c>
       <c r="J17">
-        <v>1.037090382569096</v>
+        <v>1.029779722420679</v>
       </c>
       <c r="K17">
-        <v>1.042797799801395</v>
+        <v>1.039649546069987</v>
       </c>
       <c r="L17">
-        <v>1.042271471858174</v>
+        <v>1.025919013959106</v>
       </c>
       <c r="M17">
-        <v>1.047734435627713</v>
+        <v>1.042262952805036</v>
       </c>
       <c r="N17">
-        <v>1.038563169868273</v>
+        <v>1.013622267537213</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012154686455316</v>
+        <v>1.003427423471482</v>
       </c>
       <c r="D18">
-        <v>1.030999970044143</v>
+        <v>1.026876844311393</v>
       </c>
       <c r="E18">
-        <v>1.030750589205241</v>
+        <v>1.013005082138265</v>
       </c>
       <c r="F18">
-        <v>1.036278296114985</v>
+        <v>1.029654994946456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047629077582406</v>
+        <v>1.050877645230944</v>
       </c>
       <c r="J18">
-        <v>1.038766240109747</v>
+        <v>1.030361569287747</v>
       </c>
       <c r="K18">
-        <v>1.044304230079</v>
+        <v>1.04024723300426</v>
       </c>
       <c r="L18">
-        <v>1.044058829660642</v>
+        <v>1.026603044343996</v>
       </c>
       <c r="M18">
-        <v>1.049498882844088</v>
+        <v>1.042980751703546</v>
       </c>
       <c r="N18">
-        <v>1.040241407318857</v>
+        <v>1.01381889044077</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012880576316517</v>
+        <v>1.003771745959302</v>
       </c>
       <c r="D19">
-        <v>1.031581136668325</v>
+        <v>1.027146322979613</v>
       </c>
       <c r="E19">
-        <v>1.031428570271086</v>
+        <v>1.013305849171249</v>
       </c>
       <c r="F19">
-        <v>1.036947775859974</v>
+        <v>1.029965724294223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047869589817674</v>
+        <v>1.051005995523948</v>
       </c>
       <c r="J19">
-        <v>1.039333812643734</v>
+        <v>1.030559215919898</v>
       </c>
       <c r="K19">
-        <v>1.044814386116951</v>
+        <v>1.040450246540432</v>
       </c>
       <c r="L19">
-        <v>1.04466423812033</v>
+        <v>1.02683545857377</v>
       </c>
       <c r="M19">
-        <v>1.050096535272558</v>
+        <v>1.043224626993741</v>
       </c>
       <c r="N19">
-        <v>1.040809785870943</v>
+        <v>1.013885679705519</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009615023754183</v>
+        <v>1.002226995029999</v>
       </c>
       <c r="D20">
-        <v>1.028967092135053</v>
+        <v>1.0259376314446</v>
       </c>
       <c r="E20">
-        <v>1.028379221486103</v>
+        <v>1.011956990111889</v>
       </c>
       <c r="F20">
-        <v>1.033936710461083</v>
+        <v>1.028572117070682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046786689323467</v>
+        <v>1.050429472389364</v>
       </c>
       <c r="J20">
-        <v>1.03678026854011</v>
+        <v>1.029672338855655</v>
       </c>
       <c r="K20">
-        <v>1.042519021228884</v>
+        <v>1.039539232610557</v>
       </c>
       <c r="L20">
-        <v>1.041940760090998</v>
+        <v>1.025792798921796</v>
       </c>
       <c r="M20">
-        <v>1.047407965073862</v>
+        <v>1.042130500989813</v>
       </c>
       <c r="N20">
-        <v>1.038252615441796</v>
+        <v>1.013585978950133</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986413800108808</v>
+        <v>0.9971171137279963</v>
       </c>
       <c r="D21">
-        <v>1.020191658008821</v>
+        <v>1.021944686711799</v>
       </c>
       <c r="E21">
-        <v>1.018144938531043</v>
+        <v>1.007503935573273</v>
       </c>
       <c r="F21">
-        <v>1.023831859845466</v>
+        <v>1.023970114432127</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043131835869392</v>
+        <v>1.048510170852462</v>
       </c>
       <c r="J21">
-        <v>1.028196014597296</v>
+        <v>1.026735863687281</v>
       </c>
       <c r="K21">
-        <v>1.034800331340086</v>
+        <v>1.03652190495005</v>
       </c>
       <c r="L21">
-        <v>1.032790514944328</v>
+        <v>1.022344524650512</v>
       </c>
       <c r="M21">
-        <v>1.038375372284515</v>
+        <v>1.038511163919335</v>
       </c>
       <c r="N21">
-        <v>1.029656170873755</v>
+        <v>1.012593589315421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9914417183068545</v>
+        <v>0.9938340000989944</v>
       </c>
       <c r="D22">
-        <v>1.014442302176267</v>
+        <v>1.01938359224943</v>
       </c>
       <c r="E22">
-        <v>1.011441207325045</v>
+        <v>1.004649888551846</v>
       </c>
       <c r="F22">
-        <v>1.017213777292208</v>
+        <v>1.021019690371674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040722302686021</v>
+        <v>1.047267829360612</v>
       </c>
       <c r="J22">
-        <v>1.022562193616506</v>
+        <v>1.024847231098971</v>
       </c>
       <c r="K22">
-        <v>1.029732982687069</v>
+        <v>1.034580594130252</v>
       </c>
       <c r="L22">
-        <v>1.026789368657641</v>
+        <v>1.020129789632139</v>
       </c>
       <c r="M22">
-        <v>1.032451768737068</v>
+        <v>1.036185935468166</v>
       </c>
       <c r="N22">
-        <v>1.024014349220965</v>
+        <v>1.011955285227111</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9952886836676333</v>
+        <v>0.9955813121251177</v>
       </c>
       <c r="D23">
-        <v>1.017513491232751</v>
+        <v>1.020746203641667</v>
       </c>
       <c r="E23">
-        <v>1.015022107142364</v>
+        <v>1.00616816568981</v>
       </c>
       <c r="F23">
-        <v>1.020748836148633</v>
+        <v>1.02258932195073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042010822878017</v>
+        <v>1.047929868101809</v>
       </c>
       <c r="J23">
-        <v>1.025572609411263</v>
+        <v>1.025852553268556</v>
       </c>
       <c r="K23">
-        <v>1.032440839071371</v>
+        <v>1.035614017893082</v>
       </c>
       <c r="L23">
-        <v>1.029995673835431</v>
+        <v>1.021308408763346</v>
       </c>
       <c r="M23">
-        <v>1.035616602119966</v>
+        <v>1.037423412673574</v>
       </c>
       <c r="N23">
-        <v>1.027029040151449</v>
+        <v>1.012295057595902</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009794297149471</v>
+        <v>1.002311515162814</v>
       </c>
       <c r="D24">
-        <v>1.029110568931462</v>
+        <v>1.026003745340747</v>
       </c>
       <c r="E24">
-        <v>1.028546580449122</v>
+        <v>1.012030759793995</v>
       </c>
       <c r="F24">
-        <v>1.034101965119762</v>
+        <v>1.02864833865942</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046846198679559</v>
+        <v>1.050461062633167</v>
       </c>
       <c r="J24">
-        <v>1.036920467529836</v>
+        <v>1.029720874638777</v>
       </c>
       <c r="K24">
-        <v>1.042645054451645</v>
+        <v>1.039589092910676</v>
       </c>
       <c r="L24">
-        <v>1.042090269732102</v>
+        <v>1.025849845211062</v>
       </c>
       <c r="M24">
-        <v>1.047555557244505</v>
+        <v>1.042190366384997</v>
       </c>
       <c r="N24">
-        <v>1.038393013530169</v>
+        <v>1.013602380875931</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025483937550333</v>
+        <v>1.009834822370967</v>
       </c>
       <c r="D25">
-        <v>1.041680021617057</v>
+        <v>1.031897330670232</v>
       </c>
       <c r="E25">
-        <v>1.043213757330626</v>
+        <v>1.018612314746709</v>
       </c>
       <c r="F25">
-        <v>1.048586064379652</v>
+        <v>1.035446399213939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052025259230498</v>
+        <v>1.053250551306267</v>
       </c>
       <c r="J25">
-        <v>1.049183082860944</v>
+        <v>1.03403567883439</v>
       </c>
       <c r="K25">
-        <v>1.05366401630085</v>
+        <v>1.044019868591251</v>
       </c>
       <c r="L25">
-        <v>1.055176328527838</v>
+        <v>1.030928409336382</v>
       </c>
       <c r="M25">
-        <v>1.06047421714496</v>
+        <v>1.047518292243576</v>
       </c>
       <c r="N25">
-        <v>1.050673043181588</v>
+        <v>1.015060323292459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015623783758187</v>
+        <v>1.038730219718744</v>
       </c>
       <c r="D2">
-        <v>1.036443520745302</v>
+        <v>1.048421045966259</v>
       </c>
       <c r="E2">
-        <v>1.023697610658704</v>
+        <v>1.042383156219913</v>
       </c>
       <c r="F2">
-        <v>1.040695613200349</v>
+        <v>1.057002457729889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055363469019121</v>
+        <v>1.044812931410447</v>
       </c>
       <c r="J2">
-        <v>1.037347024942805</v>
+        <v>1.04382607270359</v>
       </c>
       <c r="K2">
-        <v>1.047417455217455</v>
+        <v>1.051180938695051</v>
       </c>
       <c r="L2">
-        <v>1.034836384440283</v>
+        <v>1.045159998979641</v>
       </c>
       <c r="M2">
-        <v>1.051615677410194</v>
+        <v>1.059738621068969</v>
       </c>
       <c r="N2">
-        <v>1.016178855848861</v>
+        <v>1.018523846863181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019713266591082</v>
+        <v>1.039594736634425</v>
       </c>
       <c r="D3">
-        <v>1.039660689848248</v>
+        <v>1.049122234403329</v>
       </c>
       <c r="E3">
-        <v>1.027301461900572</v>
+        <v>1.04319603097846</v>
       </c>
       <c r="F3">
-        <v>1.044413608096832</v>
+        <v>1.05783466905203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056835984013337</v>
+        <v>1.045066039929225</v>
       </c>
       <c r="J3">
-        <v>1.039680582653925</v>
+        <v>1.044335929087231</v>
       </c>
       <c r="K3">
-        <v>1.049810059219258</v>
+        <v>1.051694456001866</v>
       </c>
       <c r="L3">
-        <v>1.037596537664918</v>
+        <v>1.045783688715999</v>
       </c>
       <c r="M3">
-        <v>1.054508077769637</v>
+        <v>1.060384535801566</v>
       </c>
       <c r="N3">
-        <v>1.01696683836144</v>
+        <v>1.018694773103118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022309496515005</v>
+        <v>1.040154695019364</v>
       </c>
       <c r="D4">
-        <v>1.041705447185445</v>
+        <v>1.049576399328184</v>
       </c>
       <c r="E4">
-        <v>1.029594479559746</v>
+        <v>1.043722902999394</v>
       </c>
       <c r="F4">
-        <v>1.046778292885445</v>
+        <v>1.058373954089918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057761278565519</v>
+        <v>1.045228803824759</v>
       </c>
       <c r="J4">
-        <v>1.041159241366766</v>
+        <v>1.044665739716124</v>
       </c>
       <c r="K4">
-        <v>1.051325290112833</v>
+        <v>1.05202650868087</v>
       </c>
       <c r="L4">
-        <v>1.039348378741157</v>
+        <v>1.046187492884141</v>
       </c>
       <c r="M4">
-        <v>1.0563431148637</v>
+        <v>1.060802623703341</v>
       </c>
       <c r="N4">
-        <v>1.017466000086619</v>
+        <v>1.018805293783896</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023389378748374</v>
+        <v>1.040390233688805</v>
       </c>
       <c r="D5">
-        <v>1.042556465625566</v>
+        <v>1.049767436118342</v>
       </c>
       <c r="E5">
-        <v>1.030549435590107</v>
+        <v>1.043944610810666</v>
       </c>
       <c r="F5">
-        <v>1.047762862224348</v>
+        <v>1.058600856545493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058143824737287</v>
+        <v>1.045296986181913</v>
       </c>
       <c r="J5">
-        <v>1.041773575965795</v>
+        <v>1.044804366864484</v>
       </c>
       <c r="K5">
-        <v>1.051954610855777</v>
+        <v>1.052166047942837</v>
       </c>
       <c r="L5">
-        <v>1.040076905018621</v>
+        <v>1.046357307084524</v>
       </c>
       <c r="M5">
-        <v>1.05710605720395</v>
+        <v>1.060978419385493</v>
       </c>
       <c r="N5">
-        <v>1.017673348082026</v>
+        <v>1.018851737074895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023570027899741</v>
+        <v>1.040429789375829</v>
       </c>
       <c r="D6">
-        <v>1.042698858335669</v>
+        <v>1.049799518195043</v>
       </c>
       <c r="E6">
-        <v>1.030709255607098</v>
+        <v>1.043981848840457</v>
       </c>
       <c r="F6">
-        <v>1.047927624471287</v>
+        <v>1.058638965381669</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058207681808435</v>
+        <v>1.045308419993343</v>
       </c>
       <c r="J6">
-        <v>1.041876303458507</v>
+        <v>1.044827641458612</v>
       </c>
       <c r="K6">
-        <v>1.052059831861313</v>
+        <v>1.052189473897104</v>
       </c>
       <c r="L6">
-        <v>1.040198768254959</v>
+        <v>1.046385822816884</v>
       </c>
       <c r="M6">
-        <v>1.05723366650466</v>
+        <v>1.061007938059871</v>
       </c>
       <c r="N6">
-        <v>1.017708018002691</v>
+        <v>1.018859533945338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022323970932577</v>
+        <v>1.040157841781091</v>
       </c>
       <c r="D7">
-        <v>1.041716851990948</v>
+        <v>1.049578951557274</v>
       </c>
       <c r="E7">
-        <v>1.029607274832258</v>
+        <v>1.043725864643802</v>
       </c>
       <c r="F7">
-        <v>1.046791485866368</v>
+        <v>1.058376985238988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057766415318407</v>
+        <v>1.045229715838836</v>
       </c>
       <c r="J7">
-        <v>1.041167478532705</v>
+        <v>1.044667592159506</v>
       </c>
       <c r="K7">
-        <v>1.051333729048678</v>
+        <v>1.052028373431691</v>
       </c>
       <c r="L7">
-        <v>1.039358144274857</v>
+        <v>1.046189761735698</v>
       </c>
       <c r="M7">
-        <v>1.05635334245281</v>
+        <v>1.060804972571822</v>
       </c>
       <c r="N7">
-        <v>1.017468780417188</v>
+        <v>1.018805914439008</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017016419733921</v>
+        <v>1.039022270818278</v>
       </c>
       <c r="D8">
-        <v>1.037538587571271</v>
+        <v>1.04865792188817</v>
       </c>
       <c r="E8">
-        <v>1.024923783918419</v>
+        <v>1.04265768622318</v>
       </c>
       <c r="F8">
-        <v>1.041960821183079</v>
+        <v>1.057283543073003</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055866897721624</v>
+        <v>1.04489868015936</v>
       </c>
       <c r="J8">
-        <v>1.038142268953694</v>
+        <v>1.043998401170663</v>
       </c>
       <c r="K8">
-        <v>1.048232994241092</v>
+        <v>1.051354530594342</v>
       </c>
       <c r="L8">
-        <v>1.035776407022628</v>
+        <v>1.045370728315729</v>
       </c>
       <c r="M8">
-        <v>1.0526008914555</v>
+        <v>1.059956881538276</v>
       </c>
       <c r="N8">
-        <v>1.016447417517395</v>
+        <v>1.01858162848875</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007263278030972</v>
+        <v>1.037025588640066</v>
       </c>
       <c r="D9">
-        <v>1.029880941289007</v>
+        <v>1.047038463184446</v>
       </c>
       <c r="E9">
-        <v>1.016359264659561</v>
+        <v>1.040782293341072</v>
       </c>
       <c r="F9">
-        <v>1.03311975260062</v>
+        <v>1.055362877278547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052302258861445</v>
+        <v>1.04430761934233</v>
       </c>
       <c r="J9">
-        <v>1.032562132828973</v>
+        <v>1.042818482798831</v>
       </c>
       <c r="K9">
-        <v>1.042507134650509</v>
+        <v>1.050165447604491</v>
       </c>
       <c r="L9">
-        <v>1.029192385196286</v>
+        <v>1.043929349179006</v>
       </c>
       <c r="M9">
-        <v>1.045697404164557</v>
+        <v>1.058463558199866</v>
       </c>
       <c r="N9">
-        <v>1.014562468555001</v>
+        <v>1.018185814738878</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000465149617828</v>
+        <v>1.035697470677548</v>
       </c>
       <c r="D10">
-        <v>1.02455997248816</v>
+        <v>1.045961285176571</v>
       </c>
       <c r="E10">
-        <v>1.010420088554308</v>
+        <v>1.039536754411765</v>
       </c>
       <c r="F10">
-        <v>1.02698401464363</v>
+        <v>1.054086653530341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049769779643264</v>
+        <v>1.043908425104648</v>
       </c>
       <c r="J10">
-        <v>1.028660324634509</v>
+        <v>1.042031457071572</v>
       </c>
       <c r="K10">
-        <v>1.038499509826537</v>
+        <v>1.049371666753223</v>
       </c>
       <c r="L10">
-        <v>1.02460371971379</v>
+        <v>1.042969763990054</v>
       </c>
       <c r="M10">
-        <v>1.04088257680882</v>
+        <v>1.057468851315885</v>
       </c>
       <c r="N10">
-        <v>1.013243976825865</v>
+        <v>1.017921566482151</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.997444863459093</v>
+        <v>1.03512311134586</v>
       </c>
       <c r="D11">
-        <v>1.022200548402785</v>
+        <v>1.04549545980137</v>
       </c>
       <c r="E11">
-        <v>1.007789152919079</v>
+        <v>1.038998563857334</v>
       </c>
       <c r="F11">
-        <v>1.024264925352594</v>
+        <v>1.053535057825792</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048633812315398</v>
+        <v>1.043734356834505</v>
       </c>
       <c r="J11">
-        <v>1.026924326784803</v>
+        <v>1.041690582756976</v>
       </c>
       <c r="K11">
-        <v>1.036715597259145</v>
+        <v>1.049027715399291</v>
       </c>
       <c r="L11">
-        <v>1.022565657127212</v>
+        <v>1.042554586716932</v>
       </c>
       <c r="M11">
-        <v>1.03874330325307</v>
+        <v>1.057038350468638</v>
       </c>
       <c r="N11">
-        <v>1.012657283399064</v>
+        <v>1.017807061293947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.99631089390571</v>
+        <v>1.034909878997121</v>
       </c>
       <c r="D12">
-        <v>1.021315447938524</v>
+        <v>1.045322523308764</v>
       </c>
       <c r="E12">
-        <v>1.006802572844538</v>
+        <v>1.038798828314865</v>
       </c>
       <c r="F12">
-        <v>1.023245130894424</v>
+        <v>1.053330325300452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048205730436253</v>
+        <v>1.043669518412261</v>
       </c>
       <c r="J12">
-        <v>1.026272208121415</v>
+        <v>1.041563954953489</v>
       </c>
       <c r="K12">
-        <v>1.036045362683507</v>
+        <v>1.04889992189254</v>
       </c>
       <c r="L12">
-        <v>1.021800596521434</v>
+        <v>1.042400422268333</v>
       </c>
       <c r="M12">
-        <v>1.037940141597931</v>
+        <v>1.05687847688761</v>
       </c>
       <c r="N12">
-        <v>1.012436888577159</v>
+        <v>1.017764516800208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9965546916071478</v>
+        <v>1.034955613046325</v>
       </c>
       <c r="D13">
-        <v>1.021505705290353</v>
+        <v>1.045359614592738</v>
       </c>
       <c r="E13">
-        <v>1.00701462724044</v>
+        <v>1.038841664438041</v>
       </c>
       <c r="F13">
-        <v>1.023464331386508</v>
+        <v>1.053374234093724</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048297836593243</v>
+        <v>1.043683434684863</v>
       </c>
       <c r="J13">
-        <v>1.026412424899086</v>
+        <v>1.041591117567269</v>
       </c>
       <c r="K13">
-        <v>1.03618947984348</v>
+        <v>1.048927335581903</v>
       </c>
       <c r="L13">
-        <v>1.021965074006252</v>
+        <v>1.042433488741441</v>
       </c>
       <c r="M13">
-        <v>1.038112815049616</v>
+        <v>1.056912768769114</v>
       </c>
       <c r="N13">
-        <v>1.012484277501076</v>
+        <v>1.017773643282059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9973513795459565</v>
+        <v>1.035105483235419</v>
       </c>
       <c r="D14">
-        <v>1.022127565589337</v>
+        <v>1.045481162934702</v>
       </c>
       <c r="E14">
-        <v>1.007707794905297</v>
+        <v>1.038982050128399</v>
       </c>
       <c r="F14">
-        <v>1.024180831498514</v>
+        <v>1.053518131405587</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048598553339038</v>
+        <v>1.043729000972889</v>
       </c>
       <c r="J14">
-        <v>1.026870573045964</v>
+        <v>1.041680115899384</v>
       </c>
       <c r="K14">
-        <v>1.036660352565719</v>
+        <v>1.049017152647977</v>
       </c>
       <c r="L14">
-        <v>1.022502582958279</v>
+        <v>1.042541842389668</v>
       </c>
       <c r="M14">
-        <v>1.03867709006004</v>
+        <v>1.057025134574527</v>
       </c>
       <c r="N14">
-        <v>1.01263911649905</v>
+        <v>1.017803544798489</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9978406236941123</v>
+        <v>1.035197837861356</v>
       </c>
       <c r="D15">
-        <v>1.022509548936067</v>
+        <v>1.045556065093372</v>
       </c>
       <c r="E15">
-        <v>1.008133628178027</v>
+        <v>1.039068569280594</v>
       </c>
       <c r="F15">
-        <v>1.024620977948032</v>
+        <v>1.05360681183885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048783015492944</v>
+        <v>1.043757051810214</v>
       </c>
       <c r="J15">
-        <v>1.027151877500399</v>
+        <v>1.041734949166289</v>
       </c>
       <c r="K15">
-        <v>1.036949454775442</v>
+        <v>1.049072487351369</v>
       </c>
       <c r="L15">
-        <v>1.022832684623919</v>
+        <v>1.042608609431395</v>
       </c>
       <c r="M15">
-        <v>1.039023615598966</v>
+        <v>1.057094371352642</v>
       </c>
       <c r="N15">
-        <v>1.012734187411076</v>
+        <v>1.01782196651047</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000663932018671</v>
+        <v>1.035735604401436</v>
       </c>
       <c r="D16">
-        <v>1.024715360302276</v>
+        <v>1.045992213253129</v>
       </c>
       <c r="E16">
-        <v>1.010593410630122</v>
+        <v>1.039572496427686</v>
       </c>
       <c r="F16">
-        <v>1.027163121994818</v>
+        <v>1.054123282713604</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049844322111626</v>
+        <v>1.043919951917929</v>
       </c>
       <c r="J16">
-        <v>1.028774531817088</v>
+        <v>1.042054078043792</v>
       </c>
       <c r="K16">
-        <v>1.038616852511043</v>
+        <v>1.04939448874277</v>
       </c>
       <c r="L16">
-        <v>1.024737872341444</v>
+        <v>1.042997324997224</v>
       </c>
       <c r="M16">
-        <v>1.041023376177915</v>
+        <v>1.057497426870172</v>
       </c>
       <c r="N16">
-        <v>1.013282572892458</v>
+        <v>1.01792916408356</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00241399546636</v>
+        <v>1.036073126125329</v>
       </c>
       <c r="D17">
-        <v>1.026083911111767</v>
+        <v>1.046265959241982</v>
       </c>
       <c r="E17">
-        <v>1.012120210231924</v>
+        <v>1.039888901971454</v>
       </c>
       <c r="F17">
-        <v>1.028740761481928</v>
+        <v>1.054447524956838</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050499358582591</v>
+        <v>1.044021810218364</v>
       </c>
       <c r="J17">
-        <v>1.029779722420679</v>
+        <v>1.042254236690324</v>
       </c>
       <c r="K17">
-        <v>1.039649546069987</v>
+        <v>1.049596408600714</v>
       </c>
       <c r="L17">
-        <v>1.025919013959106</v>
+        <v>1.043241245178633</v>
       </c>
       <c r="M17">
-        <v>1.042262952805036</v>
+        <v>1.05775031123278</v>
       </c>
       <c r="N17">
-        <v>1.013622267537213</v>
+        <v>1.017996384126866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003427423471482</v>
+        <v>1.036270066645036</v>
       </c>
       <c r="D18">
-        <v>1.026876844311393</v>
+        <v>1.046425688406422</v>
       </c>
       <c r="E18">
-        <v>1.013005082138265</v>
+        <v>1.040073565466345</v>
       </c>
       <c r="F18">
-        <v>1.029654994946456</v>
+        <v>1.054636748034785</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050877645230944</v>
+        <v>1.044081105206447</v>
       </c>
       <c r="J18">
-        <v>1.030361569287747</v>
+        <v>1.042370977372023</v>
       </c>
       <c r="K18">
-        <v>1.04024723300426</v>
+        <v>1.049714161893143</v>
       </c>
       <c r="L18">
-        <v>1.026603044343996</v>
+        <v>1.043383551387776</v>
       </c>
       <c r="M18">
-        <v>1.042980751703546</v>
+        <v>1.057897834932048</v>
       </c>
       <c r="N18">
-        <v>1.01381889044077</v>
+        <v>1.018035584311204</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003771745959302</v>
+        <v>1.036337230070125</v>
       </c>
       <c r="D19">
-        <v>1.027146322979613</v>
+        <v>1.046480161669854</v>
       </c>
       <c r="E19">
-        <v>1.013305849171249</v>
+        <v>1.040136549465846</v>
       </c>
       <c r="F19">
-        <v>1.029965724294223</v>
+        <v>1.054701284792977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051005995523948</v>
+        <v>1.044101303357046</v>
       </c>
       <c r="J19">
-        <v>1.030559215919898</v>
+        <v>1.042410781455555</v>
       </c>
       <c r="K19">
-        <v>1.040450246540432</v>
+        <v>1.049754308759156</v>
       </c>
       <c r="L19">
-        <v>1.02683545857377</v>
+        <v>1.043432079461443</v>
       </c>
       <c r="M19">
-        <v>1.043224626993741</v>
+        <v>1.057948140138171</v>
       </c>
       <c r="N19">
-        <v>1.013885679705519</v>
+        <v>1.018048949168602</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002226995029999</v>
+        <v>1.036036906007663</v>
       </c>
       <c r="D20">
-        <v>1.0259376314446</v>
+        <v>1.046236582901525</v>
       </c>
       <c r="E20">
-        <v>1.011956990111889</v>
+        <v>1.039854943313121</v>
       </c>
       <c r="F20">
-        <v>1.028572117070682</v>
+        <v>1.054412726676632</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050429472389364</v>
+        <v>1.044010893907459</v>
       </c>
       <c r="J20">
-        <v>1.029672338855655</v>
+        <v>1.042232762429574</v>
       </c>
       <c r="K20">
-        <v>1.039539232610557</v>
+        <v>1.049574746895834</v>
       </c>
       <c r="L20">
-        <v>1.025792798921796</v>
+        <v>1.043215071563361</v>
       </c>
       <c r="M20">
-        <v>1.042130500989813</v>
+        <v>1.05772317699984</v>
       </c>
       <c r="N20">
-        <v>1.013585978950133</v>
+        <v>1.017989172890066</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9971171137279963</v>
+        <v>1.035061347144356</v>
       </c>
       <c r="D21">
-        <v>1.021944686711799</v>
+        <v>1.045445367430111</v>
       </c>
       <c r="E21">
-        <v>1.007503935573273</v>
+        <v>1.038940705268938</v>
       </c>
       <c r="F21">
-        <v>1.023970114432127</v>
+        <v>1.053475752949462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048510170852462</v>
+        <v>1.043715587846975</v>
       </c>
       <c r="J21">
-        <v>1.026735863687281</v>
+        <v>1.041653908428115</v>
       </c>
       <c r="K21">
-        <v>1.03652190495005</v>
+        <v>1.048990704707389</v>
       </c>
       <c r="L21">
-        <v>1.022344524650512</v>
+        <v>1.042509933525378</v>
       </c>
       <c r="M21">
-        <v>1.038511163919335</v>
+        <v>1.056992044706009</v>
       </c>
       <c r="N21">
-        <v>1.012593589315421</v>
+        <v>1.017794739879522</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9938340000989944</v>
+        <v>1.0344486133268</v>
       </c>
       <c r="D22">
-        <v>1.01938359224943</v>
+        <v>1.044948430773555</v>
       </c>
       <c r="E22">
-        <v>1.004649888551846</v>
+        <v>1.038366885784161</v>
       </c>
       <c r="F22">
-        <v>1.021019690371674</v>
+        <v>1.052887536193707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047267829360612</v>
+        <v>1.043528866225937</v>
       </c>
       <c r="J22">
-        <v>1.024847231098971</v>
+        <v>1.041289891636521</v>
       </c>
       <c r="K22">
-        <v>1.034580594130252</v>
+        <v>1.048623294292529</v>
       </c>
       <c r="L22">
-        <v>1.020129789632139</v>
+        <v>1.042066880293207</v>
       </c>
       <c r="M22">
-        <v>1.036185935468166</v>
+        <v>1.056532547956825</v>
       </c>
       <c r="N22">
-        <v>1.011955285227111</v>
+        <v>1.01767242194526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9955813121251177</v>
+        <v>1.034773374090908</v>
       </c>
       <c r="D23">
-        <v>1.020746203641667</v>
+        <v>1.045211815318302</v>
       </c>
       <c r="E23">
-        <v>1.00616816568981</v>
+        <v>1.038670983152909</v>
       </c>
       <c r="F23">
-        <v>1.02258932195073</v>
+        <v>1.053199275512675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047929868101809</v>
+        <v>1.043627950258826</v>
       </c>
       <c r="J23">
-        <v>1.025852553268556</v>
+        <v>1.04148286991147</v>
       </c>
       <c r="K23">
-        <v>1.035614017893082</v>
+        <v>1.048818084037166</v>
       </c>
       <c r="L23">
-        <v>1.021308408763346</v>
+        <v>1.042301722766882</v>
       </c>
       <c r="M23">
-        <v>1.037423412673574</v>
+        <v>1.056776116885613</v>
       </c>
       <c r="N23">
-        <v>1.012295057595902</v>
+        <v>1.017737271500928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002311515162814</v>
+        <v>1.036053272104218</v>
       </c>
       <c r="D24">
-        <v>1.026003745340747</v>
+        <v>1.046249856627023</v>
       </c>
       <c r="E24">
-        <v>1.012030759793995</v>
+        <v>1.039870287430978</v>
       </c>
       <c r="F24">
-        <v>1.02864833865942</v>
+        <v>1.054428450218801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050461062633167</v>
+        <v>1.04401582688079</v>
       </c>
       <c r="J24">
-        <v>1.029720874638777</v>
+        <v>1.042242465749964</v>
       </c>
       <c r="K24">
-        <v>1.039589092910676</v>
+        <v>1.04958453495951</v>
       </c>
       <c r="L24">
-        <v>1.025849845211062</v>
+        <v>1.043226898195705</v>
       </c>
       <c r="M24">
-        <v>1.042190366384997</v>
+        <v>1.05773543772847</v>
       </c>
       <c r="N24">
-        <v>1.013602380875931</v>
+        <v>1.017992431362744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009834822370967</v>
+        <v>1.03754125578448</v>
       </c>
       <c r="D25">
-        <v>1.031897330670232</v>
+        <v>1.047456705532727</v>
       </c>
       <c r="E25">
-        <v>1.018612314746709</v>
+        <v>1.041266302312811</v>
       </c>
       <c r="F25">
-        <v>1.035446399213939</v>
+        <v>1.055858679364316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053250551306267</v>
+        <v>1.044461334478744</v>
       </c>
       <c r="J25">
-        <v>1.03403567883439</v>
+        <v>1.043123597950155</v>
       </c>
       <c r="K25">
-        <v>1.044019868591251</v>
+        <v>1.050473046153594</v>
       </c>
       <c r="L25">
-        <v>1.030928409336382</v>
+        <v>1.044301751077767</v>
       </c>
       <c r="M25">
-        <v>1.047518292243576</v>
+        <v>1.058849476114547</v>
       </c>
       <c r="N25">
-        <v>1.015060323292459</v>
+        <v>1.018288209658643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038730219718744</v>
+        <v>1.015623783758187</v>
       </c>
       <c r="D2">
-        <v>1.048421045966259</v>
+        <v>1.036443520745302</v>
       </c>
       <c r="E2">
-        <v>1.042383156219913</v>
+        <v>1.023697610658704</v>
       </c>
       <c r="F2">
-        <v>1.057002457729889</v>
+        <v>1.040695613200349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044812931410447</v>
+        <v>1.055363469019121</v>
       </c>
       <c r="J2">
-        <v>1.04382607270359</v>
+        <v>1.037347024942805</v>
       </c>
       <c r="K2">
-        <v>1.051180938695051</v>
+        <v>1.047417455217455</v>
       </c>
       <c r="L2">
-        <v>1.045159998979641</v>
+        <v>1.034836384440283</v>
       </c>
       <c r="M2">
-        <v>1.059738621068969</v>
+        <v>1.051615677410194</v>
       </c>
       <c r="N2">
-        <v>1.018523846863181</v>
+        <v>1.016178855848861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039594736634425</v>
+        <v>1.019713266591082</v>
       </c>
       <c r="D3">
-        <v>1.049122234403329</v>
+        <v>1.039660689848248</v>
       </c>
       <c r="E3">
-        <v>1.04319603097846</v>
+        <v>1.027301461900571</v>
       </c>
       <c r="F3">
-        <v>1.05783466905203</v>
+        <v>1.044413608096832</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045066039929225</v>
+        <v>1.056835984013337</v>
       </c>
       <c r="J3">
-        <v>1.044335929087231</v>
+        <v>1.039680582653925</v>
       </c>
       <c r="K3">
-        <v>1.051694456001866</v>
+        <v>1.049810059219258</v>
       </c>
       <c r="L3">
-        <v>1.045783688715999</v>
+        <v>1.037596537664918</v>
       </c>
       <c r="M3">
-        <v>1.060384535801566</v>
+        <v>1.054508077769637</v>
       </c>
       <c r="N3">
-        <v>1.018694773103118</v>
+        <v>1.01696683836144</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040154695019364</v>
+        <v>1.022309496515006</v>
       </c>
       <c r="D4">
-        <v>1.049576399328184</v>
+        <v>1.041705447185445</v>
       </c>
       <c r="E4">
-        <v>1.043722902999394</v>
+        <v>1.029594479559746</v>
       </c>
       <c r="F4">
-        <v>1.058373954089918</v>
+        <v>1.046778292885445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045228803824759</v>
+        <v>1.05776127856552</v>
       </c>
       <c r="J4">
-        <v>1.044665739716124</v>
+        <v>1.041159241366766</v>
       </c>
       <c r="K4">
-        <v>1.05202650868087</v>
+        <v>1.051325290112834</v>
       </c>
       <c r="L4">
-        <v>1.046187492884141</v>
+        <v>1.039348378741158</v>
       </c>
       <c r="M4">
-        <v>1.060802623703341</v>
+        <v>1.056343114863701</v>
       </c>
       <c r="N4">
-        <v>1.018805293783896</v>
+        <v>1.017466000086619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040390233688805</v>
+        <v>1.023389378748374</v>
       </c>
       <c r="D5">
-        <v>1.049767436118342</v>
+        <v>1.042556465625567</v>
       </c>
       <c r="E5">
-        <v>1.043944610810666</v>
+        <v>1.030549435590107</v>
       </c>
       <c r="F5">
-        <v>1.058600856545493</v>
+        <v>1.047762862224348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045296986181913</v>
+        <v>1.058143824737287</v>
       </c>
       <c r="J5">
-        <v>1.044804366864484</v>
+        <v>1.041773575965795</v>
       </c>
       <c r="K5">
-        <v>1.052166047942837</v>
+        <v>1.051954610855777</v>
       </c>
       <c r="L5">
-        <v>1.046357307084524</v>
+        <v>1.040076905018621</v>
       </c>
       <c r="M5">
-        <v>1.060978419385493</v>
+        <v>1.05710605720395</v>
       </c>
       <c r="N5">
-        <v>1.018851737074895</v>
+        <v>1.017673348082026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040429789375829</v>
+        <v>1.023570027899741</v>
       </c>
       <c r="D6">
-        <v>1.049799518195043</v>
+        <v>1.042698858335669</v>
       </c>
       <c r="E6">
-        <v>1.043981848840457</v>
+        <v>1.030709255607098</v>
       </c>
       <c r="F6">
-        <v>1.058638965381669</v>
+        <v>1.047927624471286</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045308419993343</v>
+        <v>1.058207681808434</v>
       </c>
       <c r="J6">
-        <v>1.044827641458612</v>
+        <v>1.041876303458507</v>
       </c>
       <c r="K6">
-        <v>1.052189473897104</v>
+        <v>1.052059831861312</v>
       </c>
       <c r="L6">
-        <v>1.046385822816884</v>
+        <v>1.040198768254959</v>
       </c>
       <c r="M6">
-        <v>1.061007938059871</v>
+        <v>1.057233666504658</v>
       </c>
       <c r="N6">
-        <v>1.018859533945338</v>
+        <v>1.017708018002691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040157841781091</v>
+        <v>1.022323970932577</v>
       </c>
       <c r="D7">
-        <v>1.049578951557274</v>
+        <v>1.041716851990947</v>
       </c>
       <c r="E7">
-        <v>1.043725864643802</v>
+        <v>1.029607274832258</v>
       </c>
       <c r="F7">
-        <v>1.058376985238988</v>
+        <v>1.046791485866368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045229715838836</v>
+        <v>1.057766415318407</v>
       </c>
       <c r="J7">
-        <v>1.044667592159506</v>
+        <v>1.041167478532704</v>
       </c>
       <c r="K7">
-        <v>1.052028373431691</v>
+        <v>1.051333729048678</v>
       </c>
       <c r="L7">
-        <v>1.046189761735698</v>
+        <v>1.039358144274857</v>
       </c>
       <c r="M7">
-        <v>1.060804972571822</v>
+        <v>1.05635334245281</v>
       </c>
       <c r="N7">
-        <v>1.018805914439008</v>
+        <v>1.017468780417188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039022270818278</v>
+        <v>1.017016419733921</v>
       </c>
       <c r="D8">
-        <v>1.04865792188817</v>
+        <v>1.037538587571271</v>
       </c>
       <c r="E8">
-        <v>1.04265768622318</v>
+        <v>1.024923783918419</v>
       </c>
       <c r="F8">
-        <v>1.057283543073003</v>
+        <v>1.041960821183079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04489868015936</v>
+        <v>1.055866897721624</v>
       </c>
       <c r="J8">
-        <v>1.043998401170663</v>
+        <v>1.038142268953693</v>
       </c>
       <c r="K8">
-        <v>1.051354530594342</v>
+        <v>1.048232994241092</v>
       </c>
       <c r="L8">
-        <v>1.045370728315729</v>
+        <v>1.035776407022628</v>
       </c>
       <c r="M8">
-        <v>1.059956881538276</v>
+        <v>1.0526008914555</v>
       </c>
       <c r="N8">
-        <v>1.01858162848875</v>
+        <v>1.016447417517395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037025588640066</v>
+        <v>1.007263278030972</v>
       </c>
       <c r="D9">
-        <v>1.047038463184446</v>
+        <v>1.029880941289006</v>
       </c>
       <c r="E9">
-        <v>1.040782293341072</v>
+        <v>1.016359264659559</v>
       </c>
       <c r="F9">
-        <v>1.055362877278547</v>
+        <v>1.033119752600619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04430761934233</v>
+        <v>1.052302258861444</v>
       </c>
       <c r="J9">
-        <v>1.042818482798831</v>
+        <v>1.032562132828972</v>
       </c>
       <c r="K9">
-        <v>1.050165447604491</v>
+        <v>1.042507134650507</v>
       </c>
       <c r="L9">
-        <v>1.043929349179006</v>
+        <v>1.029192385196285</v>
       </c>
       <c r="M9">
-        <v>1.058463558199866</v>
+        <v>1.045697404164556</v>
       </c>
       <c r="N9">
-        <v>1.018185814738878</v>
+        <v>1.014562468555001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035697470677548</v>
+        <v>1.000465149617828</v>
       </c>
       <c r="D10">
-        <v>1.045961285176571</v>
+        <v>1.02455997248816</v>
       </c>
       <c r="E10">
-        <v>1.039536754411765</v>
+        <v>1.010420088554307</v>
       </c>
       <c r="F10">
-        <v>1.054086653530341</v>
+        <v>1.02698401464363</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043908425104648</v>
+        <v>1.049769779643264</v>
       </c>
       <c r="J10">
-        <v>1.042031457071572</v>
+        <v>1.028660324634509</v>
       </c>
       <c r="K10">
-        <v>1.049371666753223</v>
+        <v>1.038499509826537</v>
       </c>
       <c r="L10">
-        <v>1.042969763990054</v>
+        <v>1.024603719713789</v>
       </c>
       <c r="M10">
-        <v>1.057468851315885</v>
+        <v>1.040882576808819</v>
       </c>
       <c r="N10">
-        <v>1.017921566482151</v>
+        <v>1.013243976825865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03512311134586</v>
+        <v>0.9974448634590927</v>
       </c>
       <c r="D11">
-        <v>1.04549545980137</v>
+        <v>1.022200548402785</v>
       </c>
       <c r="E11">
-        <v>1.038998563857334</v>
+        <v>1.007789152919079</v>
       </c>
       <c r="F11">
-        <v>1.053535057825792</v>
+        <v>1.024264925352594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043734356834505</v>
+        <v>1.048633812315398</v>
       </c>
       <c r="J11">
-        <v>1.041690582756976</v>
+        <v>1.026924326784803</v>
       </c>
       <c r="K11">
-        <v>1.049027715399291</v>
+        <v>1.036715597259145</v>
       </c>
       <c r="L11">
-        <v>1.042554586716932</v>
+        <v>1.022565657127212</v>
       </c>
       <c r="M11">
-        <v>1.057038350468638</v>
+        <v>1.03874330325307</v>
       </c>
       <c r="N11">
-        <v>1.017807061293947</v>
+        <v>1.012657283399064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034909878997121</v>
+        <v>0.9963108939057103</v>
       </c>
       <c r="D12">
-        <v>1.045322523308764</v>
+        <v>1.021315447938524</v>
       </c>
       <c r="E12">
-        <v>1.038798828314865</v>
+        <v>1.006802572844539</v>
       </c>
       <c r="F12">
-        <v>1.053330325300452</v>
+        <v>1.023245130894424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043669518412261</v>
+        <v>1.048205730436253</v>
       </c>
       <c r="J12">
-        <v>1.041563954953489</v>
+        <v>1.026272208121415</v>
       </c>
       <c r="K12">
-        <v>1.04889992189254</v>
+        <v>1.036045362683507</v>
       </c>
       <c r="L12">
-        <v>1.042400422268333</v>
+        <v>1.021800596521435</v>
       </c>
       <c r="M12">
-        <v>1.05687847688761</v>
+        <v>1.037940141597931</v>
       </c>
       <c r="N12">
-        <v>1.017764516800208</v>
+        <v>1.012436888577159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034955613046325</v>
+        <v>0.9965546916071487</v>
       </c>
       <c r="D13">
-        <v>1.045359614592738</v>
+        <v>1.021505705290354</v>
       </c>
       <c r="E13">
-        <v>1.038841664438041</v>
+        <v>1.007014627240441</v>
       </c>
       <c r="F13">
-        <v>1.053374234093724</v>
+        <v>1.023464331386509</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043683434684863</v>
+        <v>1.048297836593244</v>
       </c>
       <c r="J13">
-        <v>1.041591117567269</v>
+        <v>1.026412424899087</v>
       </c>
       <c r="K13">
-        <v>1.048927335581903</v>
+        <v>1.036189479843481</v>
       </c>
       <c r="L13">
-        <v>1.042433488741441</v>
+        <v>1.021965074006252</v>
       </c>
       <c r="M13">
-        <v>1.056912768769114</v>
+        <v>1.038112815049617</v>
       </c>
       <c r="N13">
-        <v>1.017773643282059</v>
+        <v>1.012484277501076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035105483235419</v>
+        <v>0.9973513795459565</v>
       </c>
       <c r="D14">
-        <v>1.045481162934702</v>
+        <v>1.022127565589337</v>
       </c>
       <c r="E14">
-        <v>1.038982050128399</v>
+        <v>1.007707794905297</v>
       </c>
       <c r="F14">
-        <v>1.053518131405587</v>
+        <v>1.024180831498514</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043729000972889</v>
+        <v>1.048598553339038</v>
       </c>
       <c r="J14">
-        <v>1.041680115899384</v>
+        <v>1.026870573045964</v>
       </c>
       <c r="K14">
-        <v>1.049017152647977</v>
+        <v>1.036660352565719</v>
       </c>
       <c r="L14">
-        <v>1.042541842389668</v>
+        <v>1.022502582958279</v>
       </c>
       <c r="M14">
-        <v>1.057025134574527</v>
+        <v>1.038677090060041</v>
       </c>
       <c r="N14">
-        <v>1.017803544798489</v>
+        <v>1.01263911649905</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035197837861356</v>
+        <v>0.997840623694113</v>
       </c>
       <c r="D15">
-        <v>1.045556065093372</v>
+        <v>1.022509548936068</v>
       </c>
       <c r="E15">
-        <v>1.039068569280594</v>
+        <v>1.008133628178028</v>
       </c>
       <c r="F15">
-        <v>1.05360681183885</v>
+        <v>1.024620977948032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043757051810214</v>
+        <v>1.048783015492945</v>
       </c>
       <c r="J15">
-        <v>1.041734949166289</v>
+        <v>1.027151877500399</v>
       </c>
       <c r="K15">
-        <v>1.049072487351369</v>
+        <v>1.036949454775443</v>
       </c>
       <c r="L15">
-        <v>1.042608609431395</v>
+        <v>1.02283268462392</v>
       </c>
       <c r="M15">
-        <v>1.057094371352642</v>
+        <v>1.039023615598967</v>
       </c>
       <c r="N15">
-        <v>1.01782196651047</v>
+        <v>1.012734187411077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035735604401436</v>
+        <v>1.000663932018671</v>
       </c>
       <c r="D16">
-        <v>1.045992213253129</v>
+        <v>1.024715360302275</v>
       </c>
       <c r="E16">
-        <v>1.039572496427686</v>
+        <v>1.010593410630122</v>
       </c>
       <c r="F16">
-        <v>1.054123282713604</v>
+        <v>1.027163121994818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043919951917929</v>
+        <v>1.049844322111625</v>
       </c>
       <c r="J16">
-        <v>1.042054078043792</v>
+        <v>1.028774531817088</v>
       </c>
       <c r="K16">
-        <v>1.04939448874277</v>
+        <v>1.038616852511042</v>
       </c>
       <c r="L16">
-        <v>1.042997324997224</v>
+        <v>1.024737872341444</v>
       </c>
       <c r="M16">
-        <v>1.057497426870172</v>
+        <v>1.041023376177915</v>
       </c>
       <c r="N16">
-        <v>1.01792916408356</v>
+        <v>1.013282572892458</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036073126125329</v>
+        <v>1.00241399546636</v>
       </c>
       <c r="D17">
-        <v>1.046265959241982</v>
+        <v>1.026083911111768</v>
       </c>
       <c r="E17">
-        <v>1.039888901971454</v>
+        <v>1.012120210231924</v>
       </c>
       <c r="F17">
-        <v>1.054447524956838</v>
+        <v>1.028740761481928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044021810218364</v>
+        <v>1.050499358582591</v>
       </c>
       <c r="J17">
-        <v>1.042254236690324</v>
+        <v>1.029779722420679</v>
       </c>
       <c r="K17">
-        <v>1.049596408600714</v>
+        <v>1.039649546069988</v>
       </c>
       <c r="L17">
-        <v>1.043241245178633</v>
+        <v>1.025919013959106</v>
       </c>
       <c r="M17">
-        <v>1.05775031123278</v>
+        <v>1.042262952805036</v>
       </c>
       <c r="N17">
-        <v>1.017996384126866</v>
+        <v>1.013622267537213</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036270066645036</v>
+        <v>1.003427423471481</v>
       </c>
       <c r="D18">
-        <v>1.046425688406422</v>
+        <v>1.026876844311393</v>
       </c>
       <c r="E18">
-        <v>1.040073565466345</v>
+        <v>1.013005082138264</v>
       </c>
       <c r="F18">
-        <v>1.054636748034785</v>
+        <v>1.029654994946455</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044081105206447</v>
+        <v>1.050877645230944</v>
       </c>
       <c r="J18">
-        <v>1.042370977372023</v>
+        <v>1.030361569287746</v>
       </c>
       <c r="K18">
-        <v>1.049714161893143</v>
+        <v>1.04024723300426</v>
       </c>
       <c r="L18">
-        <v>1.043383551387776</v>
+        <v>1.026603044343995</v>
       </c>
       <c r="M18">
-        <v>1.057897834932048</v>
+        <v>1.042980751703546</v>
       </c>
       <c r="N18">
-        <v>1.018035584311204</v>
+        <v>1.013818890440769</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036337230070125</v>
+        <v>1.003771745959302</v>
       </c>
       <c r="D19">
-        <v>1.046480161669854</v>
+        <v>1.027146322979614</v>
       </c>
       <c r="E19">
-        <v>1.040136549465846</v>
+        <v>1.01330584917125</v>
       </c>
       <c r="F19">
-        <v>1.054701284792977</v>
+        <v>1.029965724294223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044101303357046</v>
+        <v>1.051005995523948</v>
       </c>
       <c r="J19">
-        <v>1.042410781455555</v>
+        <v>1.030559215919898</v>
       </c>
       <c r="K19">
-        <v>1.049754308759156</v>
+        <v>1.040450246540432</v>
       </c>
       <c r="L19">
-        <v>1.043432079461443</v>
+        <v>1.02683545857377</v>
       </c>
       <c r="M19">
-        <v>1.057948140138171</v>
+        <v>1.043224626993742</v>
       </c>
       <c r="N19">
-        <v>1.018048949168602</v>
+        <v>1.013885679705519</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036036906007663</v>
+        <v>1.002226995029998</v>
       </c>
       <c r="D20">
-        <v>1.046236582901525</v>
+        <v>1.0259376314446</v>
       </c>
       <c r="E20">
-        <v>1.039854943313121</v>
+        <v>1.011956990111889</v>
       </c>
       <c r="F20">
-        <v>1.054412726676632</v>
+        <v>1.028572117070682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044010893907459</v>
+        <v>1.050429472389364</v>
       </c>
       <c r="J20">
-        <v>1.042232762429574</v>
+        <v>1.029672338855654</v>
       </c>
       <c r="K20">
-        <v>1.049574746895834</v>
+        <v>1.039539232610557</v>
       </c>
       <c r="L20">
-        <v>1.043215071563361</v>
+        <v>1.025792798921795</v>
       </c>
       <c r="M20">
-        <v>1.05772317699984</v>
+        <v>1.042130500989812</v>
       </c>
       <c r="N20">
-        <v>1.017989172890066</v>
+        <v>1.013585978950133</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035061347144356</v>
+        <v>0.9971171137279953</v>
       </c>
       <c r="D21">
-        <v>1.045445367430111</v>
+        <v>1.021944686711798</v>
       </c>
       <c r="E21">
-        <v>1.038940705268938</v>
+        <v>1.007503935573272</v>
       </c>
       <c r="F21">
-        <v>1.053475752949462</v>
+        <v>1.023970114432126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043715587846975</v>
+        <v>1.048510170852462</v>
       </c>
       <c r="J21">
-        <v>1.041653908428115</v>
+        <v>1.026735863687281</v>
       </c>
       <c r="K21">
-        <v>1.048990704707389</v>
+        <v>1.036521904950049</v>
       </c>
       <c r="L21">
-        <v>1.042509933525378</v>
+        <v>1.022344524650511</v>
       </c>
       <c r="M21">
-        <v>1.056992044706009</v>
+        <v>1.038511163919334</v>
       </c>
       <c r="N21">
-        <v>1.017794739879522</v>
+        <v>1.01259358931542</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0344486133268</v>
+        <v>0.9938340000989939</v>
       </c>
       <c r="D22">
-        <v>1.044948430773555</v>
+        <v>1.01938359224943</v>
       </c>
       <c r="E22">
-        <v>1.038366885784161</v>
+        <v>1.004649888551846</v>
       </c>
       <c r="F22">
-        <v>1.052887536193707</v>
+        <v>1.021019690371673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043528866225937</v>
+        <v>1.047267829360612</v>
       </c>
       <c r="J22">
-        <v>1.041289891636521</v>
+        <v>1.02484723109897</v>
       </c>
       <c r="K22">
-        <v>1.048623294292529</v>
+        <v>1.034580594130251</v>
       </c>
       <c r="L22">
-        <v>1.042066880293207</v>
+        <v>1.020129789632138</v>
       </c>
       <c r="M22">
-        <v>1.056532547956825</v>
+        <v>1.036185935468165</v>
       </c>
       <c r="N22">
-        <v>1.01767242194526</v>
+        <v>1.011955285227111</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034773374090908</v>
+        <v>0.9955813121251168</v>
       </c>
       <c r="D23">
-        <v>1.045211815318302</v>
+        <v>1.020746203641666</v>
       </c>
       <c r="E23">
-        <v>1.038670983152909</v>
+        <v>1.006168165689809</v>
       </c>
       <c r="F23">
-        <v>1.053199275512675</v>
+        <v>1.022589321950729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043627950258826</v>
+        <v>1.047929868101808</v>
       </c>
       <c r="J23">
-        <v>1.04148286991147</v>
+        <v>1.025852553268555</v>
       </c>
       <c r="K23">
-        <v>1.048818084037166</v>
+        <v>1.035614017893081</v>
       </c>
       <c r="L23">
-        <v>1.042301722766882</v>
+        <v>1.021308408763345</v>
       </c>
       <c r="M23">
-        <v>1.056776116885613</v>
+        <v>1.037423412673573</v>
       </c>
       <c r="N23">
-        <v>1.017737271500928</v>
+        <v>1.012295057595901</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036053272104218</v>
+        <v>1.002311515162813</v>
       </c>
       <c r="D24">
-        <v>1.046249856627023</v>
+        <v>1.026003745340747</v>
       </c>
       <c r="E24">
-        <v>1.039870287430978</v>
+        <v>1.012030759793994</v>
       </c>
       <c r="F24">
-        <v>1.054428450218801</v>
+        <v>1.028648338659419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04401582688079</v>
+        <v>1.050461062633167</v>
       </c>
       <c r="J24">
-        <v>1.042242465749964</v>
+        <v>1.029720874638777</v>
       </c>
       <c r="K24">
-        <v>1.04958453495951</v>
+        <v>1.039589092910676</v>
       </c>
       <c r="L24">
-        <v>1.043226898195705</v>
+        <v>1.025849845211061</v>
       </c>
       <c r="M24">
-        <v>1.05773543772847</v>
+        <v>1.042190366384997</v>
       </c>
       <c r="N24">
-        <v>1.017992431362744</v>
+        <v>1.013602380875931</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03754125578448</v>
+        <v>1.009834822370966</v>
       </c>
       <c r="D25">
-        <v>1.047456705532727</v>
+        <v>1.031897330670232</v>
       </c>
       <c r="E25">
-        <v>1.041266302312811</v>
+        <v>1.018612314746709</v>
       </c>
       <c r="F25">
-        <v>1.055858679364316</v>
+        <v>1.035446399213938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044461334478744</v>
+        <v>1.053250551306267</v>
       </c>
       <c r="J25">
-        <v>1.043123597950155</v>
+        <v>1.034035678834389</v>
       </c>
       <c r="K25">
-        <v>1.050473046153594</v>
+        <v>1.044019868591251</v>
       </c>
       <c r="L25">
-        <v>1.044301751077767</v>
+        <v>1.030928409336382</v>
       </c>
       <c r="M25">
-        <v>1.058849476114547</v>
+        <v>1.047518292243576</v>
       </c>
       <c r="N25">
-        <v>1.018288209658643</v>
+        <v>1.015060323292459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015623783758187</v>
+        <v>1.019097240194812</v>
       </c>
       <c r="D2">
-        <v>1.036443520745302</v>
+        <v>1.037280087333271</v>
       </c>
       <c r="E2">
-        <v>1.023697610658704</v>
+        <v>1.036792383026873</v>
       </c>
       <c r="F2">
-        <v>1.040695613200349</v>
+        <v>1.04355546672911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055363469019121</v>
+        <v>1.051061255899644</v>
       </c>
       <c r="J2">
-        <v>1.037347024942805</v>
+        <v>1.04072138272147</v>
       </c>
       <c r="K2">
-        <v>1.047417455217455</v>
+        <v>1.048243379664629</v>
       </c>
       <c r="L2">
-        <v>1.034836384440283</v>
+        <v>1.047761876940692</v>
       </c>
       <c r="M2">
-        <v>1.051615677410194</v>
+        <v>1.054439606980188</v>
       </c>
       <c r="N2">
-        <v>1.016178855848861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017319256556961</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051657602975</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045182508371921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019713266591082</v>
+        <v>1.022398872431956</v>
       </c>
       <c r="D3">
-        <v>1.039660689848248</v>
+        <v>1.039490768558372</v>
       </c>
       <c r="E3">
-        <v>1.027301461900571</v>
+        <v>1.039516950644966</v>
       </c>
       <c r="F3">
-        <v>1.044413608096832</v>
+        <v>1.046068307374415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056835984013337</v>
+        <v>1.051771974354921</v>
       </c>
       <c r="J3">
-        <v>1.039680582653925</v>
+        <v>1.042297002922396</v>
       </c>
       <c r="K3">
-        <v>1.049810059219258</v>
+        <v>1.049642112135006</v>
       </c>
       <c r="L3">
-        <v>1.037596537664918</v>
+        <v>1.049667989976864</v>
       </c>
       <c r="M3">
-        <v>1.054508077769637</v>
+        <v>1.05614380854704</v>
       </c>
       <c r="N3">
-        <v>1.01696683836144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017856667379208</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053006342580778</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046168873960899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022309496515006</v>
+        <v>1.024502512605454</v>
       </c>
       <c r="D4">
-        <v>1.041705447185445</v>
+        <v>1.040903450332848</v>
       </c>
       <c r="E4">
-        <v>1.029594479559746</v>
+        <v>1.041258585285227</v>
       </c>
       <c r="F4">
-        <v>1.046778292885445</v>
+        <v>1.047675687727959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05776127856552</v>
+        <v>1.052217781404691</v>
       </c>
       <c r="J4">
-        <v>1.041159241366766</v>
+        <v>1.043299550992926</v>
       </c>
       <c r="K4">
-        <v>1.051325290112834</v>
+        <v>1.050532052125866</v>
       </c>
       <c r="L4">
-        <v>1.039348378741158</v>
+        <v>1.050883306491755</v>
       </c>
       <c r="M4">
-        <v>1.056343114863701</v>
+        <v>1.057230844394339</v>
       </c>
       <c r="N4">
-        <v>1.017466000086619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018198558321442</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053866643486647</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046799013628719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023389378748374</v>
+        <v>1.025382051290009</v>
       </c>
       <c r="D5">
-        <v>1.042556465625567</v>
+        <v>1.041496932114268</v>
       </c>
       <c r="E5">
-        <v>1.030549435590107</v>
+        <v>1.041988586909386</v>
       </c>
       <c r="F5">
-        <v>1.047762862224348</v>
+        <v>1.048349814282699</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058143824737287</v>
+        <v>1.052403839272772</v>
       </c>
       <c r="J5">
-        <v>1.041773575965795</v>
+        <v>1.043719775344494</v>
       </c>
       <c r="K5">
-        <v>1.051954610855777</v>
+        <v>1.05090634240528</v>
       </c>
       <c r="L5">
-        <v>1.040076905018621</v>
+        <v>1.051392766393002</v>
       </c>
       <c r="M5">
-        <v>1.05710605720395</v>
+        <v>1.057686856188564</v>
       </c>
       <c r="N5">
-        <v>1.017673348082026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018342107346917</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.054227539628017</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047070766150994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023570027899741</v>
+        <v>1.025532702114475</v>
       </c>
       <c r="D6">
-        <v>1.042698858335669</v>
+        <v>1.04160090982915</v>
       </c>
       <c r="E6">
-        <v>1.030709255607098</v>
+        <v>1.042114284131516</v>
       </c>
       <c r="F6">
-        <v>1.047927624471286</v>
+        <v>1.048466075221847</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058207681808434</v>
+        <v>1.052437284084726</v>
       </c>
       <c r="J6">
-        <v>1.041876303458507</v>
+        <v>1.043793437220266</v>
       </c>
       <c r="K6">
-        <v>1.052059831861312</v>
+        <v>1.050973503710597</v>
       </c>
       <c r="L6">
-        <v>1.040198768254959</v>
+        <v>1.051481440885545</v>
       </c>
       <c r="M6">
-        <v>1.057233666504658</v>
+        <v>1.057766498496925</v>
       </c>
       <c r="N6">
-        <v>1.017708018002691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018367583964133</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054290570001562</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047126915854284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022323970932577</v>
+        <v>1.024523485979412</v>
       </c>
       <c r="D7">
-        <v>1.041716851990947</v>
+        <v>1.040923666829535</v>
       </c>
       <c r="E7">
-        <v>1.029607274832258</v>
+        <v>1.04127754719049</v>
       </c>
       <c r="F7">
-        <v>1.046791485866368</v>
+        <v>1.047693643952922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057766415318407</v>
+        <v>1.052226729725349</v>
       </c>
       <c r="J7">
-        <v>1.041167478532704</v>
+        <v>1.043314152601379</v>
       </c>
       <c r="K7">
-        <v>1.051333729048678</v>
+        <v>1.050549203314969</v>
       </c>
       <c r="L7">
-        <v>1.039358144274857</v>
+        <v>1.050899218262595</v>
       </c>
       <c r="M7">
-        <v>1.05635334245281</v>
+        <v>1.057245787504608</v>
       </c>
       <c r="N7">
-        <v>1.017468780417188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018204402133271</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053878469742345</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046831063403635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017016419733921</v>
+        <v>1.020231469930402</v>
       </c>
       <c r="D8">
-        <v>1.037538587571271</v>
+        <v>1.038046168700067</v>
       </c>
       <c r="E8">
-        <v>1.024923783918419</v>
+        <v>1.037729150947745</v>
       </c>
       <c r="F8">
-        <v>1.041960821183079</v>
+        <v>1.044419736527229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055866897721624</v>
+        <v>1.051312433727235</v>
       </c>
       <c r="J8">
-        <v>1.038142268953693</v>
+        <v>1.041268645908009</v>
       </c>
       <c r="K8">
-        <v>1.048232994241092</v>
+        <v>1.048734309401932</v>
       </c>
       <c r="L8">
-        <v>1.035776407022628</v>
+        <v>1.048421204263629</v>
       </c>
       <c r="M8">
-        <v>1.0526008914555</v>
+        <v>1.055029841224498</v>
       </c>
       <c r="N8">
-        <v>1.016447417517395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017507045879649</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052124726573476</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045552329309209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007263278030972</v>
+        <v>1.012393421323453</v>
       </c>
       <c r="D9">
-        <v>1.029880941289006</v>
+        <v>1.032815693312295</v>
       </c>
       <c r="E9">
-        <v>1.016359264659559</v>
+        <v>1.031292468497181</v>
       </c>
       <c r="F9">
-        <v>1.033119752600619</v>
+        <v>1.038489076222649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052302258861444</v>
+        <v>1.04958130173566</v>
       </c>
       <c r="J9">
-        <v>1.032562132828972</v>
+        <v>1.037516000595959</v>
       </c>
       <c r="K9">
-        <v>1.042507134650507</v>
+        <v>1.045397885502873</v>
       </c>
       <c r="L9">
-        <v>1.029192385196285</v>
+        <v>1.043897458842298</v>
       </c>
       <c r="M9">
-        <v>1.045697404164556</v>
+        <v>1.050987102127973</v>
       </c>
       <c r="N9">
-        <v>1.014562468555001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016225869726801</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048925213329273</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043190152799907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000465149617828</v>
+        <v>1.0070349880276</v>
       </c>
       <c r="D10">
-        <v>1.02455997248816</v>
+        <v>1.029284455447506</v>
       </c>
       <c r="E10">
-        <v>1.010420088554307</v>
+        <v>1.026950335404001</v>
       </c>
       <c r="F10">
-        <v>1.02698401464363</v>
+        <v>1.034526723180065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049769779643264</v>
+        <v>1.048382939225065</v>
       </c>
       <c r="J10">
-        <v>1.028660324634509</v>
+        <v>1.034972242733206</v>
       </c>
       <c r="K10">
-        <v>1.038499509826537</v>
+        <v>1.043144361823978</v>
       </c>
       <c r="L10">
-        <v>1.024603719713789</v>
+        <v>1.040849465162246</v>
       </c>
       <c r="M10">
-        <v>1.040882576808819</v>
+        <v>1.048299366986384</v>
       </c>
       <c r="N10">
-        <v>1.013243976825865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015361652413849</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04684899378599</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041613468537586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974448634590927</v>
+        <v>1.005106622875665</v>
       </c>
       <c r="D11">
-        <v>1.022200548402785</v>
+        <v>1.028171095754845</v>
       </c>
       <c r="E11">
-        <v>1.007789152919079</v>
+        <v>1.025600631735075</v>
       </c>
       <c r="F11">
-        <v>1.024264925352594</v>
+        <v>1.033554730038851</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048633812315398</v>
+        <v>1.048098785583277</v>
       </c>
       <c r="J11">
-        <v>1.026924326784803</v>
+        <v>1.034268492716143</v>
       </c>
       <c r="K11">
-        <v>1.036715597259145</v>
+        <v>1.042580607767284</v>
       </c>
       <c r="L11">
-        <v>1.022565657127212</v>
+        <v>1.040055384562354</v>
       </c>
       <c r="M11">
-        <v>1.03874330325307</v>
+        <v>1.047870432176919</v>
       </c>
       <c r="N11">
-        <v>1.012657283399064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015158561432587</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04694153221863</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041247447684243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963108939057103</v>
+        <v>1.004546342786884</v>
       </c>
       <c r="D12">
-        <v>1.021315447938524</v>
+        <v>1.027913020001073</v>
       </c>
       <c r="E12">
-        <v>1.006802572844539</v>
+        <v>1.025301284256517</v>
       </c>
       <c r="F12">
-        <v>1.023245130894424</v>
+        <v>1.033472411511452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048205730436253</v>
+        <v>1.048083545413205</v>
       </c>
       <c r="J12">
-        <v>1.026272208121415</v>
+        <v>1.034159531784477</v>
       </c>
       <c r="K12">
-        <v>1.036045362683507</v>
+        <v>1.04252430161247</v>
       </c>
       <c r="L12">
-        <v>1.021800596521435</v>
+        <v>1.039959291166118</v>
       </c>
       <c r="M12">
-        <v>1.037940141597931</v>
+        <v>1.047985252002111</v>
       </c>
       <c r="N12">
-        <v>1.012436888577159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015150282009408</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047355864127108</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041207638035195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9965546916071487</v>
+        <v>1.005013421105096</v>
       </c>
       <c r="D13">
-        <v>1.021505705290354</v>
+        <v>1.028311420987366</v>
       </c>
       <c r="E13">
-        <v>1.007014627240441</v>
+        <v>1.025803484225869</v>
       </c>
       <c r="F13">
-        <v>1.023464331386509</v>
+        <v>1.034088748098556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048297836593244</v>
+        <v>1.04828644765399</v>
       </c>
       <c r="J13">
-        <v>1.026412424899087</v>
+        <v>1.034515258212358</v>
       </c>
       <c r="K13">
-        <v>1.036189479843481</v>
+        <v>1.042873318903782</v>
       </c>
       <c r="L13">
-        <v>1.021965074006252</v>
+        <v>1.040410049892517</v>
       </c>
       <c r="M13">
-        <v>1.038112815049617</v>
+        <v>1.048548816578989</v>
       </c>
       <c r="N13">
-        <v>1.012484277501076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015297353294176</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048075961201516</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041451929296912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973513795459565</v>
+        <v>1.005807113455371</v>
       </c>
       <c r="D14">
-        <v>1.022127565589337</v>
+        <v>1.028889507961363</v>
       </c>
       <c r="E14">
-        <v>1.007707794905297</v>
+        <v>1.026519070128824</v>
       </c>
       <c r="F14">
-        <v>1.024180831498514</v>
+        <v>1.034837780122949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048598553339038</v>
+        <v>1.048527849050537</v>
       </c>
       <c r="J14">
-        <v>1.026870573045964</v>
+        <v>1.034975601279763</v>
       </c>
       <c r="K14">
-        <v>1.036660352565719</v>
+        <v>1.043302710644178</v>
       </c>
       <c r="L14">
-        <v>1.022502582958279</v>
+        <v>1.040973961240956</v>
       </c>
       <c r="M14">
-        <v>1.038677090060041</v>
+        <v>1.049147459457487</v>
       </c>
       <c r="N14">
-        <v>1.01263911649905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01547107324629</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048721305661229</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041756930876341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.997840623694113</v>
+        <v>1.006228558741998</v>
       </c>
       <c r="D15">
-        <v>1.022509548936068</v>
+        <v>1.029180208242183</v>
       </c>
       <c r="E15">
-        <v>1.008133628178028</v>
+        <v>1.026875580785242</v>
       </c>
       <c r="F15">
-        <v>1.024620977948032</v>
+        <v>1.035184377466012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048783015492945</v>
+        <v>1.048638023246366</v>
       </c>
       <c r="J15">
-        <v>1.027151877500399</v>
+        <v>1.035194963001226</v>
       </c>
       <c r="K15">
-        <v>1.036949454775443</v>
+        <v>1.043503047564791</v>
       </c>
       <c r="L15">
-        <v>1.02283268462392</v>
+        <v>1.041238642322086</v>
       </c>
       <c r="M15">
-        <v>1.039023615598967</v>
+        <v>1.0494035141879</v>
       </c>
       <c r="N15">
-        <v>1.012734187411077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015549580668874</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048960991767343</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041904393404577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000663932018671</v>
+        <v>1.008404640615234</v>
       </c>
       <c r="D16">
-        <v>1.024715360302275</v>
+        <v>1.030600937768544</v>
       </c>
       <c r="E16">
-        <v>1.010593410630122</v>
+        <v>1.028620080212158</v>
       </c>
       <c r="F16">
-        <v>1.027163121994818</v>
+        <v>1.036765219130287</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049844322111625</v>
+        <v>1.049120072845048</v>
       </c>
       <c r="J16">
-        <v>1.028774531817088</v>
+        <v>1.036212991609114</v>
       </c>
       <c r="K16">
-        <v>1.038616852511042</v>
+        <v>1.044403700289974</v>
       </c>
       <c r="L16">
-        <v>1.024737872341444</v>
+        <v>1.042455908759225</v>
       </c>
       <c r="M16">
-        <v>1.041023376177915</v>
+        <v>1.050466122113194</v>
       </c>
       <c r="N16">
-        <v>1.013282572892458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015890700570278</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049762413652391</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042544317073528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00241399546636</v>
+        <v>1.009660178929521</v>
       </c>
       <c r="D17">
-        <v>1.026083911111768</v>
+        <v>1.031389469913112</v>
       </c>
       <c r="E17">
-        <v>1.012120210231924</v>
+        <v>1.029584642057818</v>
       </c>
       <c r="F17">
-        <v>1.028740761481928</v>
+        <v>1.037582817378833</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050499358582591</v>
+        <v>1.049361358353023</v>
       </c>
       <c r="J17">
-        <v>1.029779722420679</v>
+        <v>1.036752126228361</v>
       </c>
       <c r="K17">
-        <v>1.039649546069988</v>
+        <v>1.04486863678528</v>
       </c>
       <c r="L17">
-        <v>1.025919013959106</v>
+        <v>1.043093094890662</v>
       </c>
       <c r="M17">
-        <v>1.042262952805036</v>
+        <v>1.050962481065032</v>
       </c>
       <c r="N17">
-        <v>1.013622267537213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016061038704952</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05002660770388</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042875606029504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003427423471481</v>
+        <v>1.010229679571237</v>
       </c>
       <c r="D18">
-        <v>1.026876844311393</v>
+        <v>1.031687207222149</v>
       </c>
       <c r="E18">
-        <v>1.013005082138264</v>
+        <v>1.029944230219844</v>
       </c>
       <c r="F18">
-        <v>1.029654994946455</v>
+        <v>1.037782197423334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050877645230944</v>
+        <v>1.049407983163538</v>
       </c>
       <c r="J18">
-        <v>1.030361569287746</v>
+        <v>1.036911715627028</v>
       </c>
       <c r="K18">
-        <v>1.04024723300426</v>
+        <v>1.044980510880113</v>
       </c>
       <c r="L18">
-        <v>1.026603044343995</v>
+        <v>1.04326535805718</v>
       </c>
       <c r="M18">
-        <v>1.042980751703546</v>
+        <v>1.050979143267293</v>
       </c>
       <c r="N18">
-        <v>1.013818890440769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016093086132515</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049803957248991</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042943169738167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003771745959302</v>
+        <v>1.010192894315181</v>
       </c>
       <c r="D19">
-        <v>1.027146322979614</v>
+        <v>1.031559994650092</v>
       </c>
       <c r="E19">
-        <v>1.01330584917125</v>
+        <v>1.0297687073218</v>
       </c>
       <c r="F19">
-        <v>1.029965724294223</v>
+        <v>1.03743324033042</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051005995523948</v>
+        <v>1.049291258437768</v>
       </c>
       <c r="J19">
-        <v>1.030559215919898</v>
+        <v>1.036743870633501</v>
       </c>
       <c r="K19">
-        <v>1.040450246540432</v>
+        <v>1.044793579176174</v>
       </c>
       <c r="L19">
-        <v>1.02683545857377</v>
+        <v>1.043030745768324</v>
       </c>
       <c r="M19">
-        <v>1.043224626993742</v>
+        <v>1.050574411929037</v>
       </c>
       <c r="N19">
-        <v>1.013885679705519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016008836445024</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049161337356151</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042817344703854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002226995029998</v>
+        <v>1.008446285686692</v>
       </c>
       <c r="D20">
-        <v>1.0259376314446</v>
+        <v>1.030228594649343</v>
       </c>
       <c r="E20">
-        <v>1.011956990111889</v>
+        <v>1.028097045792165</v>
       </c>
       <c r="F20">
-        <v>1.028572117070682</v>
+        <v>1.035575440313038</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050429472389364</v>
+        <v>1.048713074414414</v>
       </c>
       <c r="J20">
-        <v>1.029672338855654</v>
+        <v>1.035655455492261</v>
       </c>
       <c r="K20">
-        <v>1.039539232610557</v>
+        <v>1.043759950399745</v>
       </c>
       <c r="L20">
-        <v>1.025792798921795</v>
+        <v>1.041663201944075</v>
       </c>
       <c r="M20">
-        <v>1.042130500989812</v>
+        <v>1.049020310314174</v>
       </c>
       <c r="N20">
-        <v>1.013585978950133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015596491135821</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047409095016544</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042090428472237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9971171137279953</v>
+        <v>1.004350571879354</v>
       </c>
       <c r="D21">
-        <v>1.021944686711798</v>
+        <v>1.027507232071674</v>
       </c>
       <c r="E21">
-        <v>1.007503935573272</v>
+        <v>1.02474966597454</v>
       </c>
       <c r="F21">
-        <v>1.023970114432126</v>
+        <v>1.032472525141029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048510170852462</v>
+        <v>1.047754424478603</v>
       </c>
       <c r="J21">
-        <v>1.026735863687281</v>
+        <v>1.033667516935256</v>
       </c>
       <c r="K21">
-        <v>1.036521904950049</v>
+        <v>1.041985561452424</v>
       </c>
       <c r="L21">
-        <v>1.022344524650511</v>
+        <v>1.039276844194947</v>
       </c>
       <c r="M21">
-        <v>1.038511163919334</v>
+        <v>1.046863748873759</v>
       </c>
       <c r="N21">
-        <v>1.01259358931542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014914325366899</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045661886064678</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040839086509311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9938340000989939</v>
+        <v>1.001748090546523</v>
       </c>
       <c r="D22">
-        <v>1.01938359224943</v>
+        <v>1.02578695786578</v>
       </c>
       <c r="E22">
-        <v>1.004649888551846</v>
+        <v>1.022641138231663</v>
       </c>
       <c r="F22">
-        <v>1.021019690371673</v>
+        <v>1.030535156616712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047267829360612</v>
+        <v>1.047143213081605</v>
       </c>
       <c r="J22">
-        <v>1.02484723109897</v>
+        <v>1.032411749299619</v>
       </c>
       <c r="K22">
-        <v>1.034580594130251</v>
+        <v>1.040864313229582</v>
       </c>
       <c r="L22">
-        <v>1.020129789632138</v>
+        <v>1.037777028677506</v>
       </c>
       <c r="M22">
-        <v>1.036185935468165</v>
+        <v>1.045525042281811</v>
       </c>
       <c r="N22">
-        <v>1.011955285227111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014484339606897</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044602396306243</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040032928204332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9955813121251168</v>
+        <v>1.003123206163764</v>
       </c>
       <c r="D23">
-        <v>1.020746203641666</v>
+        <v>1.026689984108908</v>
       </c>
       <c r="E23">
-        <v>1.006168165689809</v>
+        <v>1.023752994410708</v>
       </c>
       <c r="F23">
-        <v>1.022589321950729</v>
+        <v>1.031556307184071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047929868101808</v>
+        <v>1.047462853077811</v>
       </c>
       <c r="J23">
-        <v>1.025852553268555</v>
+        <v>1.033071163489898</v>
       </c>
       <c r="K23">
-        <v>1.035614017893081</v>
+        <v>1.04144960977236</v>
       </c>
       <c r="L23">
-        <v>1.021308408763345</v>
+        <v>1.038565874796549</v>
       </c>
       <c r="M23">
-        <v>1.037423412673573</v>
+        <v>1.046228561257546</v>
       </c>
       <c r="N23">
-        <v>1.012295057595901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014709192465338</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045159181048854</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040437193473218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002311515162813</v>
+        <v>1.00845837871768</v>
       </c>
       <c r="D24">
-        <v>1.026003745340747</v>
+        <v>1.030213942170134</v>
       </c>
       <c r="E24">
-        <v>1.012030759793994</v>
+        <v>1.02808447425771</v>
       </c>
       <c r="F24">
-        <v>1.028648338659419</v>
+        <v>1.035537833914018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050461062633167</v>
+        <v>1.048695175049207</v>
       </c>
       <c r="J24">
-        <v>1.029720874638777</v>
+        <v>1.035634673587167</v>
       </c>
       <c r="K24">
-        <v>1.039589092910676</v>
+        <v>1.043730459109385</v>
       </c>
       <c r="L24">
-        <v>1.025849845211061</v>
+        <v>1.041635714354337</v>
       </c>
       <c r="M24">
-        <v>1.042190366384997</v>
+        <v>1.048968340791127</v>
       </c>
       <c r="N24">
-        <v>1.013602380875931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015584836437365</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047327515756661</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042042398660009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009834822370966</v>
+        <v>1.014466787972983</v>
       </c>
       <c r="D25">
-        <v>1.031897330670232</v>
+        <v>1.03420450570004</v>
       </c>
       <c r="E25">
-        <v>1.018612314746709</v>
+        <v>1.032992132870439</v>
       </c>
       <c r="F25">
-        <v>1.035446399213938</v>
+        <v>1.040054669827926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053250551306267</v>
+        <v>1.050052405715588</v>
       </c>
       <c r="J25">
-        <v>1.034035678834389</v>
+        <v>1.038516906466091</v>
       </c>
       <c r="K25">
-        <v>1.044019868591251</v>
+        <v>1.046294070418244</v>
       </c>
       <c r="L25">
-        <v>1.030928409336382</v>
+        <v>1.045099001083822</v>
       </c>
       <c r="M25">
-        <v>1.047518292243576</v>
+        <v>1.052061454810924</v>
       </c>
       <c r="N25">
-        <v>1.015060323292459</v>
+        <v>1.01656911014419</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049775481170629</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043852136995726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019097240194812</v>
+        <v>1.018118254445054</v>
       </c>
       <c r="D2">
-        <v>1.037280087333271</v>
+        <v>1.035655889466489</v>
       </c>
       <c r="E2">
-        <v>1.036792383026873</v>
+        <v>1.035775910578403</v>
       </c>
       <c r="F2">
-        <v>1.04355546672911</v>
+        <v>1.042455280359064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051061255899644</v>
+        <v>1.050341291710529</v>
       </c>
       <c r="J2">
-        <v>1.04072138272147</v>
+        <v>1.039770234077737</v>
       </c>
       <c r="K2">
-        <v>1.048243379664629</v>
+        <v>1.046639863194054</v>
       </c>
       <c r="L2">
-        <v>1.047761876940692</v>
+        <v>1.046758353268684</v>
       </c>
       <c r="M2">
-        <v>1.054439606980188</v>
+        <v>1.053353211475054</v>
       </c>
       <c r="N2">
-        <v>1.017319256556961</v>
+        <v>1.017634705004665</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051657602975</v>
+        <v>1.050797806323861</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045182508371921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044057401861899</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024376797704199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022398872431956</v>
+        <v>1.021311825688562</v>
       </c>
       <c r="D3">
-        <v>1.039490768558372</v>
+        <v>1.037725141758681</v>
       </c>
       <c r="E3">
-        <v>1.039516950644966</v>
+        <v>1.03839256099809</v>
       </c>
       <c r="F3">
-        <v>1.046068307374415</v>
+        <v>1.04486371547915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051771974354921</v>
+        <v>1.050980346174743</v>
       </c>
       <c r="J3">
-        <v>1.042297002922396</v>
+        <v>1.041237900956883</v>
       </c>
       <c r="K3">
-        <v>1.049642112135006</v>
+        <v>1.047897046331394</v>
       </c>
       <c r="L3">
-        <v>1.049667989976864</v>
+        <v>1.048556683206477</v>
       </c>
       <c r="M3">
-        <v>1.05614380854704</v>
+        <v>1.054953018042371</v>
       </c>
       <c r="N3">
-        <v>1.017856667379208</v>
+        <v>1.018031916850783</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053006342580778</v>
+        <v>1.052063927133372</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046168873960899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044943407868122</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024618102877523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024502512605454</v>
+        <v>1.023347274042758</v>
       </c>
       <c r="D4">
-        <v>1.040903450332848</v>
+        <v>1.039048125052565</v>
       </c>
       <c r="E4">
-        <v>1.041258585285227</v>
+        <v>1.040065971211251</v>
       </c>
       <c r="F4">
-        <v>1.047675687727959</v>
+        <v>1.046405012783254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052217781404691</v>
+        <v>1.051380687276797</v>
       </c>
       <c r="J4">
-        <v>1.043299550992926</v>
+        <v>1.042172039365999</v>
       </c>
       <c r="K4">
-        <v>1.050532052125866</v>
+        <v>1.048697053100692</v>
       </c>
       <c r="L4">
-        <v>1.050883306491755</v>
+        <v>1.049703737087943</v>
       </c>
       <c r="M4">
-        <v>1.057230844394339</v>
+        <v>1.055973861127119</v>
       </c>
       <c r="N4">
-        <v>1.018198558321442</v>
+        <v>1.018284737542764</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053866643486647</v>
+        <v>1.052871842862101</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046799013628719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045510041755593</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024769436064778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025382051290009</v>
+        <v>1.024198453008742</v>
       </c>
       <c r="D5">
-        <v>1.041496932114268</v>
+        <v>1.039604252430609</v>
       </c>
       <c r="E5">
-        <v>1.041988586909386</v>
+        <v>1.040767579596506</v>
       </c>
       <c r="F5">
-        <v>1.048349814282699</v>
+        <v>1.047051632061579</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052403839272772</v>
+        <v>1.051547793054614</v>
       </c>
       <c r="J5">
-        <v>1.043719775344494</v>
+        <v>1.042563751786963</v>
       </c>
       <c r="K5">
-        <v>1.05090634240528</v>
+        <v>1.049033855854439</v>
       </c>
       <c r="L5">
-        <v>1.051392766393002</v>
+        <v>1.050184760751339</v>
       </c>
       <c r="M5">
-        <v>1.057686856188564</v>
+        <v>1.056402294233505</v>
       </c>
       <c r="N5">
-        <v>1.018342107346917</v>
+        <v>1.018390955895613</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054227539628017</v>
+        <v>1.053210913172746</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047070766150994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04575599870756</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024833063279733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025532702114475</v>
+        <v>1.024344254591323</v>
       </c>
       <c r="D6">
-        <v>1.04160090982915</v>
+        <v>1.039701900557335</v>
       </c>
       <c r="E6">
-        <v>1.042114284131516</v>
+        <v>1.040888429023002</v>
       </c>
       <c r="F6">
-        <v>1.048466075221847</v>
+        <v>1.047163211711559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052437284084726</v>
+        <v>1.051578007678401</v>
       </c>
       <c r="J6">
-        <v>1.043793437220266</v>
+        <v>1.042632537679642</v>
       </c>
       <c r="K6">
-        <v>1.050973503710597</v>
+        <v>1.049094663894485</v>
       </c>
       <c r="L6">
-        <v>1.051481440885545</v>
+        <v>1.050268579636096</v>
       </c>
       <c r="M6">
-        <v>1.057766498496925</v>
+        <v>1.056477242552137</v>
       </c>
       <c r="N6">
-        <v>1.018367583964133</v>
+        <v>1.01840985486228</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054290570001562</v>
+        <v>1.05327022871721</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047126915854284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045808524100174</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024845072891835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024523485979412</v>
+        <v>1.02337422636645</v>
       </c>
       <c r="D7">
-        <v>1.040923666829535</v>
+        <v>1.039072453019805</v>
       </c>
       <c r="E7">
-        <v>1.04127754719049</v>
+        <v>1.04009032600919</v>
       </c>
       <c r="F7">
-        <v>1.047693643952922</v>
+        <v>1.046427184727284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052226729725349</v>
+        <v>1.051392442748899</v>
       </c>
       <c r="J7">
-        <v>1.043314152601379</v>
+        <v>1.042192464661057</v>
       </c>
       <c r="K7">
-        <v>1.050549203314969</v>
+        <v>1.048718262905587</v>
       </c>
       <c r="L7">
-        <v>1.050899218262595</v>
+        <v>1.049724977783562</v>
       </c>
       <c r="M7">
-        <v>1.057245787504608</v>
+        <v>1.055992969361013</v>
       </c>
       <c r="N7">
-        <v>1.018204402133271</v>
+        <v>1.018316688841876</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053878469742345</v>
+        <v>1.052886965494076</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046831063403635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045546957844079</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024775527728247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020231469930402</v>
+        <v>1.019235699358954</v>
       </c>
       <c r="D8">
-        <v>1.038046168700067</v>
+        <v>1.036388423850477</v>
       </c>
       <c r="E8">
-        <v>1.037729150947745</v>
+        <v>1.036694109268725</v>
       </c>
       <c r="F8">
-        <v>1.044419736527229</v>
+        <v>1.043298479543018</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051312433727235</v>
+        <v>1.050577802409865</v>
       </c>
       <c r="J8">
-        <v>1.041268645908009</v>
+        <v>1.040300257838915</v>
       </c>
       <c r="K8">
-        <v>1.048734309401932</v>
+        <v>1.04709705729491</v>
       </c>
       <c r="L8">
-        <v>1.048421204263629</v>
+        <v>1.04739895774922</v>
       </c>
       <c r="M8">
-        <v>1.055029841224498</v>
+        <v>1.053922226666343</v>
       </c>
       <c r="N8">
-        <v>1.017507045879649</v>
+        <v>1.017857287289006</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052124726573476</v>
+        <v>1.051248137245853</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045552329309209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044405634751791</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024468663403154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012393421323453</v>
+        <v>1.011661338199049</v>
       </c>
       <c r="D9">
-        <v>1.032815693312295</v>
+        <v>1.031498313101102</v>
       </c>
       <c r="E9">
-        <v>1.031292468497181</v>
+        <v>1.030519584167645</v>
       </c>
       <c r="F9">
-        <v>1.038489076222649</v>
+        <v>1.037620529970265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04958130173566</v>
+        <v>1.049019452011458</v>
       </c>
       <c r="J9">
-        <v>1.037516000595959</v>
+        <v>1.036808919872691</v>
       </c>
       <c r="K9">
-        <v>1.045397885502873</v>
+        <v>1.044100217556265</v>
       </c>
       <c r="L9">
-        <v>1.043897458842298</v>
+        <v>1.043136175105059</v>
       </c>
       <c r="M9">
-        <v>1.050987102127973</v>
+        <v>1.050131365211811</v>
       </c>
       <c r="N9">
-        <v>1.016225869726801</v>
+        <v>1.016921150395659</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048925213329273</v>
+        <v>1.048247962423091</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043190152799907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042283278658674</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023879686642651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0070349880276</v>
+        <v>1.00651421245819</v>
       </c>
       <c r="D10">
-        <v>1.029284455447506</v>
+        <v>1.028221002530054</v>
       </c>
       <c r="E10">
-        <v>1.026950335404001</v>
+        <v>1.026384014485359</v>
       </c>
       <c r="F10">
-        <v>1.034526723180065</v>
+        <v>1.033852784122623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048382939225065</v>
+        <v>1.047952984834391</v>
       </c>
       <c r="J10">
-        <v>1.034972242733206</v>
+        <v>1.034471738284597</v>
       </c>
       <c r="K10">
-        <v>1.043144361823978</v>
+        <v>1.042098751072036</v>
       </c>
       <c r="L10">
-        <v>1.040849465162246</v>
+        <v>1.040292695594273</v>
       </c>
       <c r="M10">
-        <v>1.048299366986384</v>
+        <v>1.047636582477939</v>
       </c>
       <c r="N10">
-        <v>1.015361652413849</v>
+        <v>1.016407985064232</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04684899378599</v>
+        <v>1.046324480732967</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041613468537586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040886486025165</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023483273079149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005106622875665</v>
+        <v>1.004685779135952</v>
       </c>
       <c r="D11">
-        <v>1.028171095754845</v>
+        <v>1.027208218788625</v>
       </c>
       <c r="E11">
-        <v>1.025600631735075</v>
+        <v>1.025128516136479</v>
       </c>
       <c r="F11">
-        <v>1.033554730038851</v>
+        <v>1.032965186117956</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048098785583277</v>
+        <v>1.047723471783444</v>
       </c>
       <c r="J11">
-        <v>1.034268492716143</v>
+        <v>1.033864915149949</v>
       </c>
       <c r="K11">
-        <v>1.042580607767284</v>
+        <v>1.041634643301935</v>
       </c>
       <c r="L11">
-        <v>1.040055384562354</v>
+        <v>1.039591610302466</v>
       </c>
       <c r="M11">
-        <v>1.047870432176919</v>
+        <v>1.047291099369628</v>
       </c>
       <c r="N11">
-        <v>1.015158561432587</v>
+        <v>1.016497684369627</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04694153221863</v>
+        <v>1.046483287200666</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041247447684243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040594129541133</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023436130932052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004546342786884</v>
+        <v>1.004150317941346</v>
       </c>
       <c r="D12">
-        <v>1.027913020001073</v>
+        <v>1.026972056586318</v>
       </c>
       <c r="E12">
-        <v>1.025301284256517</v>
+        <v>1.02485192887437</v>
       </c>
       <c r="F12">
-        <v>1.033472411511452</v>
+        <v>1.032902835741455</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048083545413205</v>
+        <v>1.047719639298376</v>
       </c>
       <c r="J12">
-        <v>1.034159531784477</v>
+        <v>1.033780061599863</v>
       </c>
       <c r="K12">
-        <v>1.04252430161247</v>
+        <v>1.041600136953295</v>
       </c>
       <c r="L12">
-        <v>1.039959291166118</v>
+        <v>1.039518006183797</v>
       </c>
       <c r="M12">
-        <v>1.047985252002111</v>
+        <v>1.047425698649432</v>
       </c>
       <c r="N12">
-        <v>1.015150282009408</v>
+        <v>1.016596263423441</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047355864127108</v>
+        <v>1.046913411638777</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041207638035195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040569733282295</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023461691175674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005013421105096</v>
+        <v>1.004576125679706</v>
       </c>
       <c r="D13">
-        <v>1.028311420987366</v>
+        <v>1.027325908444944</v>
       </c>
       <c r="E13">
-        <v>1.025803484225869</v>
+        <v>1.025314500409179</v>
       </c>
       <c r="F13">
-        <v>1.034088748098556</v>
+        <v>1.033483709436707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04828644765399</v>
+        <v>1.047896733499635</v>
       </c>
       <c r="J13">
-        <v>1.034515258212358</v>
+        <v>1.034096152840906</v>
       </c>
       <c r="K13">
-        <v>1.042873318903782</v>
+        <v>1.041905325127009</v>
       </c>
       <c r="L13">
-        <v>1.040410049892517</v>
+        <v>1.039929808209562</v>
       </c>
       <c r="M13">
-        <v>1.048548816578989</v>
+        <v>1.047954372997328</v>
       </c>
       <c r="N13">
-        <v>1.015297353294176</v>
+        <v>1.016677044275638</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048075961201516</v>
+        <v>1.047606036546788</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041451929296912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04078279003358</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023549425762574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005807113455371</v>
+        <v>1.005311608406602</v>
       </c>
       <c r="D14">
-        <v>1.028889507961363</v>
+        <v>1.027843278326995</v>
       </c>
       <c r="E14">
-        <v>1.026519070128824</v>
+        <v>1.0259746449969</v>
       </c>
       <c r="F14">
-        <v>1.034837780122949</v>
+        <v>1.034183322302232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048527849050537</v>
+        <v>1.048103665712784</v>
       </c>
       <c r="J14">
-        <v>1.034975601279763</v>
+        <v>1.034500416467882</v>
       </c>
       <c r="K14">
-        <v>1.043302710644178</v>
+        <v>1.042274850122525</v>
       </c>
       <c r="L14">
-        <v>1.040973961240956</v>
+        <v>1.040439146084218</v>
       </c>
       <c r="M14">
-        <v>1.049147459457487</v>
+        <v>1.048504316347966</v>
       </c>
       <c r="N14">
-        <v>1.01547107324629</v>
+        <v>1.016727097324657</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048721305661229</v>
+        <v>1.048212950497758</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041756930876341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041045598126011</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023639659766117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006228558741998</v>
+        <v>1.005704979530089</v>
       </c>
       <c r="D15">
-        <v>1.029180208242183</v>
+        <v>1.028104984863281</v>
       </c>
       <c r="E15">
-        <v>1.026875580785242</v>
+        <v>1.026304478091418</v>
       </c>
       <c r="F15">
-        <v>1.035184377466012</v>
+        <v>1.034506139733066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048638023246366</v>
+        <v>1.048197600079557</v>
       </c>
       <c r="J15">
-        <v>1.035194963001226</v>
+        <v>1.034692670648213</v>
       </c>
       <c r="K15">
-        <v>1.043503047564791</v>
+        <v>1.042446560790671</v>
       </c>
       <c r="L15">
-        <v>1.041238642322086</v>
+        <v>1.040677543158701</v>
       </c>
       <c r="M15">
-        <v>1.0494035141879</v>
+        <v>1.0487369128617</v>
       </c>
       <c r="N15">
-        <v>1.015549580668874</v>
+        <v>1.016740141778967</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048960991767343</v>
+        <v>1.048434108438331</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041904393404577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041173389802669</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023677586966238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008404640615234</v>
+        <v>1.007755320736401</v>
       </c>
       <c r="D16">
-        <v>1.030600937768544</v>
+        <v>1.029394505835409</v>
       </c>
       <c r="E16">
-        <v>1.028620080212158</v>
+        <v>1.027929319891467</v>
       </c>
       <c r="F16">
-        <v>1.036765219130287</v>
+        <v>1.035979603495331</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049120072845048</v>
+        <v>1.048607863800802</v>
       </c>
       <c r="J16">
-        <v>1.036212991609114</v>
+        <v>1.035588773590192</v>
       </c>
       <c r="K16">
-        <v>1.044403700289974</v>
+        <v>1.043217387542043</v>
       </c>
       <c r="L16">
-        <v>1.042455908759225</v>
+        <v>1.041776717781227</v>
       </c>
       <c r="M16">
-        <v>1.050466122113194</v>
+        <v>1.049693401431853</v>
       </c>
       <c r="N16">
-        <v>1.015890700570278</v>
+        <v>1.016772533649021</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049762413652391</v>
+        <v>1.049151636108941</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042544317073528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041721822960392</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023825705353334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009660178929521</v>
+        <v>1.008952318235792</v>
       </c>
       <c r="D17">
-        <v>1.031389469913112</v>
+        <v>1.030119536350962</v>
       </c>
       <c r="E17">
-        <v>1.029584642057818</v>
+        <v>1.028837806399046</v>
       </c>
       <c r="F17">
-        <v>1.037582817378833</v>
+        <v>1.036746020259938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049361358353023</v>
+        <v>1.048815513428156</v>
       </c>
       <c r="J17">
-        <v>1.036752126228361</v>
+        <v>1.036070766401967</v>
       </c>
       <c r="K17">
-        <v>1.04486863678528</v>
+        <v>1.043619296002153</v>
       </c>
       <c r="L17">
-        <v>1.043093094890662</v>
+        <v>1.04235841634422</v>
       </c>
       <c r="M17">
-        <v>1.050962481065032</v>
+        <v>1.050139038998787</v>
       </c>
       <c r="N17">
-        <v>1.016061038704952</v>
+        <v>1.016799653768844</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05002660770388</v>
+        <v>1.049375674639383</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042875606029504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042008797346108</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023892617425992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010229679571237</v>
+        <v>1.009507012163208</v>
       </c>
       <c r="D18">
-        <v>1.031687207222149</v>
+        <v>1.030400305745814</v>
       </c>
       <c r="E18">
-        <v>1.029944230219844</v>
+        <v>1.029183154356814</v>
       </c>
       <c r="F18">
-        <v>1.037782197423334</v>
+        <v>1.036931748162662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049407983163538</v>
+        <v>1.048854255301832</v>
       </c>
       <c r="J18">
-        <v>1.036911715627028</v>
+        <v>1.036215605574822</v>
       </c>
       <c r="K18">
-        <v>1.044980510880113</v>
+        <v>1.043714141321149</v>
       </c>
       <c r="L18">
-        <v>1.04326535805718</v>
+        <v>1.042516469609361</v>
       </c>
       <c r="M18">
-        <v>1.050979143267293</v>
+        <v>1.050142052038063</v>
       </c>
       <c r="N18">
-        <v>1.016093086132515</v>
+        <v>1.016782115927034</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049803957248991</v>
+        <v>1.049142098531877</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042943169738167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042063187474359</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023887850073414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010192894315181</v>
+        <v>1.009488622550587</v>
       </c>
       <c r="D19">
-        <v>1.031559994650092</v>
+        <v>1.030293504015724</v>
       </c>
       <c r="E19">
-        <v>1.0297687073218</v>
+        <v>1.029025490896617</v>
       </c>
       <c r="F19">
-        <v>1.03743324033042</v>
+        <v>1.036598481253895</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049291258437768</v>
+        <v>1.048749797045767</v>
       </c>
       <c r="J19">
-        <v>1.036743870633501</v>
+        <v>1.036065331232922</v>
       </c>
       <c r="K19">
-        <v>1.044793579176174</v>
+        <v>1.043547193136599</v>
       </c>
       <c r="L19">
-        <v>1.043030745768324</v>
+        <v>1.042299372322369</v>
       </c>
       <c r="M19">
-        <v>1.050574411929037</v>
+        <v>1.049752705767419</v>
       </c>
       <c r="N19">
-        <v>1.016008836445024</v>
+        <v>1.01671074773243</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049161337356151</v>
+        <v>1.0485114343816</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042817344703854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041952116246253</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023824255565365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008446285686692</v>
+        <v>1.007850710430588</v>
       </c>
       <c r="D20">
-        <v>1.030228594649343</v>
+        <v>1.029084558089652</v>
       </c>
       <c r="E20">
-        <v>1.028097045792165</v>
+        <v>1.027459082816198</v>
       </c>
       <c r="F20">
-        <v>1.035575440313038</v>
+        <v>1.034836495473372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048713074414414</v>
+        <v>1.048239067823689</v>
       </c>
       <c r="J20">
-        <v>1.035655455492261</v>
+        <v>1.035082319119869</v>
       </c>
       <c r="K20">
-        <v>1.043759950399745</v>
+        <v>1.042634568740894</v>
       </c>
       <c r="L20">
-        <v>1.041663201944075</v>
+        <v>1.041035690669246</v>
       </c>
       <c r="M20">
-        <v>1.049020310314174</v>
+        <v>1.04829324969197</v>
       </c>
       <c r="N20">
-        <v>1.015596491135821</v>
+        <v>1.016476600177054</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047409095016544</v>
+        <v>1.046833708456202</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042090428472237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04131114396398</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023592458305119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004350571879354</v>
+        <v>1.004013172761534</v>
       </c>
       <c r="D21">
-        <v>1.027507232071674</v>
+        <v>1.026629886147489</v>
       </c>
       <c r="E21">
-        <v>1.02474966597454</v>
+        <v>1.02435701865431</v>
       </c>
       <c r="F21">
-        <v>1.032472525141029</v>
+        <v>1.031953019114749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047754424478603</v>
+        <v>1.047429316820065</v>
       </c>
       <c r="J21">
-        <v>1.033667516935256</v>
+        <v>1.033344057872782</v>
       </c>
       <c r="K21">
-        <v>1.041985561452424</v>
+        <v>1.041123720332956</v>
       </c>
       <c r="L21">
-        <v>1.039276844194947</v>
+        <v>1.038891180179128</v>
       </c>
       <c r="M21">
-        <v>1.046863748873759</v>
+        <v>1.046353305643148</v>
       </c>
       <c r="N21">
-        <v>1.014914325366899</v>
+        <v>1.016419401445367</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045661886064678</v>
+        <v>1.045257907226762</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040839086509311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040246459723159</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023289060920184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001748090546523</v>
+        <v>1.00157352335641</v>
       </c>
       <c r="D22">
-        <v>1.02578695786578</v>
+        <v>1.025077894300518</v>
       </c>
       <c r="E22">
-        <v>1.022641138231663</v>
+        <v>1.022402888248639</v>
       </c>
       <c r="F22">
-        <v>1.030535156616712</v>
+        <v>1.030154123685441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047143213081605</v>
+        <v>1.046912129915157</v>
       </c>
       <c r="J22">
-        <v>1.032411749299619</v>
+        <v>1.032244807780069</v>
       </c>
       <c r="K22">
-        <v>1.040864313229582</v>
+        <v>1.040168402488788</v>
       </c>
       <c r="L22">
-        <v>1.037777028677506</v>
+        <v>1.037543231026525</v>
       </c>
       <c r="M22">
-        <v>1.045525042281811</v>
+        <v>1.045150989856481</v>
       </c>
       <c r="N22">
-        <v>1.014484339606897</v>
+        <v>1.016378018082214</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044602396306243</v>
+        <v>1.044306360503533</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040032928204332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039556319838245</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023096333433169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003123206163764</v>
+        <v>1.002851593806388</v>
       </c>
       <c r="D23">
-        <v>1.026689984108908</v>
+        <v>1.025883664251321</v>
       </c>
       <c r="E23">
-        <v>1.023752994410708</v>
+        <v>1.023423221879987</v>
       </c>
       <c r="F23">
-        <v>1.031556307184071</v>
+        <v>1.031094011923124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047462853077811</v>
+        <v>1.047176581463677</v>
       </c>
       <c r="J23">
-        <v>1.033071163489898</v>
+        <v>1.032811073572561</v>
       </c>
       <c r="K23">
-        <v>1.04144960977236</v>
+        <v>1.040657870953659</v>
       </c>
       <c r="L23">
-        <v>1.038565874796549</v>
+        <v>1.038242106678364</v>
       </c>
       <c r="M23">
-        <v>1.046228561257546</v>
+        <v>1.045774520165877</v>
       </c>
       <c r="N23">
-        <v>1.014709192465338</v>
+        <v>1.016355341588002</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045159181048854</v>
+        <v>1.044799840182441</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040437193473218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039891889819415</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023192948950145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00845837871768</v>
+        <v>1.007864056872431</v>
       </c>
       <c r="D24">
-        <v>1.030213942170134</v>
+        <v>1.029071199172602</v>
       </c>
       <c r="E24">
-        <v>1.02808447425771</v>
+        <v>1.027447735150572</v>
       </c>
       <c r="F24">
-        <v>1.035537833914018</v>
+        <v>1.034799906609613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048695175049207</v>
+        <v>1.048222095091704</v>
       </c>
       <c r="J24">
-        <v>1.035634673587167</v>
+        <v>1.035062711229061</v>
       </c>
       <c r="K24">
-        <v>1.043730459109385</v>
+        <v>1.042606326749478</v>
       </c>
       <c r="L24">
-        <v>1.041635714354337</v>
+        <v>1.04100939386695</v>
       </c>
       <c r="M24">
-        <v>1.048968340791127</v>
+        <v>1.048242267281981</v>
       </c>
       <c r="N24">
-        <v>1.015584836437365</v>
+        <v>1.016464007532802</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047327515756661</v>
+        <v>1.046752882408428</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042042398660009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041261326698529</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023580811142647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014466787972983</v>
+        <v>1.013656023884276</v>
       </c>
       <c r="D25">
-        <v>1.03420450570004</v>
+        <v>1.032790891648974</v>
       </c>
       <c r="E25">
-        <v>1.032992132870439</v>
+        <v>1.032141923964795</v>
       </c>
       <c r="F25">
-        <v>1.040054669827926</v>
+        <v>1.039112948756607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050052405715588</v>
+        <v>1.049440670071676</v>
       </c>
       <c r="J25">
-        <v>1.038516906466091</v>
+        <v>1.037732389102127</v>
       </c>
       <c r="K25">
-        <v>1.046294070418244</v>
+        <v>1.044900637037622</v>
       </c>
       <c r="L25">
-        <v>1.045099001083822</v>
+        <v>1.044260957415147</v>
       </c>
       <c r="M25">
-        <v>1.052061454810924</v>
+        <v>1.051132979545756</v>
       </c>
       <c r="N25">
-        <v>1.01656911014419</v>
+        <v>1.017139628421055</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049775481170629</v>
+        <v>1.049040664186649</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043852136995726</v>
+        <v>1.042880354365556</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024040564829079</v>
       </c>
     </row>
   </sheetData>
